--- a/indicators/Alligator/Alligator.Calc.xlsx
+++ b/indicators/Alligator/Alligator.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E8F56-9AE6-4794-B880-2254D10A9E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B43BA7-A003-4C72-8D2E-F418EC1FCC90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,14 +722,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -804,6 +796,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -889,16 +889,16 @@
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="11" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{17A710D7-7854-44A7-8518-D78D98C39A80}" name="high" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{F0413E1D-8F64-4793-9A00-A7FC252CB31D}" name="low" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="median" dataDxfId="9" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{17A710D7-7854-44A7-8518-D78D98C39A80}" name="high" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{F0413E1D-8F64-4793-9A00-A7FC252CB31D}" name="low" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="median" dataDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>(testdata[[#This Row],[high]]+testdata[[#This Row],[low]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{862B3E79-B139-4365-B9DA-4E414568E541}" name="Jaw (13, 8)" dataDxfId="8" dataCellStyle="Currency">
+    <tableColumn id="13" xr3:uid="{862B3E79-B139-4365-B9DA-4E414568E541}" name="Jaw (13, 8)" dataDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>(#REF!+#REF!)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{BB38D8DA-FBA9-415F-B86F-A49FC3C0FADE}" name="Teeth (8, 5)" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{EF01FD91-39EA-4C40-9D0E-3E158866E3F7}" name="Lips (5, 3)" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{BB38D8DA-FBA9-415F-B86F-A49FC3C0FADE}" name="Teeth (8, 5)" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{EF01FD91-39EA-4C40-9D0E-3E158866E3F7}" name="Lips (5, 3)" dataDxfId="4" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1222,14 +1222,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="6" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1506,7 +1508,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12">
-        <f xml:space="preserve"> (H9 *(5-1) + E7) / 5</f>
+        <f t="shared" ref="H10:H73" si="0" xml:space="preserve"> (H9 *(5-1) + E7) / 5</f>
         <v>213.74899999999997</v>
       </c>
       <c r="J10" s="2">
@@ -1538,7 +1540,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
-        <f xml:space="preserve"> (H10 *(5-1) + E8) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.76719999999995</v>
       </c>
       <c r="J11" s="2">
@@ -1570,7 +1572,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
-        <f xml:space="preserve"> (H11 *(5-1) + E9) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.68875999999995</v>
       </c>
       <c r="J12" s="2">
@@ -1602,7 +1604,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
-        <f xml:space="preserve"> (H12 *(5-1) + E10) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.85200799999993</v>
       </c>
       <c r="J13" s="2">
@@ -1637,7 +1639,7 @@
         <v>213.69937499999997</v>
       </c>
       <c r="H14" s="11">
-        <f xml:space="preserve"> (H13 *(5-1) + E11) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.83960639999995</v>
       </c>
       <c r="J14" s="2">
@@ -1670,11 +1672,11 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="12">
-        <f xml:space="preserve"> (G14 *(8-1) + E10) / 8</f>
+        <f t="shared" ref="G15:G78" si="1" xml:space="preserve"> (G14 *(8-1) + E10) / 8</f>
         <v>213.80007812499997</v>
       </c>
       <c r="H15" s="11">
-        <f xml:space="preserve"> (H14 *(5-1) + E12) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.84068511999993</v>
       </c>
       <c r="J15" s="2">
@@ -1707,11 +1709,11 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="11">
-        <f xml:space="preserve"> (G15 *(8-1) + E11) / 8</f>
+        <f t="shared" si="1"/>
         <v>213.79881835937496</v>
       </c>
       <c r="H16" s="11">
-        <f xml:space="preserve"> (H15 *(5-1) + E13) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.81454809599995</v>
       </c>
       <c r="J16" s="2">
@@ -1744,11 +1746,11 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="11">
-        <f xml:space="preserve"> (G16 *(8-1) + E12) / 8</f>
+        <f t="shared" si="1"/>
         <v>213.80459106445309</v>
       </c>
       <c r="H17" s="11">
-        <f xml:space="preserve"> (H16 *(5-1) + E14) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.87563847679994</v>
       </c>
       <c r="J17" s="2">
@@ -1781,11 +1783,11 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="11">
-        <f xml:space="preserve"> (G17 *(8-1) + E13) / 8</f>
+        <f t="shared" si="1"/>
         <v>213.79276718139647</v>
       </c>
       <c r="H18" s="11">
-        <f xml:space="preserve"> (H17 *(5-1) + E15) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.81151078143995</v>
       </c>
       <c r="J18" s="2">
@@ -1818,11 +1820,11 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="11">
-        <f xml:space="preserve"> (G18 *(8-1) + E14) / 8</f>
+        <f t="shared" si="1"/>
         <v>213.83367128372191</v>
       </c>
       <c r="H19" s="11">
-        <f xml:space="preserve"> (H18 *(5-1) + E16) / 5</f>
+        <f t="shared" si="0"/>
         <v>213.97420862515196</v>
       </c>
       <c r="J19" s="2">
@@ -1855,11 +1857,11 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="11">
-        <f xml:space="preserve"> (G19 *(8-1) + E15) / 8</f>
+        <f t="shared" si="1"/>
         <v>213.79883737325667</v>
       </c>
       <c r="H20" s="11">
-        <f xml:space="preserve"> (H19 *(5-1) + E17) / 5</f>
+        <f t="shared" si="0"/>
         <v>214.45736690012154</v>
       </c>
       <c r="J20" s="2">
@@ -1892,11 +1894,11 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="11">
-        <f xml:space="preserve"> (G20 *(8-1) + E16) / 8</f>
+        <f t="shared" si="1"/>
         <v>213.90210770159959</v>
       </c>
       <c r="H21" s="11">
-        <f xml:space="preserve"> (H20 *(5-1) + E18) / 5</f>
+        <f t="shared" si="0"/>
         <v>214.90389352009726</v>
       </c>
       <c r="J21" s="2">
@@ -1932,11 +1934,11 @@
         <v>213.81269230769229</v>
       </c>
       <c r="G22" s="11">
-        <f xml:space="preserve"> (G21 *(8-1) + E17) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.21309423889966</v>
       </c>
       <c r="H22" s="11">
-        <f xml:space="preserve"> (H21 *(5-1) + E19) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.22611481607782</v>
       </c>
       <c r="J22" s="2">
@@ -1970,15 +1972,15 @@
         <v>214.89499999999998</v>
       </c>
       <c r="F23" s="12">
-        <f xml:space="preserve"> (F22 *(13 - 1) + E15) / 13</f>
+        <f t="shared" ref="F23:F86" si="2" xml:space="preserve"> (F22 *(13 - 1) + E15) / 13</f>
         <v>213.79286982248519</v>
       </c>
       <c r="G23" s="11">
-        <f xml:space="preserve"> (G22 *(8-1) + E18) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.52270745903721</v>
       </c>
       <c r="H23" s="11">
-        <f xml:space="preserve"> (H22 *(5-1) + E20) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.12989185286224</v>
       </c>
       <c r="J23" s="2">
@@ -2012,15 +2014,15 @@
         <v>216.35500000000002</v>
       </c>
       <c r="F24" s="8">
-        <f xml:space="preserve"> (F23 *(13 - 1) + E16) / 13</f>
+        <f t="shared" si="2"/>
         <v>213.85687983614019</v>
       </c>
       <c r="G24" s="11">
-        <f xml:space="preserve"> (G23 *(8-1) + E19) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.77174402665753</v>
       </c>
       <c r="H24" s="11">
-        <f xml:space="preserve"> (H23 *(5-1) + E21) / 5</f>
+        <f t="shared" si="0"/>
         <v>214.9889134822898</v>
       </c>
       <c r="J24" s="2">
@@ -2054,15 +2056,15 @@
         <v>216.29</v>
       </c>
       <c r="F25" s="8">
-        <f xml:space="preserve"> (F24 *(13 - 1) + E17) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.05173523336015</v>
       </c>
       <c r="G25" s="11">
-        <f xml:space="preserve"> (G24 *(8-1) + E20) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.76840102332534</v>
       </c>
       <c r="H25" s="11">
-        <f xml:space="preserve"> (H24 *(5-1) + E22) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.02713078583184</v>
       </c>
       <c r="J25" s="2">
@@ -2096,15 +2098,15 @@
         <v>216.53</v>
       </c>
       <c r="F26" s="8">
-        <f xml:space="preserve"> (F25 *(13 - 1) + E18) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.2546786769478</v>
       </c>
       <c r="G26" s="11">
-        <f xml:space="preserve"> (G25 *(8-1) + E21) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.72547589540966</v>
       </c>
       <c r="H26" s="11">
-        <f xml:space="preserve"> (H25 *(5-1) + E23) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.00070462866546</v>
       </c>
       <c r="J26" s="2">
@@ -2138,15 +2140,15 @@
         <v>216.20999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f xml:space="preserve"> (F26 *(13 - 1) + E19) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.4285495479518</v>
       </c>
       <c r="G27" s="11">
-        <f xml:space="preserve"> (G26 *(8-1) + E22) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.78229140848347</v>
       </c>
       <c r="H27" s="11">
-        <f xml:space="preserve"> (H26 *(5-1) + E24) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.27156370293238</v>
       </c>
       <c r="J27" s="2">
@@ -2180,15 +2182,15 @@
         <v>217.51499999999999</v>
       </c>
       <c r="F28" s="8">
-        <f xml:space="preserve"> (F27 *(13 - 1) + E20) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.45289189041705</v>
       </c>
       <c r="G28" s="11">
-        <f xml:space="preserve"> (G27 *(8-1) + E23) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.79637998242305</v>
       </c>
       <c r="H28" s="11">
-        <f xml:space="preserve"> (H27 *(5-1) + E25) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.47525096234591</v>
       </c>
       <c r="J28" s="2">
@@ -2222,15 +2224,15 @@
         <v>218.42500000000001</v>
       </c>
       <c r="F29" s="8">
-        <f xml:space="preserve"> (F28 *(13 - 1) + E21) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.45074636038498</v>
       </c>
       <c r="G29" s="11">
-        <f xml:space="preserve"> (G28 *(8-1) + E24) / 8</f>
+        <f t="shared" si="1"/>
         <v>214.99120748462016</v>
       </c>
       <c r="H29" s="11">
-        <f xml:space="preserve"> (H28 *(5-1) + E26) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.68620076987673</v>
       </c>
       <c r="J29" s="2">
@@ -2264,15 +2266,15 @@
         <v>219.70999999999998</v>
       </c>
       <c r="F30" s="8">
-        <f xml:space="preserve"> (F29 *(13 - 1) + E22) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.5068427942015</v>
       </c>
       <c r="G30" s="11">
-        <f xml:space="preserve"> (G29 *(8-1) + E25) / 8</f>
+        <f t="shared" si="1"/>
         <v>215.15355654904263</v>
       </c>
       <c r="H30" s="11">
-        <f xml:space="preserve"> (H29 *(5-1) + E27) / 5</f>
+        <f t="shared" si="0"/>
         <v>215.79096061590138</v>
       </c>
       <c r="J30" s="2">
@@ -2306,15 +2308,15 @@
         <v>220.065</v>
       </c>
       <c r="F31" s="8">
-        <f xml:space="preserve"> (F30 *(13 - 1) + E23) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.5367010408014</v>
       </c>
       <c r="G31" s="11">
-        <f xml:space="preserve"> (G30 *(8-1) + E26) / 8</f>
+        <f t="shared" si="1"/>
         <v>215.3256119804123</v>
       </c>
       <c r="H31" s="11">
-        <f xml:space="preserve"> (H30 *(5-1) + E28) / 5</f>
+        <f t="shared" si="0"/>
         <v>216.13576849272113</v>
       </c>
       <c r="J31" s="2">
@@ -2348,15 +2350,15 @@
         <v>221.32499999999999</v>
       </c>
       <c r="F32" s="8">
-        <f xml:space="preserve"> (F31 *(13 - 1) + E24) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.676570191509</v>
       </c>
       <c r="G32" s="11">
-        <f xml:space="preserve"> (G31 *(8-1) + E27) / 8</f>
+        <f t="shared" si="1"/>
         <v>215.43616048286077</v>
       </c>
       <c r="H32" s="11">
-        <f xml:space="preserve"> (H31 *(5-1) + E29) / 5</f>
+        <f t="shared" si="0"/>
         <v>216.59361479417689</v>
       </c>
       <c r="J32" s="2">
@@ -2390,15 +2392,15 @@
         <v>221.54500000000002</v>
       </c>
       <c r="F33" s="8">
-        <f xml:space="preserve"> (F32 *(13 - 1) + E25) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.80068017677755</v>
       </c>
       <c r="G33" s="11">
-        <f xml:space="preserve"> (G32 *(8-1) + E28) / 8</f>
+        <f t="shared" si="1"/>
         <v>215.69601542250319</v>
       </c>
       <c r="H33" s="11">
-        <f xml:space="preserve"> (H32 *(5-1) + E30) / 5</f>
+        <f t="shared" si="0"/>
         <v>217.2168918353415</v>
       </c>
       <c r="J33" s="2">
@@ -2432,15 +2434,15 @@
         <v>221.55500000000001</v>
       </c>
       <c r="F34" s="8">
-        <f xml:space="preserve"> (F33 *(13 - 1) + E26) / 13</f>
+        <f t="shared" si="2"/>
         <v>214.93370477856391</v>
       </c>
       <c r="G34" s="11">
-        <f xml:space="preserve"> (G33 *(8-1) + E29) / 8</f>
+        <f t="shared" si="1"/>
         <v>216.03713849469028</v>
       </c>
       <c r="H34" s="11">
-        <f xml:space="preserve"> (H33 *(5-1) + E31) / 5</f>
+        <f t="shared" si="0"/>
         <v>217.7865134682732</v>
       </c>
       <c r="J34" s="2">
@@ -2474,15 +2476,15 @@
         <v>223.06</v>
       </c>
       <c r="F35" s="8">
-        <f xml:space="preserve"> (F34 *(13 - 1) + E27) / 13</f>
+        <f t="shared" si="2"/>
         <v>215.03188133405899</v>
       </c>
       <c r="G35" s="11">
-        <f xml:space="preserve"> (G34 *(8-1) + E30) / 8</f>
+        <f t="shared" si="1"/>
         <v>216.49624618285401</v>
       </c>
       <c r="H35" s="11">
-        <f xml:space="preserve"> (H34 *(5-1) + E32) / 5</f>
+        <f t="shared" si="0"/>
         <v>218.49421077461858</v>
       </c>
       <c r="J35" s="2">
@@ -2516,15 +2518,15 @@
         <v>223.13499999999999</v>
       </c>
       <c r="F36" s="8">
-        <f xml:space="preserve"> (F35 *(13 - 1) + E28) / 13</f>
+        <f t="shared" si="2"/>
         <v>215.22289046220828</v>
       </c>
       <c r="G36" s="11">
-        <f xml:space="preserve"> (G35 *(8-1) + E31) / 8</f>
+        <f t="shared" si="1"/>
         <v>216.94234040999726</v>
       </c>
       <c r="H36" s="11">
-        <f xml:space="preserve"> (H35 *(5-1) + E33) / 5</f>
+        <f t="shared" si="0"/>
         <v>219.10436861969487</v>
       </c>
       <c r="J36" s="2">
@@ -2558,15 +2560,15 @@
         <v>223.18</v>
       </c>
       <c r="F37" s="8">
-        <f xml:space="preserve"> (F36 *(13 - 1) + E29) / 13</f>
+        <f t="shared" si="2"/>
         <v>215.46920658049996</v>
       </c>
       <c r="G37" s="11">
-        <f xml:space="preserve"> (G36 *(8-1) + E32) / 8</f>
+        <f t="shared" si="1"/>
         <v>217.4901728587476</v>
       </c>
       <c r="H37" s="11">
-        <f xml:space="preserve"> (H36 *(5-1) + E34) / 5</f>
+        <f t="shared" si="0"/>
         <v>219.5944948957559</v>
       </c>
       <c r="J37" s="2">
@@ -2600,15 +2602,15 @@
         <v>223.06</v>
       </c>
       <c r="F38" s="8">
-        <f xml:space="preserve"> (F37 *(13 - 1) + E30) / 13</f>
+        <f t="shared" si="2"/>
         <v>215.79542145892304</v>
       </c>
       <c r="G38" s="11">
-        <f xml:space="preserve"> (G37 *(8-1) + E33) / 8</f>
+        <f t="shared" si="1"/>
         <v>217.99702625140415</v>
       </c>
       <c r="H38" s="11">
-        <f xml:space="preserve"> (H37 *(5-1) + E35) / 5</f>
+        <f t="shared" si="0"/>
         <v>220.28759591660474</v>
       </c>
       <c r="J38" s="2">
@@ -2642,15 +2644,15 @@
         <v>223.745</v>
       </c>
       <c r="F39" s="8">
-        <f xml:space="preserve"> (F38 *(13 - 1) + E31) / 13</f>
+        <f t="shared" si="2"/>
         <v>216.12385057746741</v>
       </c>
       <c r="G39" s="11">
-        <f xml:space="preserve"> (G38 *(8-1) + E34) / 8</f>
+        <f t="shared" si="1"/>
         <v>218.44177296997864</v>
       </c>
       <c r="H39" s="11">
-        <f xml:space="preserve"> (H38 *(5-1) + E36) / 5</f>
+        <f t="shared" si="0"/>
         <v>220.8570767332838</v>
       </c>
       <c r="J39" s="2">
@@ -2684,15 +2686,15 @@
         <v>223.42000000000002</v>
       </c>
       <c r="F40" s="8">
-        <f xml:space="preserve"> (F39 *(13 - 1) + E32) / 13</f>
+        <f t="shared" si="2"/>
         <v>216.52393899458528</v>
       </c>
       <c r="G40" s="11">
-        <f xml:space="preserve"> (G39 *(8-1) + E35) / 8</f>
+        <f t="shared" si="1"/>
         <v>219.0190513487313</v>
       </c>
       <c r="H40" s="11">
-        <f xml:space="preserve"> (H39 *(5-1) + E37) / 5</f>
+        <f t="shared" si="0"/>
         <v>221.32166138662706</v>
       </c>
       <c r="J40" s="2">
@@ -2726,15 +2728,15 @@
         <v>226.12</v>
       </c>
       <c r="F41" s="8">
-        <f xml:space="preserve"> (F40 *(13 - 1) + E33) / 13</f>
+        <f t="shared" si="2"/>
         <v>216.91017445654026</v>
       </c>
       <c r="G41" s="11">
-        <f xml:space="preserve"> (G40 *(8-1) + E36) / 8</f>
+        <f t="shared" si="1"/>
         <v>219.53354493013987</v>
       </c>
       <c r="H41" s="11">
-        <f xml:space="preserve"> (H40 *(5-1) + E38) / 5</f>
+        <f t="shared" si="0"/>
         <v>221.66932910930163</v>
       </c>
       <c r="J41" s="2">
@@ -2768,15 +2770,15 @@
         <v>225.69499999999999</v>
       </c>
       <c r="F42" s="8">
-        <f xml:space="preserve"> (F41 *(13 - 1) + E34) / 13</f>
+        <f t="shared" si="2"/>
         <v>217.26746872911406</v>
       </c>
       <c r="G42" s="11">
-        <f xml:space="preserve"> (G41 *(8-1) + E37) / 8</f>
+        <f t="shared" si="1"/>
         <v>219.98935181387239</v>
       </c>
       <c r="H42" s="11">
-        <f xml:space="preserve"> (H41 *(5-1) + E39) / 5</f>
+        <f t="shared" si="0"/>
         <v>222.08446328744131</v>
       </c>
       <c r="J42" s="2">
@@ -2810,15 +2812,15 @@
         <v>225.01499999999999</v>
       </c>
       <c r="F43" s="8">
-        <f xml:space="preserve"> (F42 *(13 - 1) + E35) / 13</f>
+        <f t="shared" si="2"/>
         <v>217.71304805764373</v>
       </c>
       <c r="G43" s="11">
-        <f xml:space="preserve"> (G42 *(8-1) + E38) / 8</f>
+        <f t="shared" si="1"/>
         <v>220.37318283713833</v>
       </c>
       <c r="H43" s="11">
-        <f xml:space="preserve"> (H42 *(5-1) + E40) / 5</f>
+        <f t="shared" si="0"/>
         <v>222.35157062995304</v>
       </c>
       <c r="J43" s="2">
@@ -2852,15 +2854,15 @@
         <v>224.44499999999999</v>
       </c>
       <c r="F44" s="8">
-        <f xml:space="preserve"> (F43 *(13 - 1) + E36) / 13</f>
+        <f t="shared" si="2"/>
         <v>218.13012128397881</v>
       </c>
       <c r="G44" s="11">
-        <f xml:space="preserve"> (G43 *(8-1) + E39) / 8</f>
+        <f t="shared" si="1"/>
         <v>220.79465998249606</v>
       </c>
       <c r="H44" s="11">
-        <f xml:space="preserve"> (H43 *(5-1) + E41) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.10525650396244</v>
       </c>
       <c r="J44" s="2">
@@ -2894,15 +2896,15 @@
         <v>224.16</v>
       </c>
       <c r="F45" s="8">
-        <f xml:space="preserve"> (F44 *(13 - 1) + E37) / 13</f>
+        <f t="shared" si="2"/>
         <v>218.5185734929035</v>
       </c>
       <c r="G45" s="11">
-        <f xml:space="preserve"> (G44 *(8-1) + E40) / 8</f>
+        <f t="shared" si="1"/>
         <v>221.12282748468405</v>
       </c>
       <c r="H45" s="11">
-        <f xml:space="preserve"> (H44 *(5-1) + E42) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.62320520316993</v>
       </c>
       <c r="J45" s="2">
@@ -2936,15 +2938,15 @@
         <v>223.92500000000001</v>
       </c>
       <c r="F46" s="8">
-        <f xml:space="preserve"> (F45 *(13 - 1) + E38) / 13</f>
+        <f t="shared" si="2"/>
         <v>218.86791399344941</v>
       </c>
       <c r="G46" s="11">
-        <f xml:space="preserve"> (G45 *(8-1) + E41) / 8</f>
+        <f t="shared" si="1"/>
         <v>221.74747404909857</v>
       </c>
       <c r="H46" s="11">
-        <f xml:space="preserve"> (H45 *(5-1) + E43) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.90156416253595</v>
       </c>
       <c r="J46" s="2">
@@ -2978,15 +2980,15 @@
         <v>223.42500000000001</v>
       </c>
       <c r="F47" s="8">
-        <f xml:space="preserve"> (F46 *(13 - 1) + E39) / 13</f>
+        <f t="shared" si="2"/>
         <v>219.24307445549175</v>
       </c>
       <c r="G47" s="11">
-        <f xml:space="preserve"> (G46 *(8-1) + E42) / 8</f>
+        <f t="shared" si="1"/>
         <v>222.24091479296123</v>
       </c>
       <c r="H47" s="11">
-        <f xml:space="preserve"> (H46 *(5-1) + E44) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.01025133002878</v>
       </c>
       <c r="J47" s="2">
@@ -3020,15 +3022,15 @@
         <v>224.19499999999999</v>
       </c>
       <c r="F48" s="8">
-        <f xml:space="preserve"> (F47 *(13 - 1) + E40) / 13</f>
+        <f t="shared" si="2"/>
         <v>219.56437642045393</v>
       </c>
       <c r="G48" s="11">
-        <f xml:space="preserve"> (G47 *(8-1) + E43) / 8</f>
+        <f t="shared" si="1"/>
         <v>222.58767544384108</v>
       </c>
       <c r="H48" s="11">
-        <f xml:space="preserve"> (H47 *(5-1) + E45) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.04020106402305</v>
       </c>
       <c r="J48" s="2">
@@ -3062,15 +3064,15 @@
         <v>224.42500000000001</v>
       </c>
       <c r="F49" s="8">
-        <f xml:space="preserve"> (F48 *(13 - 1) + E41) / 13</f>
+        <f t="shared" si="2"/>
         <v>220.06865515734205</v>
       </c>
       <c r="G49" s="11">
-        <f xml:space="preserve"> (G48 *(8-1) + E44) / 8</f>
+        <f t="shared" si="1"/>
         <v>222.81984101336093</v>
       </c>
       <c r="H49" s="11">
-        <f xml:space="preserve"> (H48 *(5-1) + E46) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.01716085121842</v>
       </c>
       <c r="J49" s="2">
@@ -3104,15 +3106,15 @@
         <v>223.63499999999999</v>
       </c>
       <c r="F50" s="8">
-        <f xml:space="preserve"> (F49 *(13 - 1) + E42) / 13</f>
+        <f t="shared" si="2"/>
         <v>220.50145091446959</v>
       </c>
       <c r="G50" s="11">
-        <f xml:space="preserve"> (G49 *(8-1) + E45) / 8</f>
+        <f t="shared" si="1"/>
         <v>222.98736088669082</v>
       </c>
       <c r="H50" s="11">
-        <f xml:space="preserve"> (H49 *(5-1) + E47) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.89872868097473</v>
       </c>
       <c r="J50" s="2">
@@ -3146,15 +3148,15 @@
         <v>225.19499999999999</v>
       </c>
       <c r="F51" s="8">
-        <f xml:space="preserve"> (F50 *(13 - 1) + E43) / 13</f>
+        <f t="shared" si="2"/>
         <v>220.84864699797191</v>
       </c>
       <c r="G51" s="11">
-        <f xml:space="preserve"> (G50 *(8-1) + E46) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.10456577585447</v>
       </c>
       <c r="H51" s="11">
-        <f xml:space="preserve"> (H50 *(5-1) + E48) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.95798294477976</v>
       </c>
       <c r="J51" s="2">
@@ -3188,15 +3190,15 @@
         <v>225.47</v>
       </c>
       <c r="F52" s="8">
-        <f xml:space="preserve"> (F51 *(13 - 1) + E44) / 13</f>
+        <f t="shared" si="2"/>
         <v>221.12528953658949</v>
       </c>
       <c r="G52" s="11">
-        <f xml:space="preserve"> (G51 *(8-1) + E47) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.14462005387264</v>
       </c>
       <c r="H52" s="11">
-        <f xml:space="preserve"> (H51 *(5-1) + E49) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.05138635582381</v>
       </c>
       <c r="J52" s="2">
@@ -3230,15 +3232,15 @@
         <v>225.35500000000002</v>
       </c>
       <c r="F53" s="8">
-        <f xml:space="preserve"> (F52 *(13 - 1) + E45) / 13</f>
+        <f t="shared" si="2"/>
         <v>221.3587288030057</v>
       </c>
       <c r="G53" s="11">
-        <f xml:space="preserve"> (G52 *(8-1) + E48) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.27591754713856</v>
       </c>
       <c r="H53" s="11">
-        <f xml:space="preserve"> (H52 *(5-1) + E50) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.96810908465903</v>
       </c>
       <c r="J53" s="2">
@@ -3272,15 +3274,15 @@
         <v>224.73000000000002</v>
       </c>
       <c r="F54" s="8">
-        <f xml:space="preserve"> (F53 *(13 - 1) + E46) / 13</f>
+        <f t="shared" si="2"/>
         <v>221.55613427969757</v>
       </c>
       <c r="G54" s="11">
-        <f xml:space="preserve"> (G53 *(8-1) + E49) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.41955285374624</v>
       </c>
       <c r="H54" s="11">
-        <f xml:space="preserve"> (H53 *(5-1) + E51) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.2134872677272</v>
       </c>
       <c r="J54" s="2">
@@ -3314,15 +3316,15 @@
         <v>223.55</v>
       </c>
       <c r="F55" s="8">
-        <f xml:space="preserve"> (F54 *(13 - 1) + E47) / 13</f>
+        <f t="shared" si="2"/>
         <v>221.69989318125934</v>
       </c>
       <c r="G55" s="11">
-        <f xml:space="preserve"> (G54 *(8-1) + E50) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.44648374702797</v>
       </c>
       <c r="H55" s="11">
-        <f xml:space="preserve"> (H54 *(5-1) + E52) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.46478981418176</v>
       </c>
       <c r="J55" s="2">
@@ -3356,15 +3358,15 @@
         <v>221.87</v>
       </c>
       <c r="F56" s="8">
-        <f xml:space="preserve"> (F55 *(13 - 1) + E48) / 13</f>
+        <f t="shared" si="2"/>
         <v>221.89182447500863</v>
       </c>
       <c r="G56" s="11">
-        <f xml:space="preserve"> (G55 *(8-1) + E51) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.66504827864946</v>
       </c>
       <c r="H56" s="11">
-        <f xml:space="preserve"> (H55 *(5-1) + E53) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.64283185134542</v>
       </c>
       <c r="J56" s="2">
@@ -3398,15 +3400,15 @@
         <v>222.48500000000001</v>
       </c>
       <c r="F57" s="8">
-        <f xml:space="preserve"> (F56 *(13 - 1) + E49) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.0866841307772</v>
       </c>
       <c r="G57" s="11">
-        <f xml:space="preserve"> (G56 *(8-1) + E52) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.89066724381829</v>
       </c>
       <c r="H57" s="11">
-        <f xml:space="preserve"> (H56 *(5-1) + E54) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.66026548107635</v>
       </c>
       <c r="J57" s="2">
@@ -3440,15 +3442,15 @@
         <v>222.03500000000003</v>
       </c>
       <c r="F58" s="8">
-        <f xml:space="preserve"> (F57 *(13 - 1) + E50) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.20578535148664</v>
       </c>
       <c r="G58" s="11">
-        <f xml:space="preserve"> (G57 *(8-1) + E53) / 8</f>
+        <f t="shared" si="1"/>
         <v>224.07370883834099</v>
       </c>
       <c r="H58" s="11">
-        <f xml:space="preserve"> (H57 *(5-1) + E55) / 5</f>
+        <f t="shared" si="0"/>
         <v>224.43821238486106</v>
       </c>
       <c r="J58" s="2">
@@ -3482,15 +3484,15 @@
         <v>220.86500000000001</v>
       </c>
       <c r="F59" s="8">
-        <f xml:space="preserve"> (F58 *(13 - 1) + E51) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.43572493983385</v>
       </c>
       <c r="G59" s="11">
-        <f xml:space="preserve"> (G58 *(8-1) + E54) / 8</f>
+        <f t="shared" si="1"/>
         <v>224.15574523354837</v>
       </c>
       <c r="H59" s="11">
-        <f xml:space="preserve"> (H58 *(5-1) + E56) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.92456990788887</v>
       </c>
       <c r="J59" s="2">
@@ -3524,15 +3526,15 @@
         <v>222.48500000000001</v>
       </c>
       <c r="F60" s="8">
-        <f xml:space="preserve"> (F59 *(13 - 1) + E52) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.66913071369279</v>
       </c>
       <c r="G60" s="11">
-        <f xml:space="preserve"> (G59 *(8-1) + E55) / 8</f>
+        <f t="shared" si="1"/>
         <v>224.08002707935483</v>
       </c>
       <c r="H60" s="11">
-        <f xml:space="preserve"> (H59 *(5-1) + E57) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.63665592631111</v>
       </c>
       <c r="J60" s="2">
@@ -3566,15 +3568,15 @@
         <v>223.23500000000001</v>
       </c>
       <c r="F61" s="8">
-        <f xml:space="preserve"> (F60 *(13 - 1) + E53) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.87573604340875</v>
       </c>
       <c r="G61" s="11">
-        <f xml:space="preserve"> (G60 *(8-1) + E56) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.80377369443551</v>
       </c>
       <c r="H61" s="11">
-        <f xml:space="preserve"> (H60 *(5-1) + E58) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.3163247410489</v>
       </c>
       <c r="J61" s="2">
@@ -3608,15 +3610,15 @@
         <v>223.83500000000001</v>
       </c>
       <c r="F62" s="8">
-        <f xml:space="preserve"> (F61 *(13 - 1) + E54) / 13</f>
+        <f t="shared" si="2"/>
         <v>223.01837173237729</v>
       </c>
       <c r="G62" s="11">
-        <f xml:space="preserve"> (G61 *(8-1) + E57) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.63892698263106</v>
       </c>
       <c r="H62" s="11">
-        <f xml:space="preserve"> (H61 *(5-1) + E59) / 5</f>
+        <f t="shared" si="0"/>
         <v>222.82605979283912</v>
       </c>
       <c r="J62" s="2">
@@ -3650,15 +3652,15 @@
         <v>224.02499999999998</v>
       </c>
       <c r="F63" s="8">
-        <f xml:space="preserve"> (F62 *(13 - 1) + E55) / 13</f>
+        <f t="shared" si="2"/>
         <v>223.05926621450212</v>
       </c>
       <c r="G63" s="11">
-        <f xml:space="preserve"> (G62 *(8-1) + E58) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.43843610980218</v>
       </c>
       <c r="H63" s="11">
-        <f xml:space="preserve"> (H62 *(5-1) + E60) / 5</f>
+        <f t="shared" si="0"/>
         <v>222.7578478342713</v>
       </c>
       <c r="J63" s="2">
@@ -3692,15 +3694,15 @@
         <v>222.95499999999998</v>
       </c>
       <c r="F64" s="8">
-        <f xml:space="preserve"> (F63 *(13 - 1) + E56) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.96778419800194</v>
       </c>
       <c r="G64" s="11">
-        <f xml:space="preserve"> (G63 *(8-1) + E59) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.1167565960769</v>
       </c>
       <c r="H64" s="11">
-        <f xml:space="preserve"> (H63 *(5-1) + E61) / 5</f>
+        <f t="shared" si="0"/>
         <v>222.85327826741704</v>
       </c>
       <c r="J64" s="2">
@@ -3734,15 +3736,15 @@
         <v>223.04500000000002</v>
       </c>
       <c r="F65" s="8">
-        <f xml:space="preserve"> (F64 *(13 - 1) + E57) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.93064695200181</v>
       </c>
       <c r="G65" s="11">
-        <f xml:space="preserve"> (G64 *(8-1) + E60) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.03778702156728</v>
       </c>
       <c r="H65" s="11">
-        <f xml:space="preserve"> (H64 *(5-1) + E62) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.04962261393362</v>
       </c>
       <c r="J65" s="2">
@@ -3776,15 +3778,15 @@
         <v>223.9</v>
       </c>
       <c r="F66" s="8">
-        <f xml:space="preserve"> (F65 *(13 - 1) + E58) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.86175103261706</v>
       </c>
       <c r="G66" s="11">
-        <f xml:space="preserve"> (G65 *(8-1) + E61) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.06243864387136</v>
       </c>
       <c r="H66" s="11">
-        <f xml:space="preserve"> (H65 *(5-1) + E63) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.24469809114689</v>
       </c>
       <c r="J66" s="2">
@@ -3818,15 +3820,15 @@
         <v>223.20499999999998</v>
       </c>
       <c r="F67" s="8">
-        <f xml:space="preserve"> (F66 *(13 - 1) + E59) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.70815479933879</v>
       </c>
       <c r="G67" s="11">
-        <f xml:space="preserve"> (G66 *(8-1) + E62) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.15900881338746</v>
       </c>
       <c r="H67" s="11">
-        <f xml:space="preserve"> (H66 *(5-1) + E64) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.18675847291752</v>
       </c>
       <c r="J67" s="2">
@@ -3860,15 +3862,15 @@
         <v>223.285</v>
       </c>
       <c r="F68" s="8">
-        <f xml:space="preserve"> (F67 *(13 - 1) + E60) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.69098904554352</v>
       </c>
       <c r="G68" s="11">
-        <f xml:space="preserve"> (G67 *(8-1) + E63) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.26725771171402</v>
       </c>
       <c r="H68" s="11">
-        <f xml:space="preserve"> (H67 *(5-1) + E65) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.15840677833404</v>
       </c>
       <c r="J68" s="2">
@@ -3902,15 +3904,15 @@
         <v>223.45499999999998</v>
       </c>
       <c r="F69" s="8">
-        <f xml:space="preserve"> (F68 *(13 - 1) + E61) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.73283604204016</v>
       </c>
       <c r="G69" s="11">
-        <f xml:space="preserve"> (G68 *(8-1) + E64) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.22822549774975</v>
       </c>
       <c r="H69" s="11">
-        <f xml:space="preserve"> (H68 *(5-1) + E66) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.30672542266726</v>
       </c>
       <c r="J69" s="2">
@@ -3944,15 +3946,15 @@
         <v>222.28</v>
       </c>
       <c r="F70" s="8">
-        <f xml:space="preserve"> (F69 *(13 - 1) + E62) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.81761788496016</v>
       </c>
       <c r="G70" s="11">
-        <f xml:space="preserve"> (G69 *(8-1) + E65) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.20532231053105</v>
       </c>
       <c r="H70" s="11">
-        <f xml:space="preserve"> (H69 *(5-1) + E67) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.28638033813382</v>
       </c>
       <c r="J70" s="2">
@@ -3986,15 +3988,15 @@
         <v>222.38499999999999</v>
       </c>
       <c r="F71" s="8">
-        <f xml:space="preserve"> (F70 *(13 - 1) + E63) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.91049343227093</v>
       </c>
       <c r="G71" s="11">
-        <f xml:space="preserve"> (G70 *(8-1) + E66) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.29215702171467</v>
       </c>
       <c r="H71" s="11">
-        <f xml:space="preserve"> (H70 *(5-1) + E68) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.28610427050708</v>
       </c>
       <c r="J71" s="2">
@@ -4028,15 +4030,15 @@
         <v>221.56</v>
       </c>
       <c r="F72" s="8">
-        <f xml:space="preserve"> (F71 *(13 - 1) + E64) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.91391701440395</v>
       </c>
       <c r="G72" s="11">
-        <f xml:space="preserve"> (G71 *(8-1) + E67) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.28126239400032</v>
       </c>
       <c r="H72" s="11">
-        <f xml:space="preserve"> (H71 *(5-1) + E69) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.31988341640567</v>
       </c>
       <c r="J72" s="2">
@@ -4070,15 +4072,15 @@
         <v>221.77500000000001</v>
       </c>
       <c r="F73" s="8">
-        <f xml:space="preserve"> (F72 *(13 - 1) + E65) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.92400032098826</v>
       </c>
       <c r="G73" s="11">
-        <f xml:space="preserve"> (G72 *(8-1) + E68) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.28172959475029</v>
       </c>
       <c r="H73" s="11">
-        <f xml:space="preserve"> (H72 *(5-1) + E70) / 5</f>
+        <f t="shared" si="0"/>
         <v>223.11190673312453</v>
       </c>
       <c r="J73" s="2">
@@ -4112,15 +4114,15 @@
         <v>221.82999999999998</v>
       </c>
       <c r="F74" s="8">
-        <f xml:space="preserve"> (F73 *(13 - 1) + E66) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.99907721937376</v>
       </c>
       <c r="G74" s="11">
-        <f xml:space="preserve"> (G73 *(8-1) + E69) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.3033883954065</v>
       </c>
       <c r="H74" s="11">
-        <f xml:space="preserve"> (H73 *(5-1) + E71) / 5</f>
+        <f t="shared" ref="H74:H137" si="3" xml:space="preserve"> (H73 *(5-1) + E71) / 5</f>
         <v>222.9665253864996</v>
       </c>
       <c r="J74" s="2">
@@ -4154,15 +4156,15 @@
         <v>222.1</v>
       </c>
       <c r="F75" s="8">
-        <f xml:space="preserve"> (F74 *(13 - 1) + E67) / 13</f>
+        <f t="shared" si="2"/>
         <v>223.0149174332681</v>
       </c>
       <c r="G75" s="11">
-        <f xml:space="preserve"> (G74 *(8-1) + E70) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.17546484598068</v>
       </c>
       <c r="H75" s="11">
-        <f xml:space="preserve"> (H74 *(5-1) + E72) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.68522030919968</v>
       </c>
       <c r="J75" s="2">
@@ -4196,15 +4198,15 @@
         <v>222.81</v>
       </c>
       <c r="F76" s="8">
-        <f xml:space="preserve"> (F75 *(13 - 1) + E68) / 13</f>
+        <f t="shared" si="2"/>
         <v>223.03569301532437</v>
       </c>
       <c r="G76" s="11">
-        <f xml:space="preserve"> (G75 *(8-1) + E71) / 8</f>
+        <f t="shared" si="1"/>
         <v>223.07665674023309</v>
       </c>
       <c r="H76" s="11">
-        <f xml:space="preserve"> (H75 *(5-1) + E73) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.50317624735976</v>
       </c>
       <c r="J76" s="2">
@@ -4238,15 +4240,15 @@
         <v>222.72</v>
       </c>
       <c r="F77" s="8">
-        <f xml:space="preserve"> (F76 *(13 - 1) + E69) / 13</f>
+        <f t="shared" si="2"/>
         <v>223.06794739876096</v>
       </c>
       <c r="G77" s="11">
-        <f xml:space="preserve"> (G76 *(8-1) + E72) / 8</f>
+        <f t="shared" si="1"/>
         <v>222.88707464770394</v>
       </c>
       <c r="H77" s="11">
-        <f xml:space="preserve"> (H76 *(5-1) + E74) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.36854099788781</v>
       </c>
       <c r="J77" s="2">
@@ -4280,15 +4282,15 @@
         <v>223.92000000000002</v>
       </c>
       <c r="F78" s="8">
-        <f xml:space="preserve"> (F77 *(13 - 1) + E70) / 13</f>
+        <f t="shared" si="2"/>
         <v>223.00733606039478</v>
       </c>
       <c r="G78" s="11">
-        <f xml:space="preserve"> (G77 *(8-1) + E73) / 8</f>
+        <f t="shared" si="1"/>
         <v>222.74806531674096</v>
       </c>
       <c r="H78" s="11">
-        <f xml:space="preserve"> (H77 *(5-1) + E75) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.31483279831022</v>
       </c>
       <c r="J78" s="2">
@@ -4322,15 +4324,15 @@
         <v>226.19</v>
       </c>
       <c r="F79" s="8">
-        <f xml:space="preserve"> (F78 *(13 - 1) + E71) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.95946405574901</v>
       </c>
       <c r="G79" s="11">
-        <f xml:space="preserve"> (G78 *(8-1) + E74) / 8</f>
+        <f t="shared" ref="G79:G142" si="4" xml:space="preserve"> (G78 *(8-1) + E74) / 8</f>
         <v>222.63330715214835</v>
       </c>
       <c r="H79" s="11">
-        <f xml:space="preserve"> (H78 *(5-1) + E76) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.41386623864818</v>
       </c>
       <c r="J79" s="2">
@@ -4364,15 +4366,15 @@
         <v>226.72</v>
       </c>
       <c r="F80" s="8">
-        <f xml:space="preserve"> (F79 *(13 - 1) + E72) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.85181297453755</v>
       </c>
       <c r="G80" s="11">
-        <f xml:space="preserve"> (G79 *(8-1) + E75) / 8</f>
+        <f t="shared" si="4"/>
         <v>222.5666437581298</v>
       </c>
       <c r="H80" s="11">
-        <f xml:space="preserve"> (H79 *(5-1) + E77) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.47509299091854</v>
       </c>
       <c r="J80" s="2">
@@ -4406,15 +4408,15 @@
         <v>226.26999999999998</v>
       </c>
       <c r="F81" s="8">
-        <f xml:space="preserve"> (F80 *(13 - 1) + E73) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.76898120726543</v>
       </c>
       <c r="G81" s="11">
-        <f xml:space="preserve"> (G80 *(8-1) + E76) / 8</f>
+        <f t="shared" si="4"/>
         <v>222.59706328836356</v>
       </c>
       <c r="H81" s="11">
-        <f xml:space="preserve"> (H80 *(5-1) + E78) / 5</f>
+        <f t="shared" si="3"/>
         <v>222.76407439273484</v>
       </c>
       <c r="J81" s="2">
@@ -4448,15 +4450,15 @@
         <v>226.23500000000001</v>
       </c>
       <c r="F82" s="8">
-        <f xml:space="preserve"> (F81 *(13 - 1) + E74) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.69675188362964</v>
       </c>
       <c r="G82" s="11">
-        <f xml:space="preserve"> (G81 *(8-1) + E77) / 8</f>
+        <f t="shared" si="4"/>
         <v>222.61243037731811</v>
       </c>
       <c r="H82" s="11">
-        <f xml:space="preserve"> (H81 *(5-1) + E79) / 5</f>
+        <f t="shared" si="3"/>
         <v>223.44925951418787</v>
       </c>
       <c r="J82" s="2">
@@ -4490,15 +4492,15 @@
         <v>226.48000000000002</v>
       </c>
       <c r="F83" s="8">
-        <f xml:space="preserve"> (F82 *(13 - 1) + E75) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.6508478925812</v>
       </c>
       <c r="G83" s="11">
-        <f xml:space="preserve"> (G82 *(8-1) + E78) / 8</f>
+        <f t="shared" si="4"/>
         <v>222.77587658015335</v>
       </c>
       <c r="H83" s="11">
-        <f xml:space="preserve"> (H82 *(5-1) + E80) / 5</f>
+        <f t="shared" si="3"/>
         <v>224.10340761135029</v>
       </c>
       <c r="J83" s="2">
@@ -4532,15 +4534,15 @@
         <v>226.44</v>
       </c>
       <c r="F84" s="8">
-        <f xml:space="preserve"> (F83 *(13 - 1) + E76) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.66309036238266</v>
       </c>
       <c r="G84" s="11">
-        <f xml:space="preserve"> (G83 *(8-1) + E79) / 8</f>
+        <f t="shared" si="4"/>
         <v>223.20264200763418</v>
       </c>
       <c r="H84" s="11">
-        <f xml:space="preserve"> (H83 *(5-1) + E81) / 5</f>
+        <f t="shared" si="3"/>
         <v>224.53672608908022</v>
       </c>
       <c r="J84" s="2">
@@ -4574,15 +4576,15 @@
         <v>226.10500000000002</v>
       </c>
       <c r="F85" s="8">
-        <f xml:space="preserve"> (F84 *(13 - 1) + E77) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.66746802681473</v>
       </c>
       <c r="G85" s="11">
-        <f xml:space="preserve"> (G84 *(8-1) + E80) / 8</f>
+        <f t="shared" si="4"/>
         <v>223.6423117566799</v>
       </c>
       <c r="H85" s="11">
-        <f xml:space="preserve"> (H84 *(5-1) + E82) / 5</f>
+        <f t="shared" si="3"/>
         <v>224.87638087126416</v>
       </c>
       <c r="J85" s="2">
@@ -4616,15 +4618,15 @@
         <v>226.16500000000002</v>
       </c>
       <c r="F86" s="8">
-        <f xml:space="preserve"> (F85 *(13 - 1) + E78) / 13</f>
+        <f t="shared" si="2"/>
         <v>222.76381664013667</v>
       </c>
       <c r="G86" s="11">
-        <f xml:space="preserve"> (G85 *(8-1) + E81) / 8</f>
+        <f t="shared" si="4"/>
         <v>223.97077278709492</v>
       </c>
       <c r="H86" s="11">
-        <f xml:space="preserve"> (H85 *(5-1) + E83) / 5</f>
+        <f t="shared" si="3"/>
         <v>225.1971046970113</v>
       </c>
       <c r="J86" s="2">
@@ -4658,15 +4660,15 @@
         <v>226.97</v>
       </c>
       <c r="F87" s="8">
-        <f xml:space="preserve"> (F86 *(13 - 1) + E79) / 13</f>
+        <f t="shared" ref="F87:F150" si="5" xml:space="preserve"> (F86 *(13 - 1) + E79) / 13</f>
         <v>223.02736920628001</v>
       </c>
       <c r="G87" s="11">
-        <f xml:space="preserve"> (G86 *(8-1) + E82) / 8</f>
+        <f t="shared" si="4"/>
         <v>224.25380118870805</v>
       </c>
       <c r="H87" s="11">
-        <f xml:space="preserve"> (H86 *(5-1) + E84) / 5</f>
+        <f t="shared" si="3"/>
         <v>225.44568375760906</v>
       </c>
       <c r="J87" s="2">
@@ -4700,15 +4702,15 @@
         <v>227.29500000000002</v>
       </c>
       <c r="F88" s="8">
-        <f xml:space="preserve"> (F87 *(13 - 1) + E80) / 13</f>
+        <f t="shared" si="5"/>
         <v>223.31141772887383</v>
       </c>
       <c r="G88" s="11">
-        <f xml:space="preserve"> (G87 *(8-1) + E83) / 8</f>
+        <f t="shared" si="4"/>
         <v>224.53207604011953</v>
       </c>
       <c r="H88" s="11">
-        <f xml:space="preserve"> (H87 *(5-1) + E85) / 5</f>
+        <f t="shared" si="3"/>
         <v>225.57754700608726</v>
       </c>
       <c r="J88" s="2">
@@ -4742,15 +4744,15 @@
         <v>227.36500000000001</v>
       </c>
       <c r="F89" s="8">
-        <f xml:space="preserve"> (F88 *(13 - 1) + E81) / 13</f>
+        <f t="shared" si="5"/>
         <v>223.53900098049891</v>
       </c>
       <c r="G89" s="11">
-        <f xml:space="preserve"> (G88 *(8-1) + E84) / 8</f>
+        <f t="shared" si="4"/>
         <v>224.77056653510459</v>
       </c>
       <c r="H89" s="11">
-        <f xml:space="preserve"> (H88 *(5-1) + E86) / 5</f>
+        <f t="shared" si="3"/>
         <v>225.69503760486981</v>
       </c>
       <c r="J89" s="2">
@@ -4784,15 +4786,15 @@
         <v>227.26499999999999</v>
       </c>
       <c r="F90" s="8">
-        <f xml:space="preserve"> (F89 *(13 - 1) + E82) / 13</f>
+        <f t="shared" si="5"/>
         <v>223.74638552046054</v>
       </c>
       <c r="G90" s="11">
-        <f xml:space="preserve"> (G89 *(8-1) + E85) / 8</f>
+        <f t="shared" si="4"/>
         <v>224.93737071821653</v>
       </c>
       <c r="H90" s="11">
-        <f xml:space="preserve"> (H89 *(5-1) + E87) / 5</f>
+        <f t="shared" si="3"/>
         <v>225.95003008389585</v>
       </c>
       <c r="J90" s="2">
@@ -4826,15 +4828,15 @@
         <v>226.63499999999999</v>
       </c>
       <c r="F91" s="8">
-        <f xml:space="preserve"> (F90 *(13 - 1) + E83) / 13</f>
+        <f t="shared" si="5"/>
         <v>223.95666355734818</v>
       </c>
       <c r="G91" s="11">
-        <f xml:space="preserve"> (G90 *(8-1) + E86) / 8</f>
+        <f t="shared" si="4"/>
         <v>225.09082437843946</v>
       </c>
       <c r="H91" s="11">
-        <f xml:space="preserve"> (H90 *(5-1) + E88) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.21902406711669</v>
       </c>
       <c r="J91" s="2">
@@ -4868,15 +4870,15 @@
         <v>226.82999999999998</v>
       </c>
       <c r="F92" s="8">
-        <f xml:space="preserve"> (F91 *(13 - 1) + E84) / 13</f>
+        <f t="shared" si="5"/>
         <v>224.14768943755217</v>
       </c>
       <c r="G92" s="11">
-        <f xml:space="preserve"> (G91 *(8-1) + E87) / 8</f>
+        <f t="shared" si="4"/>
         <v>225.32572133113453</v>
       </c>
       <c r="H92" s="11">
-        <f xml:space="preserve"> (H91 *(5-1) + E89) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.44821925369334</v>
       </c>
       <c r="J92" s="2">
@@ -4910,15 +4912,15 @@
         <v>227.68</v>
       </c>
       <c r="F93" s="8">
-        <f xml:space="preserve"> (F92 *(13 - 1) + E85) / 13</f>
+        <f t="shared" si="5"/>
         <v>224.29825178850973</v>
       </c>
       <c r="G93" s="11">
-        <f xml:space="preserve"> (G92 *(8-1) + E88) / 8</f>
+        <f t="shared" si="4"/>
         <v>225.57188116474273</v>
       </c>
       <c r="H93" s="11">
-        <f xml:space="preserve"> (H92 *(5-1) + E90) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.61157540295466</v>
       </c>
       <c r="J93" s="2">
@@ -4952,15 +4954,15 @@
         <v>227.87</v>
       </c>
       <c r="F94" s="8">
-        <f xml:space="preserve"> (F93 *(13 - 1) + E86) / 13</f>
+        <f t="shared" si="5"/>
         <v>224.44184780477821</v>
       </c>
       <c r="G94" s="11">
-        <f xml:space="preserve"> (G93 *(8-1) + E89) / 8</f>
+        <f t="shared" si="4"/>
         <v>225.79602101914989</v>
       </c>
       <c r="H94" s="11">
-        <f xml:space="preserve"> (H93 *(5-1) + E91) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.61626032236373</v>
       </c>
       <c r="J94" s="2">
@@ -4994,15 +4996,15 @@
         <v>225.07</v>
       </c>
       <c r="F95" s="8">
-        <f xml:space="preserve"> (F94 *(13 - 1) + E87) / 13</f>
+        <f t="shared" si="5"/>
         <v>224.63632105056448</v>
       </c>
       <c r="G95" s="11">
-        <f xml:space="preserve"> (G94 *(8-1) + E90) / 8</f>
+        <f t="shared" si="4"/>
         <v>225.97964339175616</v>
       </c>
       <c r="H95" s="11">
-        <f xml:space="preserve"> (H94 *(5-1) + E92) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.659008257891</v>
       </c>
       <c r="J95" s="2">
@@ -5036,15 +5038,15 @@
         <v>224.49</v>
       </c>
       <c r="F96" s="8">
-        <f xml:space="preserve"> (F95 *(13 - 1) + E88) / 13</f>
+        <f t="shared" si="5"/>
         <v>224.84083481590568</v>
       </c>
       <c r="G96" s="11">
-        <f xml:space="preserve"> (G95 *(8-1) + E91) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.06156296778664</v>
       </c>
       <c r="H96" s="11">
-        <f xml:space="preserve"> (H95 *(5-1) + E93) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.86320660631281</v>
       </c>
       <c r="J96" s="2">
@@ -5078,15 +5080,15 @@
         <v>226</v>
       </c>
       <c r="F97" s="8">
-        <f xml:space="preserve"> (F96 *(13 - 1) + E89) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.0350013685283</v>
       </c>
       <c r="G97" s="11">
-        <f xml:space="preserve"> (G96 *(8-1) + E92) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.15761759681331</v>
       </c>
       <c r="H97" s="11">
-        <f xml:space="preserve"> (H96 *(5-1) + E94) / 5</f>
+        <f t="shared" si="3"/>
         <v>227.06456528505024</v>
       </c>
       <c r="J97" s="2">
@@ -5120,15 +5122,15 @@
         <v>227.03</v>
       </c>
       <c r="F98" s="8">
-        <f xml:space="preserve"> (F97 *(13 - 1) + E90) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.20653972479533</v>
       </c>
       <c r="G98" s="11">
-        <f xml:space="preserve"> (G97 *(8-1) + E93) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.34791539721166</v>
       </c>
       <c r="H98" s="11">
-        <f xml:space="preserve"> (H97 *(5-1) + E95) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.66565222804019</v>
       </c>
       <c r="J98" s="2">
@@ -5162,15 +5164,15 @@
         <v>227.61</v>
       </c>
       <c r="F99" s="8">
-        <f xml:space="preserve"> (F98 *(13 - 1) + E91) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.31642128442644</v>
       </c>
       <c r="G99" s="11">
-        <f xml:space="preserve"> (G98 *(8-1) + E94) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.53817597256023</v>
       </c>
       <c r="H99" s="11">
-        <f xml:space="preserve"> (H98 *(5-1) + E96) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.23052178243216</v>
       </c>
       <c r="J99" s="2">
@@ -5204,15 +5206,15 @@
         <v>228.04</v>
       </c>
       <c r="F100" s="8">
-        <f xml:space="preserve"> (F99 *(13 - 1) + E92) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.43285041639362</v>
       </c>
       <c r="G100" s="11">
-        <f xml:space="preserve"> (G99 *(8-1) + E95) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.3546539759902</v>
       </c>
       <c r="H100" s="11">
-        <f xml:space="preserve"> (H99 *(5-1) + E97) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.18441742594572</v>
       </c>
       <c r="J100" s="2">
@@ -5246,15 +5248,15 @@
         <v>229.17</v>
       </c>
       <c r="F101" s="12">
-        <f xml:space="preserve"> (F100 *(13 - 1) + E93) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.60570807667102</v>
       </c>
       <c r="G101" s="12">
-        <f xml:space="preserve"> (G100 *(8-1) + E96) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.12157222899143</v>
       </c>
       <c r="H101" s="12">
-        <f xml:space="preserve"> (H100 *(5-1) + E98) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.35353394075659</v>
       </c>
       <c r="J101" s="2">
@@ -5288,15 +5290,15 @@
         <v>229.315</v>
       </c>
       <c r="F102" s="8">
-        <f xml:space="preserve"> (F101 *(13 - 1) + E94) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.77988437846554</v>
       </c>
       <c r="G102" s="11">
-        <f xml:space="preserve"> (G101 *(8-1) + E97) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.10637570036749</v>
       </c>
       <c r="H102" s="11">
-        <f xml:space="preserve"> (H101 *(5-1) + E99) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.60482715260528</v>
       </c>
       <c r="J102" s="2">
@@ -5330,15 +5332,15 @@
         <v>229.13</v>
       </c>
       <c r="F103" s="8">
-        <f xml:space="preserve"> (F102 *(13 - 1) + E95) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.72527788781434</v>
       </c>
       <c r="G103" s="11">
-        <f xml:space="preserve"> (G102 *(8-1) + E98) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.22182873782154</v>
       </c>
       <c r="H103" s="11">
-        <f xml:space="preserve"> (H102 *(5-1) + E100) / 5</f>
+        <f t="shared" si="3"/>
         <v>226.89186172208423</v>
       </c>
       <c r="J103" s="2">
@@ -5372,15 +5374,15 @@
         <v>228.92500000000001</v>
       </c>
       <c r="F104" s="8">
-        <f xml:space="preserve"> (F103 *(13 - 1) + E96) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.63025651182858</v>
       </c>
       <c r="G104" s="11">
-        <f xml:space="preserve"> (G103 *(8-1) + E99) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.39535014559385</v>
       </c>
       <c r="H104" s="11">
-        <f xml:space="preserve"> (H103 *(5-1) + E101) / 5</f>
+        <f t="shared" si="3"/>
         <v>227.34748937766739</v>
       </c>
       <c r="J104" s="2">
@@ -5414,15 +5416,15 @@
         <v>230.11</v>
       </c>
       <c r="F105" s="8">
-        <f xml:space="preserve"> (F104 *(13 - 1) + E97) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.65869831861102</v>
       </c>
       <c r="G105" s="11">
-        <f xml:space="preserve"> (G104 *(8-1) + E100) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.6009313773946</v>
       </c>
       <c r="H105" s="11">
-        <f xml:space="preserve"> (H104 *(5-1) + E102) / 5</f>
+        <f t="shared" si="3"/>
         <v>227.74099150213391</v>
       </c>
       <c r="J105" s="2">
@@ -5456,15 +5458,15 @@
         <v>231.255</v>
       </c>
       <c r="F106" s="8">
-        <f xml:space="preserve"> (F105 *(13 - 1) + E98) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.76418306333329</v>
       </c>
       <c r="G106" s="11">
-        <f xml:space="preserve"> (G105 *(8-1) + E101) / 8</f>
+        <f t="shared" si="4"/>
         <v>226.92206495522029</v>
       </c>
       <c r="H106" s="11">
-        <f xml:space="preserve"> (H105 *(5-1) + E103) / 5</f>
+        <f t="shared" si="3"/>
         <v>228.0187932017071</v>
       </c>
       <c r="J106" s="2">
@@ -5498,15 +5500,15 @@
         <v>231.55500000000001</v>
       </c>
       <c r="F107" s="8">
-        <f xml:space="preserve"> (F106 *(13 - 1) + E99) / 13</f>
+        <f t="shared" si="5"/>
         <v>225.90616898153843</v>
       </c>
       <c r="G107" s="11">
-        <f xml:space="preserve"> (G106 *(8-1) + E102) / 8</f>
+        <f t="shared" si="4"/>
         <v>227.22118183581776</v>
       </c>
       <c r="H107" s="11">
-        <f xml:space="preserve"> (H106 *(5-1) + E104) / 5</f>
+        <f t="shared" si="3"/>
         <v>228.2000345613657</v>
       </c>
       <c r="J107" s="2">
@@ -5540,15 +5542,15 @@
         <v>231.1</v>
       </c>
       <c r="F108" s="8">
-        <f xml:space="preserve"> (F107 *(13 - 1) + E100) / 13</f>
+        <f t="shared" si="5"/>
         <v>226.07030982911238</v>
       </c>
       <c r="G108" s="11">
-        <f xml:space="preserve"> (G107 *(8-1) + E103) / 8</f>
+        <f t="shared" si="4"/>
         <v>227.45978410634052</v>
       </c>
       <c r="H108" s="11">
-        <f xml:space="preserve"> (H107 *(5-1) + E105) / 5</f>
+        <f t="shared" si="3"/>
         <v>228.58202764909257</v>
       </c>
       <c r="J108" s="2">
@@ -5582,15 +5584,15 @@
         <v>230.93</v>
       </c>
       <c r="F109" s="8">
-        <f xml:space="preserve"> (F108 *(13 - 1) + E101) / 13</f>
+        <f t="shared" si="5"/>
         <v>226.30874753456527</v>
       </c>
       <c r="G109" s="11">
-        <f xml:space="preserve"> (G108 *(8-1) + E104) / 8</f>
+        <f t="shared" si="4"/>
         <v>227.64293609304795</v>
       </c>
       <c r="H109" s="11">
-        <f xml:space="preserve"> (H108 *(5-1) + E106) / 5</f>
+        <f t="shared" si="3"/>
         <v>229.11662211927404</v>
       </c>
       <c r="J109" s="2">
@@ -5624,15 +5626,15 @@
         <v>231.29000000000002</v>
       </c>
       <c r="F110" s="8">
-        <f xml:space="preserve"> (F109 *(13 - 1) + E102) / 13</f>
+        <f t="shared" si="5"/>
         <v>226.53999772421409</v>
       </c>
       <c r="G110" s="11">
-        <f xml:space="preserve"> (G109 *(8-1) + E105) / 8</f>
+        <f t="shared" si="4"/>
         <v>227.95131908141695</v>
       </c>
       <c r="H110" s="11">
-        <f xml:space="preserve"> (H109 *(5-1) + E107) / 5</f>
+        <f t="shared" si="3"/>
         <v>229.60429769541923</v>
       </c>
       <c r="J110" s="2">
@@ -5666,15 +5668,15 @@
         <v>231.03</v>
       </c>
       <c r="F111" s="8">
-        <f xml:space="preserve"> (F110 *(13 - 1) + E103) / 13</f>
+        <f t="shared" si="5"/>
         <v>226.73922866850532</v>
       </c>
       <c r="G111" s="11">
-        <f xml:space="preserve"> (G110 *(8-1) + E106) / 8</f>
+        <f t="shared" si="4"/>
         <v>228.36427919623986</v>
       </c>
       <c r="H111" s="11">
-        <f xml:space="preserve"> (H110 *(5-1) + E108) / 5</f>
+        <f t="shared" si="3"/>
         <v>229.90343815633537</v>
       </c>
       <c r="J111" s="2">
@@ -5708,15 +5710,15 @@
         <v>230.48000000000002</v>
       </c>
       <c r="F112" s="8">
-        <f xml:space="preserve"> (F111 *(13 - 1) + E104) / 13</f>
+        <f t="shared" si="5"/>
         <v>226.90736492477416</v>
       </c>
       <c r="G112" s="11">
-        <f xml:space="preserve"> (G111 *(8-1) + E107) / 8</f>
+        <f t="shared" si="4"/>
         <v>228.7631192967099</v>
       </c>
       <c r="H112" s="11">
-        <f xml:space="preserve"> (H111 *(5-1) + E109) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.1087505250683</v>
       </c>
       <c r="J112" s="2">
@@ -5750,15 +5752,15 @@
         <v>231.61500000000001</v>
       </c>
       <c r="F113" s="8">
-        <f xml:space="preserve"> (F112 *(13 - 1) + E105) / 13</f>
+        <f t="shared" si="5"/>
         <v>227.15372146902232</v>
       </c>
       <c r="G113" s="11">
-        <f xml:space="preserve"> (G112 *(8-1) + E108) / 8</f>
+        <f t="shared" si="4"/>
         <v>229.05522938462116</v>
       </c>
       <c r="H113" s="11">
-        <f xml:space="preserve"> (H112 *(5-1) + E110) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.34500042005465</v>
       </c>
       <c r="J113" s="2">
@@ -5792,15 +5794,15 @@
         <v>231.6</v>
       </c>
       <c r="F114" s="8">
-        <f xml:space="preserve"> (F113 *(13 - 1) + E106) / 13</f>
+        <f t="shared" si="5"/>
         <v>227.46920443294368</v>
       </c>
       <c r="G114" s="11">
-        <f xml:space="preserve"> (G113 *(8-1) + E109) / 8</f>
+        <f t="shared" si="4"/>
         <v>229.28957571154351</v>
       </c>
       <c r="H114" s="11">
-        <f xml:space="preserve"> (H113 *(5-1) + E111) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.48200033604371</v>
       </c>
       <c r="J114" s="2">
@@ -5834,15 +5836,15 @@
         <v>230.70499999999998</v>
       </c>
       <c r="F115" s="8">
-        <f xml:space="preserve"> (F114 *(13 - 1) + E107) / 13</f>
+        <f t="shared" si="5"/>
         <v>227.78349639964031</v>
       </c>
       <c r="G115" s="11">
-        <f xml:space="preserve"> (G114 *(8-1) + E110) / 8</f>
+        <f t="shared" si="4"/>
         <v>229.53962874760057</v>
       </c>
       <c r="H115" s="11">
-        <f xml:space="preserve"> (H114 *(5-1) + E112) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.48160026883497</v>
       </c>
       <c r="J115" s="2">
@@ -5876,15 +5878,15 @@
         <v>230.97</v>
       </c>
       <c r="F116" s="8">
-        <f xml:space="preserve"> (F115 *(13 - 1) + E108) / 13</f>
+        <f t="shared" si="5"/>
         <v>228.03861206120644</v>
       </c>
       <c r="G116" s="11">
-        <f xml:space="preserve"> (G115 *(8-1) + E111) / 8</f>
+        <f t="shared" si="4"/>
         <v>229.7259251541505</v>
       </c>
       <c r="H116" s="11">
-        <f xml:space="preserve"> (H115 *(5-1) + E113) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.70828021506796</v>
       </c>
       <c r="J116" s="2">
@@ -5918,15 +5920,15 @@
         <v>232.755</v>
       </c>
       <c r="F117" s="8">
-        <f xml:space="preserve"> (F116 *(13 - 1) + E109) / 13</f>
+        <f t="shared" si="5"/>
         <v>228.26102651803669</v>
       </c>
       <c r="G117" s="11">
-        <f xml:space="preserve"> (G116 *(8-1) + E112) / 8</f>
+        <f t="shared" si="4"/>
         <v>229.8201845098817</v>
       </c>
       <c r="H117" s="11">
-        <f xml:space="preserve"> (H116 *(5-1) + E114) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.88662417205438</v>
       </c>
       <c r="J117" s="2">
@@ -5960,15 +5962,15 @@
         <v>232.29500000000002</v>
       </c>
       <c r="F118" s="8">
-        <f xml:space="preserve"> (F117 *(13 - 1) + E110) / 13</f>
+        <f t="shared" si="5"/>
         <v>228.4940244781877</v>
       </c>
       <c r="G118" s="11">
-        <f xml:space="preserve"> (G117 *(8-1) + E113) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.04453644614648</v>
       </c>
       <c r="H118" s="11">
-        <f xml:space="preserve"> (H117 *(5-1) + E115) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.85029933764349</v>
       </c>
       <c r="J118" s="2">
@@ -6002,15 +6004,15 @@
         <v>231.7</v>
       </c>
       <c r="F119" s="8">
-        <f xml:space="preserve"> (F118 *(13 - 1) + E111) / 13</f>
+        <f t="shared" si="5"/>
         <v>228.68909951832711</v>
       </c>
       <c r="G119" s="11">
-        <f xml:space="preserve"> (G118 *(8-1) + E114) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.23896939037814</v>
       </c>
       <c r="H119" s="11">
-        <f xml:space="preserve"> (H118 *(5-1) + E116) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.87423947011479</v>
       </c>
       <c r="J119" s="2">
@@ -6044,15 +6046,15 @@
         <v>231.78500000000003</v>
       </c>
       <c r="F120" s="8">
-        <f xml:space="preserve"> (F119 *(13 - 1) + E112) / 13</f>
+        <f t="shared" si="5"/>
         <v>228.82686109384042</v>
       </c>
       <c r="G120" s="11">
-        <f xml:space="preserve"> (G119 *(8-1) + E115) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.29722321658087</v>
       </c>
       <c r="H120" s="11">
-        <f xml:space="preserve"> (H119 *(5-1) + E117) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.2503915760918</v>
       </c>
       <c r="J120" s="2">
@@ -6086,15 +6088,15 @@
         <v>231.69</v>
       </c>
       <c r="F121" s="8">
-        <f xml:space="preserve"> (F120 *(13 - 1) + E113) / 13</f>
+        <f t="shared" si="5"/>
         <v>229.04133331739118</v>
       </c>
       <c r="G121" s="11">
-        <f xml:space="preserve"> (G120 *(8-1) + E116) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.38132031450826</v>
       </c>
       <c r="H121" s="11">
-        <f xml:space="preserve"> (H120 *(5-1) + E118) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.45931326087344</v>
       </c>
       <c r="J121" s="2">
@@ -6128,15 +6130,15 @@
         <v>232.38</v>
       </c>
       <c r="F122" s="8">
-        <f xml:space="preserve"> (F121 *(13 - 1) + E114) / 13</f>
+        <f t="shared" si="5"/>
         <v>229.23815383143801</v>
       </c>
       <c r="G122" s="11">
-        <f xml:space="preserve"> (G121 *(8-1) + E117) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.67803027519471</v>
       </c>
       <c r="H122" s="11">
-        <f xml:space="preserve"> (H121 *(5-1) + E119) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.50745060869878</v>
       </c>
       <c r="J122" s="2">
@@ -6170,15 +6172,15 @@
         <v>231.07499999999999</v>
       </c>
       <c r="F123" s="8">
-        <f xml:space="preserve"> (F122 *(13 - 1) + E115) / 13</f>
+        <f t="shared" si="5"/>
         <v>229.35098815209662</v>
       </c>
       <c r="G123" s="11">
-        <f xml:space="preserve"> (G122 *(8-1) + E118) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.88015149079538</v>
       </c>
       <c r="H123" s="11">
-        <f xml:space="preserve"> (H122 *(5-1) + E120) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.56296048695904</v>
       </c>
       <c r="J123" s="2">
@@ -6212,15 +6214,15 @@
         <v>231.67500000000001</v>
       </c>
       <c r="F124" s="8">
-        <f xml:space="preserve"> (F123 *(13 - 1) + E116) / 13</f>
+        <f t="shared" si="5"/>
         <v>229.47552752501224</v>
       </c>
       <c r="G124" s="11">
-        <f xml:space="preserve"> (G123 *(8-1) + E119) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.98263255444596</v>
       </c>
       <c r="H124" s="11">
-        <f xml:space="preserve"> (H123 *(5-1) + E121) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.58836838956722</v>
       </c>
       <c r="J124" s="2">
@@ -6254,15 +6256,15 @@
         <v>230.595</v>
       </c>
       <c r="F125" s="8">
-        <f xml:space="preserve"> (F124 *(13 - 1) + E117) / 13</f>
+        <f t="shared" si="5"/>
         <v>229.72779463847286</v>
       </c>
       <c r="G125" s="11">
-        <f xml:space="preserve"> (G124 *(8-1) + E120) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.08292848514023</v>
       </c>
       <c r="H125" s="11">
-        <f xml:space="preserve"> (H124 *(5-1) + E122) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.74669471165379</v>
       </c>
       <c r="J125" s="2">
@@ -6296,15 +6298,15 @@
         <v>230.88</v>
       </c>
       <c r="F126" s="8">
-        <f xml:space="preserve"> (F125 *(13 - 1) + E118) / 13</f>
+        <f t="shared" si="5"/>
         <v>229.92527197397493</v>
       </c>
       <c r="G126" s="11">
-        <f xml:space="preserve"> (G125 *(8-1) + E121) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.15881242449771</v>
       </c>
       <c r="H126" s="11">
-        <f xml:space="preserve"> (H125 *(5-1) + E123) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.61235576932305</v>
       </c>
       <c r="J126" s="2">
@@ -6338,15 +6340,15 @@
         <v>231.505</v>
       </c>
       <c r="F127" s="8">
-        <f xml:space="preserve"> (F126 *(13 - 1) + E119) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.06178951443837</v>
       </c>
       <c r="G127" s="11">
-        <f xml:space="preserve"> (G126 *(8-1) + E122) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.31146087143549</v>
       </c>
       <c r="H127" s="11">
-        <f xml:space="preserve"> (H126 *(5-1) + E124) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.62488461545846</v>
       </c>
       <c r="J127" s="2">
@@ -6380,15 +6382,15 @@
         <v>231.08500000000001</v>
       </c>
       <c r="F128" s="8">
-        <f xml:space="preserve"> (F127 *(13 - 1) + E120) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.19434416717388</v>
       </c>
       <c r="G128" s="11">
-        <f xml:space="preserve"> (G127 *(8-1) + E123) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.28190326250606</v>
       </c>
       <c r="H128" s="11">
-        <f xml:space="preserve"> (H127 *(5-1) + E125) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.41890769236676</v>
       </c>
       <c r="J128" s="2">
@@ -6422,15 +6424,15 @@
         <v>229.965</v>
       </c>
       <c r="F129" s="8">
-        <f xml:space="preserve"> (F128 *(13 - 1) + E121) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.30939461585282</v>
       </c>
       <c r="G129" s="11">
-        <f xml:space="preserve"> (G128 *(8-1) + E124) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.33104035469279</v>
       </c>
       <c r="H129" s="11">
-        <f xml:space="preserve"> (H128 *(5-1) + E126) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.31112615389338</v>
       </c>
       <c r="J129" s="2">
@@ -6464,15 +6466,15 @@
         <v>230.19499999999999</v>
       </c>
       <c r="F130" s="8">
-        <f xml:space="preserve"> (F129 *(13 - 1) + E122) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.46867195309491</v>
       </c>
       <c r="G130" s="11">
-        <f xml:space="preserve"> (G129 *(8-1) + E125) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.2390353103562</v>
       </c>
       <c r="H130" s="11">
-        <f xml:space="preserve"> (H129 *(5-1) + E127) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.34990092311472</v>
       </c>
       <c r="J130" s="2">
@@ -6506,15 +6508,15 @@
         <v>231.01499999999999</v>
       </c>
       <c r="F131" s="8">
-        <f xml:space="preserve"> (F130 *(13 - 1) + E123) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.51531257208759</v>
       </c>
       <c r="G131" s="11">
-        <f xml:space="preserve"> (G130 *(8-1) + E126) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.19415589656165</v>
       </c>
       <c r="H131" s="11">
-        <f xml:space="preserve"> (H130 *(5-1) + E128) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.29692073849179</v>
       </c>
       <c r="J131" s="2">
@@ -6548,15 +6550,15 @@
         <v>230.46</v>
       </c>
       <c r="F132" s="8">
-        <f xml:space="preserve"> (F131 *(13 - 1) + E124) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.60451929731164</v>
       </c>
       <c r="G132" s="11">
-        <f xml:space="preserve"> (G131 *(8-1) + E127) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.23301140949144</v>
       </c>
       <c r="H132" s="11">
-        <f xml:space="preserve"> (H131 *(5-1) + E129) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.03053659079342</v>
       </c>
       <c r="J132" s="2">
@@ -6590,15 +6592,15 @@
         <v>232.41500000000002</v>
       </c>
       <c r="F133" s="8">
-        <f xml:space="preserve"> (F132 *(13 - 1) + E125) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.60378704367227</v>
       </c>
       <c r="G133" s="11">
-        <f xml:space="preserve"> (G132 *(8-1) + E128) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.21450998330502</v>
       </c>
       <c r="H133" s="11">
-        <f xml:space="preserve"> (H132 *(5-1) + E130) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.86342927263473</v>
       </c>
       <c r="J133" s="2">
@@ -6632,15 +6634,15 @@
         <v>232.8</v>
       </c>
       <c r="F134" s="8">
-        <f xml:space="preserve"> (F133 *(13 - 1) + E126) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.62503419415904</v>
       </c>
       <c r="G134" s="11">
-        <f xml:space="preserve"> (G133 *(8-1) + E129) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.05832123539187</v>
       </c>
       <c r="H134" s="11">
-        <f xml:space="preserve"> (H133 *(5-1) + E131) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.89374341810782</v>
       </c>
       <c r="J134" s="2">
@@ -6674,15 +6676,15 @@
         <v>233.74</v>
       </c>
       <c r="F135" s="8">
-        <f xml:space="preserve"> (F134 *(13 - 1) + E127) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.69272387153143</v>
       </c>
       <c r="G135" s="11">
-        <f xml:space="preserve"> (G134 *(8-1) + E130) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.95040608096789</v>
       </c>
       <c r="H135" s="11">
-        <f xml:space="preserve"> (H134 *(5-1) + E132) / 5</f>
+        <f t="shared" si="3"/>
         <v>230.80699473448627</v>
       </c>
       <c r="J135" s="2">
@@ -6716,15 +6718,15 @@
         <v>234.19499999999999</v>
       </c>
       <c r="F136" s="8">
-        <f xml:space="preserve"> (F135 *(13 - 1) + E128) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.72289895833671</v>
       </c>
       <c r="G136" s="11">
-        <f xml:space="preserve"> (G135 *(8-1) + E131) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.95848032084689</v>
       </c>
       <c r="H136" s="11">
-        <f xml:space="preserve"> (H135 *(5-1) + E133) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.12859578758903</v>
       </c>
       <c r="J136" s="2">
@@ -6758,15 +6760,15 @@
         <v>233.79</v>
       </c>
       <c r="F137" s="8">
-        <f xml:space="preserve"> (F136 *(13 - 1) + E129) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.66459903846467</v>
       </c>
       <c r="G137" s="11">
-        <f xml:space="preserve"> (G136 *(8-1) + E132) / 8</f>
+        <f t="shared" si="4"/>
         <v>230.89617028074105</v>
       </c>
       <c r="H137" s="11">
-        <f xml:space="preserve"> (H136 *(5-1) + E134) / 5</f>
+        <f t="shared" si="3"/>
         <v>231.46287663007124</v>
       </c>
       <c r="J137" s="2">
@@ -6800,15 +6802,15 @@
         <v>235.04</v>
       </c>
       <c r="F138" s="8">
-        <f xml:space="preserve"> (F137 *(13 - 1) + E130) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.62847603550588</v>
       </c>
       <c r="G138" s="11">
-        <f xml:space="preserve"> (G137 *(8-1) + E133) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.08602399564842</v>
       </c>
       <c r="H138" s="11">
-        <f xml:space="preserve"> (H137 *(5-1) + E135) / 5</f>
+        <f t="shared" ref="H138:H201" si="6" xml:space="preserve"> (H137 *(5-1) + E135) / 5</f>
         <v>231.91830130405697</v>
       </c>
       <c r="J138" s="2">
@@ -6842,15 +6844,15 @@
         <v>235.45999999999998</v>
       </c>
       <c r="F139" s="8">
-        <f xml:space="preserve"> (F138 *(13 - 1) + E131) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.65820864815927</v>
       </c>
       <c r="G139" s="11">
-        <f xml:space="preserve"> (G138 *(8-1) + E134) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.30027099619235</v>
       </c>
       <c r="H139" s="11">
-        <f xml:space="preserve"> (H138 *(5-1) + E136) / 5</f>
+        <f t="shared" si="6"/>
         <v>232.37364104324556</v>
       </c>
       <c r="J139" s="2">
@@ -6884,15 +6886,15 @@
         <v>235.07999999999998</v>
       </c>
       <c r="F140" s="8">
-        <f xml:space="preserve"> (F139 *(13 - 1) + E132) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.64296182907009</v>
       </c>
       <c r="G140" s="11">
-        <f xml:space="preserve"> (G139 *(8-1) + E135) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.6052371216683</v>
       </c>
       <c r="H140" s="11">
-        <f xml:space="preserve"> (H139 *(5-1) + E137) / 5</f>
+        <f t="shared" si="6"/>
         <v>232.65691283459645</v>
       </c>
       <c r="J140" s="2">
@@ -6926,15 +6928,15 @@
         <v>235.16000000000003</v>
       </c>
       <c r="F141" s="8">
-        <f xml:space="preserve"> (F140 *(13 - 1) + E133) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.77927245760313</v>
       </c>
       <c r="G141" s="11">
-        <f xml:space="preserve"> (G140 *(8-1) + E136) / 8</f>
+        <f t="shared" si="4"/>
         <v>231.92895748145975</v>
       </c>
       <c r="H141" s="11">
-        <f xml:space="preserve"> (H140 *(5-1) + E138) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.13353026767717</v>
       </c>
       <c r="J141" s="2">
@@ -6968,15 +6970,15 @@
         <v>235.97499999999999</v>
       </c>
       <c r="F142" s="8">
-        <f xml:space="preserve"> (F141 *(13 - 1) + E134) / 13</f>
+        <f t="shared" si="5"/>
         <v>230.9347130377875</v>
       </c>
       <c r="G142" s="11">
-        <f xml:space="preserve"> (G141 *(8-1) + E137) / 8</f>
+        <f t="shared" si="4"/>
         <v>232.16158779627727</v>
       </c>
       <c r="H142" s="11">
-        <f xml:space="preserve"> (H141 *(5-1) + E139) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.59882421414173</v>
       </c>
       <c r="J142" s="2">
@@ -7010,15 +7012,15 @@
         <v>235.95499999999998</v>
       </c>
       <c r="F143" s="8">
-        <f xml:space="preserve"> (F142 *(13 - 1) + E135) / 13</f>
+        <f t="shared" si="5"/>
         <v>231.15050434257304</v>
       </c>
       <c r="G143" s="11">
-        <f xml:space="preserve"> (G142 *(8-1) + E138) / 8</f>
+        <f t="shared" ref="G143:G206" si="7" xml:space="preserve"> (G142 *(8-1) + E138) / 8</f>
         <v>232.52138932174262</v>
       </c>
       <c r="H143" s="11">
-        <f xml:space="preserve"> (H142 *(5-1) + E140) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.89505937131338</v>
       </c>
       <c r="J143" s="2">
@@ -7052,15 +7054,15 @@
         <v>235.36500000000001</v>
       </c>
       <c r="F144" s="8">
-        <f xml:space="preserve"> (F143 *(13 - 1) + E136) / 13</f>
+        <f t="shared" si="5"/>
         <v>231.38469631622127</v>
       </c>
       <c r="G144" s="11">
-        <f xml:space="preserve"> (G143 *(8-1) + E139) / 8</f>
+        <f t="shared" si="7"/>
         <v>232.88871565652479</v>
       </c>
       <c r="H144" s="11">
-        <f xml:space="preserve"> (H143 *(5-1) + E141) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.14804749705073</v>
       </c>
       <c r="J144" s="2">
@@ -7094,15 +7096,15 @@
         <v>235.125</v>
       </c>
       <c r="F145" s="8">
-        <f xml:space="preserve"> (F144 *(13 - 1) + E137) / 13</f>
+        <f t="shared" si="5"/>
         <v>231.56971967651194</v>
       </c>
       <c r="G145" s="11">
-        <f xml:space="preserve"> (G144 *(8-1) + E140) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.1626261994592</v>
       </c>
       <c r="H145" s="11">
-        <f xml:space="preserve"> (H144 *(5-1) + E142) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.51343799764058</v>
       </c>
       <c r="J145" s="2">
@@ -7136,15 +7138,15 @@
         <v>235.51999999999998</v>
       </c>
       <c r="F146" s="8">
-        <f xml:space="preserve"> (F145 *(13 - 1) + E138) / 13</f>
+        <f t="shared" si="5"/>
         <v>231.83666431678026</v>
       </c>
       <c r="G146" s="11">
-        <f xml:space="preserve"> (G145 *(8-1) + E141) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.4122979245268</v>
       </c>
       <c r="H146" s="11">
-        <f xml:space="preserve"> (H145 *(5-1) + E143) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.80175039811246</v>
       </c>
       <c r="J146" s="2">
@@ -7178,15 +7180,15 @@
         <v>235.61500000000001</v>
       </c>
       <c r="F147" s="8">
-        <f xml:space="preserve"> (F146 *(13 - 1) + E139) / 13</f>
+        <f t="shared" si="5"/>
         <v>232.11538244625871</v>
       </c>
       <c r="G147" s="11">
-        <f xml:space="preserve"> (G146 *(8-1) + E142) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.73263568396095</v>
       </c>
       <c r="H147" s="11">
-        <f xml:space="preserve"> (H146 *(5-1) + E144) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.91440031848998</v>
       </c>
       <c r="J147" s="2">
@@ -7220,15 +7222,15 @@
         <v>235.5</v>
       </c>
       <c r="F148" s="8">
-        <f xml:space="preserve"> (F147 *(13 - 1) + E140) / 13</f>
+        <f t="shared" si="5"/>
         <v>232.34342995039262</v>
       </c>
       <c r="G148" s="11">
-        <f xml:space="preserve"> (G147 *(8-1) + E143) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.01043122346582</v>
       </c>
       <c r="H148" s="11">
-        <f xml:space="preserve"> (H147 *(5-1) + E145) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.956520254792</v>
       </c>
       <c r="J148" s="2">
@@ -7262,15 +7264,15 @@
         <v>235.505</v>
       </c>
       <c r="F149" s="8">
-        <f xml:space="preserve"> (F148 *(13 - 1) + E141) / 13</f>
+        <f t="shared" si="5"/>
         <v>232.56008918497778</v>
       </c>
       <c r="G149" s="11">
-        <f xml:space="preserve"> (G148 *(8-1) + E144) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.1797523205326</v>
       </c>
       <c r="H149" s="11">
-        <f xml:space="preserve"> (H148 *(5-1) + E146) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.06921620383361</v>
       </c>
       <c r="J149" s="2">
@@ -7304,15 +7306,15 @@
         <v>235.88</v>
       </c>
       <c r="F150" s="8">
-        <f xml:space="preserve"> (F149 *(13 - 1) + E142) / 13</f>
+        <f t="shared" si="5"/>
         <v>232.82277463228718</v>
       </c>
       <c r="G150" s="11">
-        <f xml:space="preserve"> (G149 *(8-1) + E145) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.29790828046603</v>
       </c>
       <c r="H150" s="11">
-        <f xml:space="preserve"> (H149 *(5-1) + E147) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.17837296306689</v>
       </c>
       <c r="J150" s="2">
@@ -7346,15 +7348,15 @@
         <v>236.10500000000002</v>
       </c>
       <c r="F151" s="8">
-        <f xml:space="preserve"> (F150 *(13 - 1) + E143) / 13</f>
+        <f t="shared" ref="F151:F214" si="8" xml:space="preserve"> (F150 *(13 - 1) + E143) / 13</f>
         <v>233.06371504518816</v>
       </c>
       <c r="G151" s="11">
-        <f xml:space="preserve"> (G150 *(8-1) + E146) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.45066974540777</v>
       </c>
       <c r="H151" s="11">
-        <f xml:space="preserve"> (H150 *(5-1) + E148) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.2426983704535</v>
       </c>
       <c r="J151" s="2">
@@ -7388,15 +7390,15 @@
         <v>236.34</v>
       </c>
       <c r="F152" s="8">
-        <f xml:space="preserve"> (F151 *(13 - 1) + E144) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.24073696478905</v>
       </c>
       <c r="G152" s="11">
-        <f xml:space="preserve"> (G151 *(8-1) + E147) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.59621102723179</v>
       </c>
       <c r="H152" s="11">
-        <f xml:space="preserve"> (H151 *(5-1) + E149) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.29515869636279</v>
       </c>
       <c r="J152" s="2">
@@ -7430,15 +7432,15 @@
         <v>235.215</v>
       </c>
       <c r="F153" s="8">
-        <f xml:space="preserve"> (F152 *(13 - 1) + E145) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.38568027518991</v>
       </c>
       <c r="G153" s="11">
-        <f xml:space="preserve"> (G152 *(8-1) + E148) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.70918464882783</v>
       </c>
       <c r="H153" s="11">
-        <f xml:space="preserve"> (H152 *(5-1) + E150) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.41212695709024</v>
       </c>
       <c r="J153" s="2">
@@ -7472,15 +7474,15 @@
         <v>233.67500000000001</v>
       </c>
       <c r="F154" s="8">
-        <f xml:space="preserve"> (F153 *(13 - 1) + E146) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.54985871555994</v>
       </c>
       <c r="G154" s="11">
-        <f xml:space="preserve"> (G153 *(8-1) + E149) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.80866156772436</v>
       </c>
       <c r="H154" s="11">
-        <f xml:space="preserve"> (H153 *(5-1) + E151) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.55070156567217</v>
       </c>
       <c r="J154" s="2">
@@ -7514,15 +7516,15 @@
         <v>232.91499999999999</v>
       </c>
       <c r="F155" s="8">
-        <f xml:space="preserve"> (F154 *(13 - 1) + E147) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.70871573743995</v>
       </c>
       <c r="G155" s="11">
-        <f xml:space="preserve"> (G154 *(8-1) + E150) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.94257887175883</v>
       </c>
       <c r="H155" s="11">
-        <f xml:space="preserve"> (H154 *(5-1) + E152) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.70856125253772</v>
       </c>
       <c r="J155" s="2">
@@ -7556,15 +7558,15 @@
         <v>234.72</v>
       </c>
       <c r="F156" s="8">
-        <f xml:space="preserve"> (F155 *(13 - 1) + E148) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.84650683455996</v>
       </c>
       <c r="G156" s="11">
-        <f xml:space="preserve"> (G155 *(8-1) + E151) / 8</f>
+        <f t="shared" si="7"/>
         <v>235.08788151278898</v>
       </c>
       <c r="H156" s="11">
-        <f xml:space="preserve"> (H155 *(5-1) + E153) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.60984900203016</v>
       </c>
       <c r="J156" s="2">
@@ -7598,15 +7600,15 @@
         <v>235.11</v>
       </c>
       <c r="F157" s="8">
-        <f xml:space="preserve"> (F156 *(13 - 1) + E149) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.97408323190152</v>
       </c>
       <c r="G157" s="11">
-        <f xml:space="preserve"> (G156 *(8-1) + E152) / 8</f>
+        <f t="shared" si="7"/>
         <v>235.24439632369035</v>
       </c>
       <c r="H157" s="11">
-        <f xml:space="preserve"> (H156 *(5-1) + E154) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.22287920162412</v>
       </c>
       <c r="J157" s="2">
@@ -7640,15 +7642,15 @@
         <v>235.52500000000001</v>
       </c>
       <c r="F158" s="8">
-        <f xml:space="preserve"> (F157 *(13 - 1) + E150) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.12069221406293</v>
       </c>
       <c r="G158" s="11">
-        <f xml:space="preserve"> (G157 *(8-1) + E153) / 8</f>
+        <f t="shared" si="7"/>
         <v>235.24072178322905</v>
       </c>
       <c r="H158" s="11">
-        <f xml:space="preserve"> (H157 *(5-1) + E155) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.76130336129933</v>
       </c>
       <c r="J158" s="2">
@@ -7682,15 +7684,15 @@
         <v>233.45999999999998</v>
       </c>
       <c r="F159" s="8">
-        <f xml:space="preserve"> (F158 *(13 - 1) + E151) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.27333127451962</v>
       </c>
       <c r="G159" s="11">
-        <f xml:space="preserve"> (G158 *(8-1) + E154) / 8</f>
+        <f t="shared" si="7"/>
         <v>235.04500656032542</v>
       </c>
       <c r="H159" s="11">
-        <f xml:space="preserve"> (H158 *(5-1) + E156) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.75304268903946</v>
       </c>
       <c r="J159" s="2">
@@ -7724,15 +7726,15 @@
         <v>231.88499999999999</v>
       </c>
       <c r="F160" s="8">
-        <f xml:space="preserve"> (F159 *(13 - 1) + E152) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.43230579186428</v>
       </c>
       <c r="G160" s="11">
-        <f xml:space="preserve"> (G159 *(8-1) + E155) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.77875574028474</v>
       </c>
       <c r="H160" s="11">
-        <f xml:space="preserve"> (H159 *(5-1) + E157) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.82443415123157</v>
       </c>
       <c r="J160" s="2">
@@ -7766,15 +7768,15 @@
         <v>231.23500000000001</v>
       </c>
       <c r="F161" s="8">
-        <f xml:space="preserve"> (F160 *(13 - 1) + E153) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.49251303864395</v>
       </c>
       <c r="G161" s="11">
-        <f xml:space="preserve"> (G160 *(8-1) + E156) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.77141127274913</v>
       </c>
       <c r="H161" s="11">
-        <f xml:space="preserve"> (H160 *(5-1) + E158) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.96454732098528</v>
       </c>
       <c r="J161" s="2">
@@ -7808,15 +7810,15 @@
         <v>233.20999999999998</v>
       </c>
       <c r="F162" s="8">
-        <f xml:space="preserve"> (F161 *(13 - 1) + E154) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.42962742028675</v>
       </c>
       <c r="G162" s="11">
-        <f xml:space="preserve"> (G161 *(8-1) + E157) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.8137348636555</v>
       </c>
       <c r="H162" s="11">
-        <f xml:space="preserve"> (H161 *(5-1) + E159) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.66363785678823</v>
       </c>
       <c r="J162" s="2">
@@ -7850,15 +7852,15 @@
         <v>233.23000000000002</v>
       </c>
       <c r="F163" s="8">
-        <f xml:space="preserve"> (F162 *(13 - 1) + E155) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.31311761872621</v>
       </c>
       <c r="G163" s="11">
-        <f xml:space="preserve"> (G162 *(8-1) + E158) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.90264300569856</v>
       </c>
       <c r="H163" s="11">
-        <f xml:space="preserve"> (H162 *(5-1) + E160) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.10791028543059</v>
       </c>
       <c r="J163" s="2">
@@ -7892,15 +7894,15 @@
         <v>233.095</v>
       </c>
       <c r="F164" s="8">
-        <f xml:space="preserve"> (F163 *(13 - 1) + E156) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.34441626343957</v>
       </c>
       <c r="G164" s="11">
-        <f xml:space="preserve"> (G163 *(8-1) + E159) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.72231262998625</v>
       </c>
       <c r="H164" s="11">
-        <f xml:space="preserve"> (H163 *(5-1) + E161) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.53332822834446</v>
       </c>
       <c r="J164" s="2">
@@ -7934,15 +7936,15 @@
         <v>233.60500000000002</v>
       </c>
       <c r="F165" s="8">
-        <f xml:space="preserve"> (F164 *(13 - 1) + E157) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.40330732009807</v>
       </c>
       <c r="G165" s="11">
-        <f xml:space="preserve"> (G164 *(8-1) + E160) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.36764855123798</v>
       </c>
       <c r="H165" s="11">
-        <f xml:space="preserve"> (H164 *(5-1) + E162) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.46866258267556</v>
       </c>
       <c r="J165" s="2">
@@ -7976,15 +7978,15 @@
         <v>233.27</v>
       </c>
       <c r="F166" s="8">
-        <f xml:space="preserve"> (F165 *(13 - 1) + E158) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.48959137239822</v>
       </c>
       <c r="G166" s="11">
-        <f xml:space="preserve"> (G165 *(8-1) + E161) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.97606748233324</v>
       </c>
       <c r="H166" s="11">
-        <f xml:space="preserve"> (H165 *(5-1) + E163) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.42093006614044</v>
       </c>
       <c r="J166" s="2">
@@ -8018,15 +8020,15 @@
         <v>232.69</v>
       </c>
       <c r="F167" s="8">
-        <f xml:space="preserve"> (F166 *(13 - 1) + E159) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.4103920360599</v>
       </c>
       <c r="G167" s="11">
-        <f xml:space="preserve"> (G166 *(8-1) + E162) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.88030904704158</v>
       </c>
       <c r="H167" s="11">
-        <f xml:space="preserve"> (H166 *(5-1) + E164) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.35574405291237</v>
       </c>
       <c r="J167" s="2">
@@ -8060,15 +8062,15 @@
         <v>234.05500000000001</v>
       </c>
       <c r="F168" s="8">
-        <f xml:space="preserve"> (F167 *(13 - 1) + E160) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.21613111020912</v>
       </c>
       <c r="G168" s="11">
-        <f xml:space="preserve"> (G167 *(8-1) + E163) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.7990204161614</v>
       </c>
       <c r="H168" s="11">
-        <f xml:space="preserve"> (H167 *(5-1) + E165) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.40559524232989</v>
       </c>
       <c r="J168" s="2">
@@ -8102,15 +8104,15 @@
         <v>235.43</v>
       </c>
       <c r="F169" s="8">
-        <f xml:space="preserve"> (F168 *(13 - 1) + E161) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.98681333250076</v>
       </c>
       <c r="G169" s="11">
-        <f xml:space="preserve"> (G168 *(8-1) + E164) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.71101786414121</v>
       </c>
       <c r="H169" s="11">
-        <f xml:space="preserve"> (H168 *(5-1) + E166) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.37847619386395</v>
       </c>
       <c r="J169" s="2">
@@ -8144,15 +8146,15 @@
         <v>236.465</v>
       </c>
       <c r="F170" s="8">
-        <f xml:space="preserve"> (F169 *(13 - 1) + E162) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.92705846076993</v>
       </c>
       <c r="G170" s="11">
-        <f xml:space="preserve"> (G169 *(8-1) + E165) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.69776563112356</v>
       </c>
       <c r="H170" s="11">
-        <f xml:space="preserve"> (H169 *(5-1) + E167) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.24078095509117</v>
       </c>
       <c r="J170" s="2">
@@ -8186,15 +8188,15 @@
         <v>234.785</v>
       </c>
       <c r="F171" s="8">
-        <f xml:space="preserve"> (F170 *(13 - 1) + E163) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.87343857917224</v>
       </c>
       <c r="G171" s="11">
-        <f xml:space="preserve"> (G170 *(8-1) + E166) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.64429492723312</v>
       </c>
       <c r="H171" s="11">
-        <f xml:space="preserve"> (H170 *(5-1) + E168) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.40362476407296</v>
       </c>
       <c r="J171" s="2">
@@ -8228,15 +8230,15 @@
         <v>235.28</v>
       </c>
       <c r="F172" s="8">
-        <f xml:space="preserve"> (F171 *(13 - 1) + E164) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.81355868846668</v>
       </c>
       <c r="G172" s="11">
-        <f xml:space="preserve"> (G171 *(8-1) + E167) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.52500806132898</v>
       </c>
       <c r="H172" s="11">
-        <f xml:space="preserve"> (H171 *(5-1) + E169) / 5</f>
+        <f t="shared" si="6"/>
         <v>233.80889981125839</v>
       </c>
       <c r="J172" s="2">
@@ -8270,15 +8272,15 @@
         <v>235.35500000000002</v>
       </c>
       <c r="F173" s="8">
-        <f xml:space="preserve"> (F172 *(13 - 1) + E165) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.79751571243079</v>
       </c>
       <c r="G173" s="11">
-        <f xml:space="preserve"> (G172 *(8-1) + E168) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.59125705366287</v>
       </c>
       <c r="H173" s="11">
-        <f xml:space="preserve"> (H172 *(5-1) + E170) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.34011984900673</v>
       </c>
       <c r="J173" s="2">
@@ -8312,15 +8314,15 @@
         <v>235.23500000000001</v>
       </c>
       <c r="F174" s="8">
-        <f xml:space="preserve"> (F173 *(13 - 1) + E166) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.75693758070534</v>
       </c>
       <c r="G174" s="11">
-        <f xml:space="preserve"> (G173 *(8-1) + E169) / 8</f>
+        <f t="shared" si="7"/>
         <v>233.82109992195501</v>
       </c>
       <c r="H174" s="11">
-        <f xml:space="preserve"> (H173 *(5-1) + E171) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.42909587920539</v>
       </c>
       <c r="J174" s="2">
@@ -8354,15 +8356,15 @@
         <v>237.10000000000002</v>
       </c>
       <c r="F175" s="8">
-        <f xml:space="preserve"> (F174 *(13 - 1) + E167) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.67486545911262</v>
       </c>
       <c r="G175" s="11">
-        <f xml:space="preserve"> (G174 *(8-1) + E170) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.15158743171062</v>
       </c>
       <c r="H175" s="11">
-        <f xml:space="preserve"> (H174 *(5-1) + E172) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.59927670336432</v>
       </c>
       <c r="J175" s="2">
@@ -8396,15 +8398,15 @@
         <v>238.14</v>
       </c>
       <c r="F176" s="8">
-        <f xml:space="preserve"> (F175 *(13 - 1) + E168) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.70410657764239</v>
       </c>
       <c r="G176" s="11">
-        <f xml:space="preserve"> (G175 *(8-1) + E171) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.23076400274681</v>
       </c>
       <c r="H176" s="11">
-        <f xml:space="preserve"> (H175 *(5-1) + E173) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.7504213626915</v>
       </c>
       <c r="J176" s="2">
@@ -8438,15 +8440,15 @@
         <v>238.27499999999998</v>
       </c>
       <c r="F177" s="8">
-        <f xml:space="preserve"> (F176 *(13 - 1) + E169) / 13</f>
+        <f t="shared" si="8"/>
         <v>233.83686761013143</v>
       </c>
       <c r="G177" s="11">
-        <f xml:space="preserve"> (G176 *(8-1) + E172) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.36191850240346</v>
       </c>
       <c r="H177" s="11">
-        <f xml:space="preserve"> (H176 *(5-1) + E174) / 5</f>
+        <f t="shared" si="6"/>
         <v>234.84733709015319</v>
       </c>
       <c r="J177" s="2">
@@ -8480,15 +8482,15 @@
         <v>238.33500000000001</v>
       </c>
       <c r="F178" s="8">
-        <f xml:space="preserve"> (F177 *(13 - 1) + E170) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.03903164012132</v>
       </c>
       <c r="G178" s="11">
-        <f xml:space="preserve"> (G177 *(8-1) + E173) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.48605368960301</v>
       </c>
       <c r="H178" s="11">
-        <f xml:space="preserve"> (H177 *(5-1) + E175) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.29786967212257</v>
       </c>
       <c r="J178" s="2">
@@ -8522,15 +8524,15 @@
         <v>238.535</v>
       </c>
       <c r="F179" s="8">
-        <f xml:space="preserve"> (F178 *(13 - 1) + E171) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.09641382165046</v>
       </c>
       <c r="G179" s="11">
-        <f xml:space="preserve"> (G178 *(8-1) + E174) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.57967197840264</v>
       </c>
       <c r="H179" s="11">
-        <f xml:space="preserve"> (H178 *(5-1) + E176) / 5</f>
+        <f t="shared" si="6"/>
         <v>235.86629573769807</v>
       </c>
       <c r="J179" s="2">
@@ -8564,15 +8566,15 @@
         <v>239.26999999999998</v>
       </c>
       <c r="F180" s="8">
-        <f xml:space="preserve"> (F179 *(13 - 1) + E172) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.18745891229275</v>
       </c>
       <c r="G180" s="11">
-        <f xml:space="preserve"> (G179 *(8-1) + E175) / 8</f>
+        <f t="shared" si="7"/>
         <v>234.89471298110232</v>
       </c>
       <c r="H180" s="11">
-        <f xml:space="preserve"> (H179 *(5-1) + E177) / 5</f>
+        <f t="shared" si="6"/>
         <v>236.34803659015842</v>
       </c>
       <c r="J180" s="2">
@@ -8606,15 +8608,15 @@
         <v>239.39499999999998</v>
       </c>
       <c r="F181" s="8">
-        <f xml:space="preserve"> (F180 *(13 - 1) + E173) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.27726976519332</v>
       </c>
       <c r="G181" s="11">
-        <f xml:space="preserve"> (G180 *(8-1) + E176) / 8</f>
+        <f t="shared" si="7"/>
         <v>235.30037385846452</v>
       </c>
       <c r="H181" s="11">
-        <f xml:space="preserve"> (H180 *(5-1) + E178) / 5</f>
+        <f t="shared" si="6"/>
         <v>236.74542927212673</v>
       </c>
       <c r="J181" s="2">
@@ -8648,15 +8650,15 @@
         <v>239.13</v>
       </c>
       <c r="F182" s="8">
-        <f xml:space="preserve"> (F181 *(13 - 1) + E174) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.35094132171693</v>
       </c>
       <c r="G182" s="11">
-        <f xml:space="preserve"> (G181 *(8-1) + E177) / 8</f>
+        <f t="shared" si="7"/>
         <v>235.67220212615644</v>
       </c>
       <c r="H182" s="11">
-        <f xml:space="preserve"> (H181 *(5-1) + E179) / 5</f>
+        <f t="shared" si="6"/>
         <v>237.10334341770141</v>
       </c>
       <c r="J182" s="2">
@@ -8690,15 +8692,15 @@
         <v>239.16</v>
       </c>
       <c r="F183" s="8">
-        <f xml:space="preserve"> (F182 *(13 - 1) + E175) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.56240737389254</v>
       </c>
       <c r="G183" s="11">
-        <f xml:space="preserve"> (G182 *(8-1) + E178) / 8</f>
+        <f t="shared" si="7"/>
         <v>236.00505186038689</v>
       </c>
       <c r="H183" s="11">
-        <f xml:space="preserve"> (H182 *(5-1) + E180) / 5</f>
+        <f t="shared" si="6"/>
         <v>237.53667473416112</v>
       </c>
       <c r="J183" s="2">
@@ -8732,15 +8734,15 @@
         <v>238.91</v>
       </c>
       <c r="F184" s="8">
-        <f xml:space="preserve"> (F183 *(13 - 1) + E176) / 13</f>
+        <f t="shared" si="8"/>
         <v>234.83760680667004</v>
       </c>
       <c r="G184" s="11">
-        <f xml:space="preserve"> (G183 *(8-1) + E179) / 8</f>
+        <f t="shared" si="7"/>
         <v>236.32129537783854</v>
       </c>
       <c r="H184" s="11">
-        <f xml:space="preserve"> (H183 *(5-1) + E181) / 5</f>
+        <f t="shared" si="6"/>
         <v>237.90833978732888</v>
       </c>
       <c r="J184" s="2">
@@ -8774,15 +8776,15 @@
         <v>238.42500000000001</v>
       </c>
       <c r="F185" s="8">
-        <f xml:space="preserve"> (F184 *(13 - 1) + E177) / 13</f>
+        <f t="shared" si="8"/>
         <v>235.10202166769542</v>
       </c>
       <c r="G185" s="11">
-        <f xml:space="preserve"> (G184 *(8-1) + E180) / 8</f>
+        <f t="shared" si="7"/>
         <v>236.68988345560871</v>
       </c>
       <c r="H185" s="11">
-        <f xml:space="preserve"> (H184 *(5-1) + E182) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.1526718298631</v>
       </c>
       <c r="J185" s="2">
@@ -8816,15 +8818,15 @@
         <v>238.84</v>
       </c>
       <c r="F186" s="8">
-        <f xml:space="preserve"> (F185 *(13 - 1) + E178) / 13</f>
+        <f t="shared" si="8"/>
         <v>235.35071230864193</v>
       </c>
       <c r="G186" s="11">
-        <f xml:space="preserve"> (G185 *(8-1) + E181) / 8</f>
+        <f t="shared" si="7"/>
         <v>237.02802302365762</v>
       </c>
       <c r="H186" s="11">
-        <f xml:space="preserve"> (H185 *(5-1) + E183) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.35413746389048</v>
       </c>
       <c r="J186" s="2">
@@ -8858,15 +8860,15 @@
         <v>239.25</v>
       </c>
       <c r="F187" s="8">
-        <f xml:space="preserve"> (F186 *(13 - 1) + E179) / 13</f>
+        <f t="shared" si="8"/>
         <v>235.59565751566944</v>
       </c>
       <c r="G187" s="11">
-        <f xml:space="preserve"> (G186 *(8-1) + E182) / 8</f>
+        <f t="shared" si="7"/>
         <v>237.29077014570044</v>
       </c>
       <c r="H187" s="11">
-        <f xml:space="preserve"> (H186 *(5-1) + E184) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.46530997111239</v>
       </c>
       <c r="J187" s="2">
@@ -8900,15 +8902,15 @@
         <v>239.58999999999997</v>
       </c>
       <c r="F188" s="8">
-        <f xml:space="preserve"> (F187 *(13 - 1) + E180) / 13</f>
+        <f t="shared" si="8"/>
         <v>235.87829924523334</v>
       </c>
       <c r="G188" s="11">
-        <f xml:space="preserve"> (G187 *(8-1) + E183) / 8</f>
+        <f t="shared" si="7"/>
         <v>237.52442387748789</v>
       </c>
       <c r="H188" s="11">
-        <f xml:space="preserve"> (H187 *(5-1) + E185) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.4572479768899</v>
       </c>
       <c r="J188" s="2">
@@ -8942,15 +8944,15 @@
         <v>240.25</v>
       </c>
       <c r="F189" s="8">
-        <f xml:space="preserve"> (F188 *(13 - 1) + E181) / 13</f>
+        <f t="shared" si="8"/>
         <v>236.14881468790767</v>
       </c>
       <c r="G189" s="11">
-        <f xml:space="preserve"> (G188 *(8-1) + E184) / 8</f>
+        <f t="shared" si="7"/>
         <v>237.69762089280192</v>
       </c>
       <c r="H189" s="11">
-        <f xml:space="preserve"> (H188 *(5-1) + E186) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.5337983815119</v>
       </c>
       <c r="J189" s="2">
@@ -8984,15 +8986,15 @@
         <v>241.29000000000002</v>
       </c>
       <c r="F190" s="8">
-        <f xml:space="preserve"> (F189 *(13 - 1) + E182) / 13</f>
+        <f t="shared" si="8"/>
         <v>236.37813663499171</v>
       </c>
       <c r="G190" s="11">
-        <f xml:space="preserve"> (G189 *(8-1) + E185) / 8</f>
+        <f t="shared" si="7"/>
         <v>237.78854328120167</v>
       </c>
       <c r="H190" s="11">
-        <f xml:space="preserve"> (H189 *(5-1) + E187) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.67703870520955</v>
       </c>
       <c r="J190" s="2">
@@ -9026,15 +9028,15 @@
         <v>242.01</v>
       </c>
       <c r="F191" s="8">
-        <f xml:space="preserve"> (F190 *(13 - 1) + E183) / 13</f>
+        <f t="shared" si="8"/>
         <v>236.59212612460772</v>
       </c>
       <c r="G191" s="11">
-        <f xml:space="preserve"> (G190 *(8-1) + E186) / 8</f>
+        <f t="shared" si="7"/>
         <v>237.91997537105144</v>
       </c>
       <c r="H191" s="11">
-        <f xml:space="preserve"> (H190 *(5-1) + E188) / 5</f>
+        <f t="shared" si="6"/>
         <v>238.85963096416762</v>
       </c>
       <c r="J191" s="2">
@@ -9068,15 +9070,15 @@
         <v>242.43</v>
       </c>
       <c r="F192" s="8">
-        <f xml:space="preserve"> (F191 *(13 - 1) + E184) / 13</f>
+        <f t="shared" si="8"/>
         <v>236.77042411502251</v>
       </c>
       <c r="G192" s="11">
-        <f xml:space="preserve"> (G191 *(8-1) + E187) / 8</f>
+        <f t="shared" si="7"/>
         <v>238.08622844967002</v>
       </c>
       <c r="H192" s="11">
-        <f xml:space="preserve"> (H191 *(5-1) + E189) / 5</f>
+        <f t="shared" si="6"/>
         <v>239.13770477133411</v>
       </c>
       <c r="J192" s="2">
@@ -9110,15 +9112,15 @@
         <v>243.32999999999998</v>
       </c>
       <c r="F193" s="8">
-        <f xml:space="preserve"> (F192 *(13 - 1) + E185) / 13</f>
+        <f t="shared" si="8"/>
         <v>236.89769918309773</v>
       </c>
       <c r="G193" s="11">
-        <f xml:space="preserve"> (G192 *(8-1) + E188) / 8</f>
+        <f t="shared" si="7"/>
         <v>238.27419989346126</v>
       </c>
       <c r="H193" s="11">
-        <f xml:space="preserve"> (H192 *(5-1) + E190) / 5</f>
+        <f t="shared" si="6"/>
         <v>239.5681638170673</v>
       </c>
       <c r="J193" s="2">
@@ -9152,15 +9154,15 @@
         <v>243.655</v>
       </c>
       <c r="F194" s="8">
-        <f xml:space="preserve"> (F193 *(13 - 1) + E186) / 13</f>
+        <f t="shared" si="8"/>
         <v>237.04710693824407</v>
       </c>
       <c r="G194" s="11">
-        <f xml:space="preserve"> (G193 *(8-1) + E189) / 8</f>
+        <f t="shared" si="7"/>
         <v>238.52117490677861</v>
       </c>
       <c r="H194" s="11">
-        <f xml:space="preserve"> (H193 *(5-1) + E191) / 5</f>
+        <f t="shared" si="6"/>
         <v>240.05653105365383</v>
       </c>
       <c r="J194" s="2">
@@ -9194,15 +9196,15 @@
         <v>243.55500000000001</v>
       </c>
       <c r="F195" s="8">
-        <f xml:space="preserve"> (F194 *(13 - 1) + E187) / 13</f>
+        <f t="shared" si="8"/>
         <v>237.21656025068685</v>
       </c>
       <c r="G195" s="11">
-        <f xml:space="preserve"> (G194 *(8-1) + E190) / 8</f>
+        <f t="shared" si="7"/>
         <v>238.86727804343127</v>
       </c>
       <c r="H195" s="11">
-        <f xml:space="preserve"> (H194 *(5-1) + E192) / 5</f>
+        <f t="shared" si="6"/>
         <v>240.53122484292308</v>
       </c>
       <c r="J195" s="2">
@@ -9236,15 +9238,15 @@
         <v>243.88499999999999</v>
       </c>
       <c r="F196" s="8">
-        <f xml:space="preserve"> (F195 *(13 - 1) + E188) / 13</f>
+        <f t="shared" si="8"/>
         <v>237.39913253909558</v>
       </c>
       <c r="G196" s="11">
-        <f xml:space="preserve"> (G195 *(8-1) + E191) / 8</f>
+        <f t="shared" si="7"/>
         <v>239.26011828800236</v>
       </c>
       <c r="H196" s="11">
-        <f xml:space="preserve"> (H195 *(5-1) + E193) / 5</f>
+        <f t="shared" si="6"/>
         <v>241.09097987433847</v>
       </c>
       <c r="J196" s="2">
@@ -9278,15 +9280,15 @@
         <v>244.035</v>
       </c>
       <c r="F197" s="8">
-        <f xml:space="preserve"> (F196 *(13 - 1) + E189) / 13</f>
+        <f t="shared" si="8"/>
         <v>237.61843003608823</v>
       </c>
       <c r="G197" s="11">
-        <f xml:space="preserve"> (G196 *(8-1) + E192) / 8</f>
+        <f t="shared" si="7"/>
         <v>239.65635350200208</v>
       </c>
       <c r="H197" s="11">
-        <f xml:space="preserve"> (H196 *(5-1) + E194) / 5</f>
+        <f t="shared" si="6"/>
         <v>241.60378389947078</v>
       </c>
       <c r="J197" s="2">
@@ -9320,15 +9322,15 @@
         <v>244.07499999999999</v>
       </c>
       <c r="F198" s="8">
-        <f xml:space="preserve"> (F197 *(13 - 1) + E190) / 13</f>
+        <f t="shared" si="8"/>
         <v>237.90085849485064</v>
       </c>
       <c r="G198" s="11">
-        <f xml:space="preserve"> (G197 *(8-1) + E193) / 8</f>
+        <f t="shared" si="7"/>
         <v>240.11555931425181</v>
       </c>
       <c r="H198" s="11">
-        <f xml:space="preserve"> (H197 *(5-1) + E195) / 5</f>
+        <f t="shared" si="6"/>
         <v>241.99402711957663</v>
       </c>
       <c r="J198" s="2">
@@ -9362,15 +9364,15 @@
         <v>244.30500000000001</v>
       </c>
       <c r="F199" s="8">
-        <f xml:space="preserve"> (F198 *(13 - 1) + E191) / 13</f>
+        <f t="shared" si="8"/>
         <v>238.21694630293908</v>
       </c>
       <c r="G199" s="11">
-        <f xml:space="preserve"> (G198 *(8-1) + E194) / 8</f>
+        <f t="shared" si="7"/>
         <v>240.55798939997032</v>
       </c>
       <c r="H199" s="11">
-        <f xml:space="preserve"> (H198 *(5-1) + E196) / 5</f>
+        <f t="shared" si="6"/>
         <v>242.3722216956613</v>
       </c>
       <c r="J199" s="2">
@@ -9404,15 +9406,15 @@
         <v>244.51</v>
       </c>
       <c r="F200" s="8">
-        <f xml:space="preserve"> (F199 *(13 - 1) + E192) / 13</f>
+        <f t="shared" si="8"/>
         <v>238.54102735655914</v>
       </c>
       <c r="G200" s="11">
-        <f xml:space="preserve"> (G199 *(8-1) + E195) / 8</f>
+        <f t="shared" si="7"/>
         <v>240.93261572497406</v>
       </c>
       <c r="H200" s="11">
-        <f xml:space="preserve"> (H199 *(5-1) + E197) / 5</f>
+        <f t="shared" si="6"/>
         <v>242.70477735652904</v>
       </c>
       <c r="J200" s="2">
@@ -9446,15 +9448,15 @@
         <v>244.59</v>
       </c>
       <c r="F201" s="8">
-        <f xml:space="preserve"> (F200 *(13 - 1) + E193) / 13</f>
+        <f t="shared" si="8"/>
         <v>238.90940986759304</v>
       </c>
       <c r="G201" s="11">
-        <f xml:space="preserve"> (G200 *(8-1) + E196) / 8</f>
+        <f t="shared" si="7"/>
         <v>241.30166375935229</v>
       </c>
       <c r="H201" s="11">
-        <f xml:space="preserve"> (H200 *(5-1) + E198) / 5</f>
+        <f t="shared" si="6"/>
         <v>242.97882188522323</v>
       </c>
       <c r="J201" s="2">
@@ -9488,15 +9490,15 @@
         <v>245.04500000000002</v>
       </c>
       <c r="F202" s="8">
-        <f xml:space="preserve"> (F201 *(13 - 1) + E194) / 13</f>
+        <f t="shared" si="8"/>
         <v>239.27445526239359</v>
       </c>
       <c r="G202" s="11">
-        <f xml:space="preserve"> (G201 *(8-1) + E197) / 8</f>
+        <f t="shared" si="7"/>
         <v>241.64333078943326</v>
       </c>
       <c r="H202" s="11">
-        <f xml:space="preserve"> (H201 *(5-1) + E199) / 5</f>
+        <f t="shared" ref="H202:H265" si="9" xml:space="preserve"> (H201 *(5-1) + E199) / 5</f>
         <v>243.2440575081786</v>
       </c>
       <c r="J202" s="2">
@@ -9530,15 +9532,15 @@
         <v>244.43</v>
       </c>
       <c r="F203" s="8">
-        <f xml:space="preserve"> (F202 *(13 - 1) + E195) / 13</f>
+        <f t="shared" si="8"/>
         <v>239.60372793451717</v>
       </c>
       <c r="G203" s="11">
-        <f xml:space="preserve"> (G202 *(8-1) + E198) / 8</f>
+        <f t="shared" si="7"/>
         <v>241.9472894407541</v>
       </c>
       <c r="H203" s="11">
-        <f xml:space="preserve"> (H202 *(5-1) + E200) / 5</f>
+        <f t="shared" si="9"/>
         <v>243.49724600654289</v>
       </c>
       <c r="J203" s="2">
@@ -9572,15 +9574,15 @@
         <v>245.745</v>
       </c>
       <c r="F204" s="8">
-        <f xml:space="preserve"> (F203 *(13 - 1) + E196) / 13</f>
+        <f t="shared" si="8"/>
         <v>239.93305655493896</v>
       </c>
       <c r="G204" s="11">
-        <f xml:space="preserve"> (G203 *(8-1) + E199) / 8</f>
+        <f t="shared" si="7"/>
         <v>242.24200326065986</v>
       </c>
       <c r="H204" s="11">
-        <f xml:space="preserve"> (H203 *(5-1) + E201) / 5</f>
+        <f t="shared" si="9"/>
         <v>243.71579680523433</v>
       </c>
       <c r="J204" s="2">
@@ -9614,15 +9616,15 @@
         <v>246.04000000000002</v>
       </c>
       <c r="F205" s="8">
-        <f xml:space="preserve"> (F204 *(13 - 1) + E197) / 13</f>
+        <f t="shared" si="8"/>
         <v>240.2485906660975</v>
       </c>
       <c r="G205" s="11">
-        <f xml:space="preserve"> (G204 *(8-1) + E200) / 8</f>
+        <f t="shared" si="7"/>
         <v>242.52550285307737</v>
       </c>
       <c r="H205" s="11">
-        <f xml:space="preserve"> (H204 *(5-1) + E202) / 5</f>
+        <f t="shared" si="9"/>
         <v>243.98163744418747</v>
       </c>
       <c r="J205" s="2">
@@ -9656,15 +9658,15 @@
         <v>245.77499999999998</v>
       </c>
       <c r="F206" s="8">
-        <f xml:space="preserve"> (F205 *(13 - 1) + E198) / 13</f>
+        <f t="shared" si="8"/>
         <v>240.54292984562846</v>
       </c>
       <c r="G206" s="11">
-        <f xml:space="preserve"> (G205 *(8-1) + E201) / 8</f>
+        <f t="shared" si="7"/>
         <v>242.78356499644269</v>
       </c>
       <c r="H206" s="11">
-        <f xml:space="preserve"> (H205 *(5-1) + E203) / 5</f>
+        <f t="shared" si="9"/>
         <v>244.07130995534999</v>
       </c>
       <c r="J206" s="2">
@@ -9698,15 +9700,15 @@
         <v>244.495</v>
       </c>
       <c r="F207" s="8">
-        <f xml:space="preserve"> (F206 *(13 - 1) + E199) / 13</f>
+        <f t="shared" si="8"/>
         <v>240.83231985750319</v>
       </c>
       <c r="G207" s="11">
-        <f xml:space="preserve"> (G206 *(8-1) + E202) / 8</f>
+        <f t="shared" ref="G207:G270" si="10" xml:space="preserve"> (G206 *(8-1) + E202) / 8</f>
         <v>243.06624437188736</v>
       </c>
       <c r="H207" s="11">
-        <f xml:space="preserve"> (H206 *(5-1) + E204) / 5</f>
+        <f t="shared" si="9"/>
         <v>244.40604796427996</v>
       </c>
       <c r="J207" s="2">
@@ -9740,15 +9742,15 @@
         <v>245.2</v>
       </c>
       <c r="F208" s="8">
-        <f xml:space="preserve"> (F207 *(13 - 1) + E200) / 13</f>
+        <f t="shared" si="8"/>
         <v>241.11521833000293</v>
       </c>
       <c r="G208" s="11">
-        <f xml:space="preserve"> (G207 *(8-1) + E203) / 8</f>
+        <f t="shared" si="10"/>
         <v>243.23671382540144</v>
       </c>
       <c r="H208" s="11">
-        <f xml:space="preserve"> (H207 *(5-1) + E205) / 5</f>
+        <f t="shared" si="9"/>
         <v>244.73283837142398</v>
       </c>
       <c r="J208" s="2">
@@ -9782,15 +9784,15 @@
         <v>246.035</v>
       </c>
       <c r="F209" s="8">
-        <f xml:space="preserve"> (F208 *(13 - 1) + E201) / 13</f>
+        <f t="shared" si="8"/>
         <v>241.38250922769504</v>
       </c>
       <c r="G209" s="11">
-        <f xml:space="preserve"> (G208 *(8-1) + E204) / 8</f>
+        <f t="shared" si="10"/>
         <v>243.55024959722624</v>
       </c>
       <c r="H209" s="11">
-        <f xml:space="preserve"> (H208 *(5-1) + E206) / 5</f>
+        <f t="shared" si="9"/>
         <v>244.94127069713917</v>
       </c>
       <c r="J209" s="2">
@@ -9824,15 +9826,15 @@
         <v>246.26999999999998</v>
       </c>
       <c r="F210" s="8">
-        <f xml:space="preserve"> (F209 *(13 - 1) + E202) / 13</f>
+        <f t="shared" si="8"/>
         <v>241.66423928710313</v>
       </c>
       <c r="G210" s="11">
-        <f xml:space="preserve"> (G209 *(8-1) + E205) / 8</f>
+        <f t="shared" si="10"/>
         <v>243.86146839757296</v>
       </c>
       <c r="H210" s="11">
-        <f xml:space="preserve"> (H209 *(5-1) + E207) / 5</f>
+        <f t="shared" si="9"/>
         <v>244.85201655771135</v>
       </c>
       <c r="J210" s="2">
@@ -9866,15 +9868,15 @@
         <v>246.38499999999999</v>
       </c>
       <c r="F211" s="8">
-        <f xml:space="preserve"> (F210 *(13 - 1) + E203) / 13</f>
+        <f t="shared" si="8"/>
         <v>241.87699011117212</v>
       </c>
       <c r="G211" s="11">
-        <f xml:space="preserve"> (G210 *(8-1) + E206) / 8</f>
+        <f t="shared" si="10"/>
         <v>244.10065984787633</v>
       </c>
       <c r="H211" s="11">
-        <f xml:space="preserve"> (H210 *(5-1) + E208) / 5</f>
+        <f t="shared" si="9"/>
         <v>244.9216132461691</v>
       </c>
       <c r="J211" s="2">
@@ -9908,15 +9910,15 @@
         <v>246.98000000000002</v>
       </c>
       <c r="F212" s="8">
-        <f xml:space="preserve"> (F211 *(13 - 1) + E204) / 13</f>
+        <f t="shared" si="8"/>
         <v>242.17452933338967</v>
       </c>
       <c r="G212" s="11">
-        <f xml:space="preserve"> (G211 *(8-1) + E207) / 8</f>
+        <f t="shared" si="10"/>
         <v>244.1499523668918</v>
       </c>
       <c r="H212" s="11">
-        <f xml:space="preserve"> (H211 *(5-1) + E209) / 5</f>
+        <f t="shared" si="9"/>
         <v>245.14429059693529</v>
       </c>
       <c r="J212" s="2">
@@ -9950,15 +9952,15 @@
         <v>246.23500000000001</v>
       </c>
       <c r="F213" s="8">
-        <f xml:space="preserve"> (F212 *(13 - 1) + E205) / 13</f>
+        <f t="shared" si="8"/>
         <v>242.47187323082122</v>
       </c>
       <c r="G213" s="11">
-        <f xml:space="preserve"> (G212 *(8-1) + E208) / 8</f>
+        <f t="shared" si="10"/>
         <v>244.28120832103033</v>
       </c>
       <c r="H213" s="11">
-        <f xml:space="preserve"> (H212 *(5-1) + E210) / 5</f>
+        <f t="shared" si="9"/>
         <v>245.36943247754826</v>
       </c>
       <c r="J213" s="2">
@@ -9992,15 +9994,15 @@
         <v>247.125</v>
       </c>
       <c r="F214" s="8">
-        <f xml:space="preserve"> (F213 *(13 - 1) + E206) / 13</f>
+        <f t="shared" si="8"/>
         <v>242.72595990537346</v>
       </c>
       <c r="G214" s="11">
-        <f xml:space="preserve"> (G213 *(8-1) + E209) / 8</f>
+        <f t="shared" si="10"/>
         <v>244.50043228090155</v>
       </c>
       <c r="H214" s="11">
-        <f xml:space="preserve"> (H213 *(5-1) + E211) / 5</f>
+        <f t="shared" si="9"/>
         <v>245.57254598203863</v>
       </c>
       <c r="J214" s="2">
@@ -10034,15 +10036,15 @@
         <v>247.80500000000001</v>
       </c>
       <c r="F215" s="8">
-        <f xml:space="preserve"> (F214 *(13 - 1) + E207) / 13</f>
+        <f t="shared" ref="F215:F278" si="11" xml:space="preserve"> (F214 *(13 - 1) + E207) / 13</f>
         <v>242.86203991265242</v>
       </c>
       <c r="G215" s="11">
-        <f xml:space="preserve"> (G214 *(8-1) + E210) / 8</f>
+        <f t="shared" si="10"/>
         <v>244.72162824578885</v>
       </c>
       <c r="H215" s="11">
-        <f xml:space="preserve"> (H214 *(5-1) + E212) / 5</f>
+        <f t="shared" si="9"/>
         <v>245.85403678563088</v>
       </c>
       <c r="J215" s="2">
@@ -10076,15 +10078,15 @@
         <v>247.91500000000002</v>
       </c>
       <c r="F216" s="8">
-        <f xml:space="preserve"> (F215 *(13 - 1) + E208) / 13</f>
+        <f t="shared" si="11"/>
         <v>243.04188299629453</v>
       </c>
       <c r="G216" s="11">
-        <f xml:space="preserve"> (G215 *(8-1) + E211) / 8</f>
+        <f t="shared" si="10"/>
         <v>244.92954971506524</v>
       </c>
       <c r="H216" s="11">
-        <f xml:space="preserve"> (H215 *(5-1) + E213) / 5</f>
+        <f t="shared" si="9"/>
         <v>245.9302294285047</v>
       </c>
       <c r="J216" s="2">
@@ -10118,15 +10120,15 @@
         <v>247.88</v>
       </c>
       <c r="F217" s="8">
-        <f xml:space="preserve"> (F216 *(13 - 1) + E209) / 13</f>
+        <f t="shared" si="11"/>
         <v>243.27212276581031</v>
       </c>
       <c r="G217" s="11">
-        <f xml:space="preserve"> (G216 *(8-1) + E212) / 8</f>
+        <f t="shared" si="10"/>
         <v>245.18585600068209</v>
       </c>
       <c r="H217" s="11">
-        <f xml:space="preserve"> (H216 *(5-1) + E214) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.16918354280378</v>
       </c>
       <c r="J217" s="2">
@@ -10160,15 +10162,15 @@
         <v>246.625</v>
       </c>
       <c r="F218" s="8">
-        <f xml:space="preserve"> (F217 *(13 - 1) + E210) / 13</f>
+        <f t="shared" si="11"/>
         <v>243.50272870690182</v>
       </c>
       <c r="G218" s="11">
-        <f xml:space="preserve"> (G217 *(8-1) + E213) / 8</f>
+        <f t="shared" si="10"/>
         <v>245.31699900059681</v>
       </c>
       <c r="H218" s="11">
-        <f xml:space="preserve"> (H217 *(5-1) + E215) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.49634683424301</v>
       </c>
       <c r="J218" s="2">
@@ -10202,15 +10204,15 @@
         <v>247.06</v>
       </c>
       <c r="F219" s="8">
-        <f xml:space="preserve"> (F218 *(13 - 1) + E211) / 13</f>
+        <f t="shared" si="11"/>
         <v>243.72444188329399</v>
       </c>
       <c r="G219" s="11">
-        <f xml:space="preserve"> (G218 *(8-1) + E214) / 8</f>
+        <f t="shared" si="10"/>
         <v>245.54299912552221</v>
       </c>
       <c r="H219" s="11">
-        <f xml:space="preserve"> (H218 *(5-1) + E216) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.78007746739439</v>
       </c>
       <c r="J219" s="2">
@@ -10244,15 +10246,15 @@
         <v>247.155</v>
       </c>
       <c r="F220" s="8">
-        <f xml:space="preserve"> (F219 *(13 - 1) + E212) / 13</f>
+        <f t="shared" si="11"/>
         <v>243.97486943073289</v>
       </c>
       <c r="G220" s="11">
-        <f xml:space="preserve"> (G219 *(8-1) + E215) / 8</f>
+        <f t="shared" si="10"/>
         <v>245.82574923483193</v>
       </c>
       <c r="H220" s="11">
-        <f xml:space="preserve"> (H219 *(5-1) + E217) / 5</f>
+        <f t="shared" si="9"/>
         <v>247.00006197391548</v>
       </c>
       <c r="J220" s="2">
@@ -10286,15 +10288,15 @@
         <v>246.44</v>
       </c>
       <c r="F221" s="8">
-        <f xml:space="preserve"> (F220 *(13 - 1) + E213) / 13</f>
+        <f t="shared" si="11"/>
         <v>244.14872562836882</v>
       </c>
       <c r="G221" s="11">
-        <f xml:space="preserve"> (G220 *(8-1) + E216) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.08690558047795</v>
       </c>
       <c r="H221" s="11">
-        <f xml:space="preserve"> (H220 *(5-1) + E218) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.92504957913238</v>
       </c>
       <c r="J221" s="2">
@@ -10328,15 +10330,15 @@
         <v>245.71499999999997</v>
       </c>
       <c r="F222" s="8">
-        <f xml:space="preserve"> (F221 *(13 - 1) + E214) / 13</f>
+        <f t="shared" si="11"/>
         <v>244.37766981080202</v>
       </c>
       <c r="G222" s="11">
-        <f xml:space="preserve"> (G221 *(8-1) + E217) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.31104238291823</v>
       </c>
       <c r="H222" s="11">
-        <f xml:space="preserve"> (H221 *(5-1) + E219) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.95203966330592</v>
       </c>
       <c r="J222" s="2">
@@ -10370,15 +10372,15 @@
         <v>247.47</v>
       </c>
       <c r="F223" s="8">
-        <f xml:space="preserve"> (F222 *(13 - 1) + E215) / 13</f>
+        <f t="shared" si="11"/>
         <v>244.64131059458649</v>
       </c>
       <c r="G223" s="11">
-        <f xml:space="preserve"> (G222 *(8-1) + E218) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.35028708505345</v>
       </c>
       <c r="H223" s="11">
-        <f xml:space="preserve"> (H222 *(5-1) + E220) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.99263173064475</v>
       </c>
       <c r="J223" s="2">
@@ -10412,15 +10414,15 @@
         <v>247.39499999999998</v>
       </c>
       <c r="F224" s="8">
-        <f xml:space="preserve"> (F223 *(13 - 1) + E216) / 13</f>
+        <f t="shared" si="11"/>
         <v>244.89313285654137</v>
       </c>
       <c r="G224" s="11">
-        <f xml:space="preserve"> (G223 *(8-1) + E219) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.43900119942177</v>
       </c>
       <c r="H224" s="11">
-        <f xml:space="preserve"> (H223 *(5-1) + E221) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.8821053845158</v>
       </c>
       <c r="J224" s="2">
@@ -10454,15 +10456,15 @@
         <v>247.41</v>
       </c>
       <c r="F225" s="8">
-        <f xml:space="preserve"> (F224 *(13 - 1) + E217) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.12289186757667</v>
       </c>
       <c r="G225" s="11">
-        <f xml:space="preserve"> (G224 *(8-1) + E220) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.52850104949405</v>
       </c>
       <c r="H225" s="11">
-        <f xml:space="preserve"> (H224 *(5-1) + E222) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.64868430761263</v>
       </c>
       <c r="J225" s="2">
@@ -10496,15 +10498,15 @@
         <v>248.4</v>
       </c>
       <c r="F226" s="8">
-        <f xml:space="preserve"> (F225 *(13 - 1) + E218) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.23843864699387</v>
       </c>
       <c r="G226" s="11">
-        <f xml:space="preserve"> (G225 *(8-1) + E221) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.51743841830731</v>
       </c>
       <c r="H226" s="11">
-        <f xml:space="preserve"> (H225 *(5-1) + E223) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.81294744609008</v>
       </c>
       <c r="J226" s="2">
@@ -10538,15 +10540,15 @@
         <v>249.005</v>
       </c>
       <c r="F227" s="8">
-        <f xml:space="preserve"> (F226 *(13 - 1) + E219) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.37855875107124</v>
       </c>
       <c r="G227" s="11">
-        <f xml:space="preserve"> (G226 *(8-1) + E222) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.41713361601887</v>
       </c>
       <c r="H227" s="11">
-        <f xml:space="preserve"> (H226 *(5-1) + E224) / 5</f>
+        <f t="shared" si="9"/>
         <v>246.92935795687208</v>
       </c>
       <c r="J227" s="2">
@@ -10580,15 +10582,15 @@
         <v>249.44499999999999</v>
       </c>
       <c r="F228" s="8">
-        <f xml:space="preserve"> (F227 *(13 - 1) + E220) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.51520807791192</v>
       </c>
       <c r="G228" s="11">
-        <f xml:space="preserve"> (G227 *(8-1) + E223) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.54874191401652</v>
       </c>
       <c r="H228" s="11">
-        <f xml:space="preserve"> (H227 *(5-1) + E225) / 5</f>
+        <f t="shared" si="9"/>
         <v>247.02548636549767</v>
       </c>
       <c r="J228" s="2">
@@ -10622,15 +10624,15 @@
         <v>249.5</v>
       </c>
       <c r="F229" s="8">
-        <f xml:space="preserve"> (F228 *(13 - 1) + E221) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.58634591807257</v>
       </c>
       <c r="G229" s="11">
-        <f xml:space="preserve"> (G228 *(8-1) + E224) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.65452417476445</v>
       </c>
       <c r="H229" s="11">
-        <f xml:space="preserve"> (H228 *(5-1) + E226) / 5</f>
+        <f t="shared" si="9"/>
         <v>247.30038909239815</v>
       </c>
       <c r="J229" s="2">
@@ -10664,15 +10666,15 @@
         <v>250.845</v>
       </c>
       <c r="F230" s="8">
-        <f xml:space="preserve"> (F229 *(13 - 1) + E222) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.59624238591317</v>
       </c>
       <c r="G230" s="11">
-        <f xml:space="preserve"> (G229 *(8-1) + E225) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.7489586529189</v>
       </c>
       <c r="H230" s="11">
-        <f xml:space="preserve"> (H229 *(5-1) + E227) / 5</f>
+        <f t="shared" si="9"/>
         <v>247.64131127391852</v>
       </c>
       <c r="J230" s="2">
@@ -10706,15 +10708,15 @@
         <v>251.935</v>
       </c>
       <c r="F231" s="8">
-        <f xml:space="preserve"> (F230 *(13 - 1) + E223) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.74037758699674</v>
       </c>
       <c r="G231" s="11">
-        <f xml:space="preserve"> (G230 *(8-1) + E226) / 8</f>
+        <f t="shared" si="10"/>
         <v>246.95533882130405</v>
       </c>
       <c r="H231" s="11">
-        <f xml:space="preserve"> (H230 *(5-1) + E228) / 5</f>
+        <f t="shared" si="9"/>
         <v>248.0020490191348</v>
       </c>
       <c r="J231" s="2">
@@ -10748,15 +10750,15 @@
         <v>253.8</v>
       </c>
       <c r="F232" s="8">
-        <f xml:space="preserve"> (F231 *(13 - 1) + E224) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.86765623415084</v>
       </c>
       <c r="G232" s="11">
-        <f xml:space="preserve"> (G231 *(8-1) + E227) / 8</f>
+        <f t="shared" si="10"/>
         <v>247.21154646864107</v>
       </c>
       <c r="H232" s="11">
-        <f xml:space="preserve"> (H231 *(5-1) + E229) / 5</f>
+        <f t="shared" si="9"/>
         <v>248.30163921530783</v>
       </c>
       <c r="J232" s="2">
@@ -10790,15 +10792,15 @@
         <v>252.05</v>
       </c>
       <c r="F233" s="8">
-        <f xml:space="preserve"> (F232 *(13 - 1) + E225) / 13</f>
+        <f t="shared" si="11"/>
         <v>245.98629806229306</v>
       </c>
       <c r="G233" s="11">
-        <f xml:space="preserve"> (G232 *(8-1) + E228) / 8</f>
+        <f t="shared" si="10"/>
         <v>247.49072816006094</v>
       </c>
       <c r="H233" s="11">
-        <f xml:space="preserve"> (H232 *(5-1) + E230) / 5</f>
+        <f t="shared" si="9"/>
         <v>248.81031137224628</v>
       </c>
       <c r="J233" s="2">
@@ -10832,15 +10834,15 @@
         <v>254.35000000000002</v>
       </c>
       <c r="F234" s="8">
-        <f xml:space="preserve"> (F233 *(13 - 1) + E226) / 13</f>
+        <f t="shared" si="11"/>
         <v>246.17196744211668</v>
       </c>
       <c r="G234" s="11">
-        <f xml:space="preserve"> (G233 *(8-1) + E229) / 8</f>
+        <f t="shared" si="10"/>
         <v>247.74188714005334</v>
       </c>
       <c r="H234" s="11">
-        <f xml:space="preserve"> (H233 *(5-1) + E231) / 5</f>
+        <f t="shared" si="9"/>
         <v>249.43524909779703</v>
       </c>
       <c r="J234" s="2">
@@ -10874,15 +10876,15 @@
         <v>253.06</v>
       </c>
       <c r="F235" s="8">
-        <f xml:space="preserve"> (F234 *(13 - 1) + E227) / 13</f>
+        <f t="shared" si="11"/>
         <v>246.38989302349231</v>
       </c>
       <c r="G235" s="11">
-        <f xml:space="preserve"> (G234 *(8-1) + E230) / 8</f>
+        <f t="shared" si="10"/>
         <v>248.12977624754669</v>
       </c>
       <c r="H235" s="11">
-        <f xml:space="preserve"> (H234 *(5-1) + E232) / 5</f>
+        <f t="shared" si="9"/>
         <v>250.30819927823762</v>
       </c>
       <c r="J235" s="2">
@@ -10916,15 +10918,15 @@
         <v>252.22500000000002</v>
       </c>
       <c r="F236" s="8">
-        <f xml:space="preserve"> (F235 *(13 - 1) + E228) / 13</f>
+        <f t="shared" si="11"/>
         <v>246.62490125245446</v>
       </c>
       <c r="G236" s="11">
-        <f xml:space="preserve"> (G235 *(8-1) + E231) / 8</f>
+        <f t="shared" si="10"/>
         <v>248.60542921660334</v>
       </c>
       <c r="H236" s="11">
-        <f xml:space="preserve"> (H235 *(5-1) + E233) / 5</f>
+        <f t="shared" si="9"/>
         <v>250.65655942259008</v>
       </c>
       <c r="J236" s="2">
@@ -10958,15 +10960,15 @@
         <v>252.67000000000002</v>
       </c>
       <c r="F237" s="8">
-        <f xml:space="preserve"> (F236 *(13 - 1) + E229) / 13</f>
+        <f t="shared" si="11"/>
         <v>246.84606269457333</v>
       </c>
       <c r="G237" s="11">
-        <f xml:space="preserve"> (G236 *(8-1) + E232) / 8</f>
+        <f t="shared" si="10"/>
         <v>249.25475056452791</v>
       </c>
       <c r="H237" s="11">
-        <f xml:space="preserve"> (H236 *(5-1) + E234) / 5</f>
+        <f t="shared" si="9"/>
         <v>251.39524753807208</v>
       </c>
       <c r="J237" s="2">
@@ -11000,15 +11002,15 @@
         <v>253.715</v>
       </c>
       <c r="F238" s="8">
-        <f xml:space="preserve"> (F237 *(13 - 1) + E230) / 13</f>
+        <f t="shared" si="11"/>
         <v>247.1536732565292</v>
       </c>
       <c r="G238" s="11">
-        <f xml:space="preserve"> (G237 *(8-1) + E233) / 8</f>
+        <f t="shared" si="10"/>
         <v>249.60415674396191</v>
       </c>
       <c r="H238" s="11">
-        <f xml:space="preserve"> (H237 *(5-1) + E235) / 5</f>
+        <f t="shared" si="9"/>
         <v>251.72819803045769</v>
       </c>
       <c r="J238" s="2">
@@ -11042,15 +11044,15 @@
         <v>254.82</v>
       </c>
       <c r="F239" s="8">
-        <f xml:space="preserve"> (F238 *(13 - 1) + E231) / 13</f>
+        <f t="shared" si="11"/>
         <v>247.52146762141157</v>
       </c>
       <c r="G239" s="11">
-        <f xml:space="preserve"> (G238 *(8-1) + E234) / 8</f>
+        <f t="shared" si="10"/>
         <v>250.19738715096668</v>
       </c>
       <c r="H239" s="11">
-        <f xml:space="preserve"> (H238 *(5-1) + E236) / 5</f>
+        <f t="shared" si="9"/>
         <v>251.82755842436617</v>
       </c>
       <c r="J239" s="2">
@@ -11084,15 +11086,15 @@
         <v>255.685</v>
       </c>
       <c r="F240" s="8">
-        <f xml:space="preserve"> (F239 *(13 - 1) + E232) / 13</f>
+        <f t="shared" si="11"/>
         <v>248.00443165053377</v>
       </c>
       <c r="G240" s="11">
-        <f xml:space="preserve"> (G239 *(8-1) + E235) / 8</f>
+        <f t="shared" si="10"/>
         <v>250.55521375709583</v>
       </c>
       <c r="H240" s="11">
-        <f xml:space="preserve"> (H239 *(5-1) + E237) / 5</f>
+        <f t="shared" si="9"/>
         <v>251.99604673949293</v>
       </c>
       <c r="J240" s="2">
@@ -11126,15 +11128,15 @@
         <v>255.94499999999999</v>
       </c>
       <c r="F241" s="8">
-        <f xml:space="preserve"> (F240 *(13 - 1) + E233) / 13</f>
+        <f t="shared" si="11"/>
         <v>248.31562921587735</v>
       </c>
       <c r="G241" s="11">
-        <f xml:space="preserve"> (G240 *(8-1) + E236) / 8</f>
+        <f t="shared" si="10"/>
         <v>250.76393703745885</v>
       </c>
       <c r="H241" s="11">
-        <f xml:space="preserve"> (H240 *(5-1) + E238) / 5</f>
+        <f t="shared" si="9"/>
         <v>252.33983739159436</v>
       </c>
       <c r="J241" s="2">
@@ -11168,15 +11170,15 @@
         <v>255.285</v>
       </c>
       <c r="F242" s="8">
-        <f xml:space="preserve"> (F241 *(13 - 1) + E234) / 13</f>
+        <f t="shared" si="11"/>
         <v>248.77981158388678</v>
       </c>
       <c r="G242" s="11">
-        <f xml:space="preserve"> (G241 *(8-1) + E237) / 8</f>
+        <f t="shared" si="10"/>
         <v>251.0021949077765</v>
       </c>
       <c r="H242" s="11">
-        <f xml:space="preserve"> (H241 *(5-1) + E239) / 5</f>
+        <f t="shared" si="9"/>
         <v>252.83586991327547</v>
       </c>
       <c r="J242" s="2">
@@ -11210,15 +11212,15 @@
         <v>256.39499999999998</v>
       </c>
       <c r="F243" s="8">
-        <f xml:space="preserve"> (F242 *(13 - 1) + E235) / 13</f>
+        <f t="shared" si="11"/>
         <v>249.10905684666471</v>
       </c>
       <c r="G243" s="11">
-        <f xml:space="preserve"> (G242 *(8-1) + E238) / 8</f>
+        <f t="shared" si="10"/>
         <v>251.34129554430442</v>
       </c>
       <c r="H243" s="11">
-        <f xml:space="preserve"> (H242 *(5-1) + E240) / 5</f>
+        <f t="shared" si="9"/>
         <v>253.40569593062037</v>
       </c>
       <c r="J243" s="2">
@@ -11252,15 +11254,15 @@
         <v>258.39999999999998</v>
       </c>
       <c r="F244" s="8">
-        <f xml:space="preserve"> (F243 *(13 - 1) + E236) / 13</f>
+        <f t="shared" si="11"/>
         <v>249.34874478153662</v>
       </c>
       <c r="G244" s="11">
-        <f xml:space="preserve"> (G243 *(8-1) + E239) / 8</f>
+        <f t="shared" si="10"/>
         <v>251.77613360126637</v>
       </c>
       <c r="H244" s="11">
-        <f xml:space="preserve"> (H243 *(5-1) + E241) / 5</f>
+        <f t="shared" si="9"/>
         <v>253.91355674449628</v>
       </c>
       <c r="J244" s="2">
@@ -11294,15 +11296,15 @@
         <v>257.935</v>
       </c>
       <c r="F245" s="8">
-        <f xml:space="preserve"> (F244 *(13 - 1) + E237) / 13</f>
+        <f t="shared" si="11"/>
         <v>249.60422595218765</v>
       </c>
       <c r="G245" s="11">
-        <f xml:space="preserve"> (G244 *(8-1) + E240) / 8</f>
+        <f t="shared" si="10"/>
         <v>252.26474190110807</v>
       </c>
       <c r="H245" s="11">
-        <f xml:space="preserve"> (H244 *(5-1) + E242) / 5</f>
+        <f t="shared" si="9"/>
         <v>254.18784539559701</v>
       </c>
       <c r="J245" s="2">
@@ -11336,15 +11338,15 @@
         <v>257.64999999999998</v>
       </c>
       <c r="F246" s="8">
-        <f xml:space="preserve"> (F245 *(13 - 1) + E238) / 13</f>
+        <f t="shared" si="11"/>
         <v>249.9204393404809</v>
       </c>
       <c r="G246" s="11">
-        <f xml:space="preserve"> (G245 *(8-1) + E241) / 8</f>
+        <f t="shared" si="10"/>
         <v>252.72477416346956</v>
       </c>
       <c r="H246" s="11">
-        <f xml:space="preserve"> (H245 *(5-1) + E243) / 5</f>
+        <f t="shared" si="9"/>
         <v>254.62927631647761</v>
       </c>
       <c r="J246" s="2">
@@ -11378,15 +11380,15 @@
         <v>257.96500000000003</v>
       </c>
       <c r="F247" s="8">
-        <f xml:space="preserve"> (F246 *(13 - 1) + E239) / 13</f>
+        <f t="shared" si="11"/>
         <v>250.29732862198236</v>
       </c>
       <c r="G247" s="11">
-        <f xml:space="preserve"> (G246 *(8-1) + E242) / 8</f>
+        <f t="shared" si="10"/>
         <v>253.04480239303587</v>
       </c>
       <c r="H247" s="11">
-        <f xml:space="preserve"> (H246 *(5-1) + E244) / 5</f>
+        <f t="shared" si="9"/>
         <v>255.38342105318208</v>
       </c>
       <c r="J247" s="2">
@@ -11420,15 +11422,15 @@
         <v>257.41499999999996</v>
       </c>
       <c r="F248" s="8">
-        <f xml:space="preserve"> (F247 *(13 - 1) + E240) / 13</f>
+        <f t="shared" si="11"/>
         <v>250.71176488182985</v>
       </c>
       <c r="G248" s="11">
-        <f xml:space="preserve"> (G247 *(8-1) + E243) / 8</f>
+        <f t="shared" si="10"/>
         <v>253.46357709390639</v>
       </c>
       <c r="H248" s="11">
-        <f xml:space="preserve"> (H247 *(5-1) + E245) / 5</f>
+        <f t="shared" si="9"/>
         <v>255.89373684254565</v>
       </c>
       <c r="J248" s="2">
@@ -11462,15 +11464,15 @@
         <v>257.31</v>
       </c>
       <c r="F249" s="8">
-        <f xml:space="preserve"> (F248 *(13 - 1) + E241) / 13</f>
+        <f t="shared" si="11"/>
         <v>251.11432142938142</v>
       </c>
       <c r="G249" s="11">
-        <f xml:space="preserve"> (G248 *(8-1) + E244) / 8</f>
+        <f t="shared" si="10"/>
         <v>254.08062995716807</v>
       </c>
       <c r="H249" s="11">
-        <f xml:space="preserve"> (H248 *(5-1) + E246) / 5</f>
+        <f t="shared" si="9"/>
         <v>256.24498947403652</v>
       </c>
       <c r="J249" s="2">
@@ -11504,15 +11506,15 @@
         <v>257.51</v>
       </c>
       <c r="F250" s="8">
-        <f xml:space="preserve"> (F249 *(13 - 1) + E242) / 13</f>
+        <f t="shared" si="11"/>
         <v>251.43514285789053</v>
       </c>
       <c r="G250" s="11">
-        <f xml:space="preserve"> (G249 *(8-1) + E245) / 8</f>
+        <f t="shared" si="10"/>
         <v>254.56242621252204</v>
       </c>
       <c r="H250" s="11">
-        <f xml:space="preserve"> (H249 *(5-1) + E247) / 5</f>
+        <f t="shared" si="9"/>
         <v>256.58899157922923</v>
       </c>
       <c r="J250" s="2">
@@ -11546,15 +11548,15 @@
         <v>257.815</v>
       </c>
       <c r="F251" s="8">
-        <f xml:space="preserve"> (F250 *(13 - 1) + E243) / 13</f>
+        <f t="shared" si="11"/>
         <v>251.81667033036049</v>
       </c>
       <c r="G251" s="11">
-        <f xml:space="preserve"> (G250 *(8-1) + E246) / 8</f>
+        <f t="shared" si="10"/>
         <v>254.9483729359568</v>
       </c>
       <c r="H251" s="11">
-        <f xml:space="preserve"> (H250 *(5-1) + E248) / 5</f>
+        <f t="shared" si="9"/>
         <v>256.7541932633834</v>
       </c>
       <c r="J251" s="2">
@@ -11588,15 +11590,15 @@
         <v>257.73</v>
       </c>
       <c r="F252" s="8">
-        <f xml:space="preserve"> (F251 *(13 - 1) + E244) / 13</f>
+        <f t="shared" si="11"/>
         <v>252.32308030494818</v>
       </c>
       <c r="G252" s="11">
-        <f xml:space="preserve"> (G251 *(8-1) + E247) / 8</f>
+        <f t="shared" si="10"/>
         <v>255.32545131896222</v>
       </c>
       <c r="H252" s="11">
-        <f xml:space="preserve"> (H251 *(5-1) + E249) / 5</f>
+        <f t="shared" si="9"/>
         <v>256.86535461070673</v>
       </c>
       <c r="J252" s="2">
@@ -11630,15 +11632,15 @@
         <v>258.22000000000003</v>
       </c>
       <c r="F253" s="8">
-        <f xml:space="preserve"> (F252 *(13 - 1) + E245) / 13</f>
+        <f t="shared" si="11"/>
         <v>252.75476643533676</v>
       </c>
       <c r="G253" s="11">
-        <f xml:space="preserve"> (G252 *(8-1) + E248) / 8</f>
+        <f t="shared" si="10"/>
         <v>255.58664490409194</v>
       </c>
       <c r="H253" s="11">
-        <f xml:space="preserve"> (H252 *(5-1) + E250) / 5</f>
+        <f t="shared" si="9"/>
         <v>256.99428368856536</v>
       </c>
       <c r="J253" s="2">
@@ -11672,15 +11674,15 @@
         <v>259.85000000000002</v>
       </c>
       <c r="F254" s="8">
-        <f xml:space="preserve"> (F253 *(13 - 1) + E246) / 13</f>
+        <f t="shared" si="11"/>
         <v>253.13132286338779</v>
       </c>
       <c r="G254" s="11">
-        <f xml:space="preserve"> (G253 *(8-1) + E249) / 8</f>
+        <f t="shared" si="10"/>
         <v>255.80206429108046</v>
       </c>
       <c r="H254" s="11">
-        <f xml:space="preserve"> (H253 *(5-1) + E251) / 5</f>
+        <f t="shared" si="9"/>
         <v>257.15842695085229</v>
       </c>
       <c r="J254" s="2">
@@ -11714,15 +11716,15 @@
         <v>261.34500000000003</v>
       </c>
       <c r="F255" s="8">
-        <f xml:space="preserve"> (F254 *(13 - 1) + E247) / 13</f>
+        <f t="shared" si="11"/>
         <v>253.50314418158874</v>
       </c>
       <c r="G255" s="11">
-        <f xml:space="preserve"> (G254 *(8-1) + E250) / 8</f>
+        <f t="shared" si="10"/>
         <v>256.01555625469541</v>
       </c>
       <c r="H255" s="11">
-        <f xml:space="preserve"> (H254 *(5-1) + E252) / 5</f>
+        <f t="shared" si="9"/>
         <v>257.27274156068182</v>
       </c>
       <c r="J255" s="2">
@@ -11756,15 +11758,15 @@
         <v>262.69500000000005</v>
       </c>
       <c r="F256" s="8">
-        <f xml:space="preserve"> (F255 *(13 - 1) + E248) / 13</f>
+        <f t="shared" si="11"/>
         <v>253.80405616762039</v>
       </c>
       <c r="G256" s="11">
-        <f xml:space="preserve"> (G255 *(8-1) + E251) / 8</f>
+        <f t="shared" si="10"/>
         <v>256.24048672285846</v>
       </c>
       <c r="H256" s="11">
-        <f xml:space="preserve"> (H255 *(5-1) + E253) / 5</f>
+        <f t="shared" si="9"/>
         <v>257.46219324854547</v>
       </c>
       <c r="J256" s="2">
@@ -11798,15 +11800,15 @@
         <v>263.45000000000005</v>
       </c>
       <c r="F257" s="8">
-        <f xml:space="preserve"> (F256 *(13 - 1) + E249) / 13</f>
+        <f t="shared" si="11"/>
         <v>254.07374415472651</v>
       </c>
       <c r="G257" s="11">
-        <f xml:space="preserve"> (G256 *(8-1) + E252) / 8</f>
+        <f t="shared" si="10"/>
         <v>256.42667588250117</v>
       </c>
       <c r="H257" s="11">
-        <f xml:space="preserve"> (H256 *(5-1) + E254) / 5</f>
+        <f t="shared" si="9"/>
         <v>257.93975459883643</v>
       </c>
       <c r="J257" s="2">
@@ -11840,15 +11842,15 @@
         <v>264.53500000000003</v>
       </c>
       <c r="F258" s="8">
-        <f xml:space="preserve"> (F257 *(13 - 1) + E250) / 13</f>
+        <f t="shared" si="11"/>
         <v>254.33807152743989</v>
       </c>
       <c r="G258" s="11">
-        <f xml:space="preserve"> (G257 *(8-1) + E253) / 8</f>
+        <f t="shared" si="10"/>
         <v>256.65084139718851</v>
       </c>
       <c r="H258" s="11">
-        <f xml:space="preserve"> (H257 *(5-1) + E255) / 5</f>
+        <f t="shared" si="9"/>
         <v>258.62080367906913</v>
       </c>
       <c r="J258" s="2">
@@ -11882,15 +11884,15 @@
         <v>263.58000000000004</v>
       </c>
       <c r="F259" s="8">
-        <f xml:space="preserve"> (F258 *(13 - 1) + E251) / 13</f>
+        <f t="shared" si="11"/>
         <v>254.60552756379067</v>
       </c>
       <c r="G259" s="11">
-        <f xml:space="preserve"> (G258 *(8-1) + E254) / 8</f>
+        <f t="shared" si="10"/>
         <v>257.05073622253997</v>
       </c>
       <c r="H259" s="11">
-        <f xml:space="preserve"> (H258 *(5-1) + E256) / 5</f>
+        <f t="shared" si="9"/>
         <v>259.43564294325535</v>
       </c>
       <c r="J259" s="2">
@@ -11924,15 +11926,15 @@
         <v>265.19</v>
       </c>
       <c r="F260" s="8">
-        <f xml:space="preserve"> (F259 *(13 - 1) + E252) / 13</f>
+        <f t="shared" si="11"/>
         <v>254.84587159734522</v>
       </c>
       <c r="G260" s="11">
-        <f xml:space="preserve"> (G259 *(8-1) + E255) / 8</f>
+        <f t="shared" si="10"/>
         <v>257.58751919472252</v>
       </c>
       <c r="H260" s="11">
-        <f xml:space="preserve"> (H259 *(5-1) + E257) / 5</f>
+        <f t="shared" si="9"/>
         <v>260.23851435460426</v>
       </c>
       <c r="J260" s="2">
@@ -11966,15 +11968,15 @@
         <v>266.88</v>
       </c>
       <c r="F261" s="8">
-        <f xml:space="preserve"> (F260 *(13 - 1) + E253) / 13</f>
+        <f t="shared" si="11"/>
         <v>255.10541993601097</v>
       </c>
       <c r="G261" s="11">
-        <f xml:space="preserve"> (G260 *(8-1) + E256) / 8</f>
+        <f t="shared" si="10"/>
         <v>258.22595429538222</v>
       </c>
       <c r="H261" s="11">
-        <f xml:space="preserve"> (H260 *(5-1) + E258) / 5</f>
+        <f t="shared" si="9"/>
         <v>261.09781148368342</v>
       </c>
       <c r="J261" s="2">
@@ -12008,15 +12010,15 @@
         <v>267.88</v>
       </c>
       <c r="F262" s="8">
-        <f xml:space="preserve"> (F261 *(13 - 1) + E254) / 13</f>
+        <f t="shared" si="11"/>
         <v>255.47038763324088</v>
       </c>
       <c r="G262" s="11">
-        <f xml:space="preserve"> (G261 *(8-1) + E257) / 8</f>
+        <f t="shared" si="10"/>
         <v>258.87896000845944</v>
       </c>
       <c r="H262" s="11">
-        <f xml:space="preserve"> (H261 *(5-1) + E259) / 5</f>
+        <f t="shared" si="9"/>
         <v>261.59424918694674</v>
       </c>
       <c r="J262" s="2">
@@ -12050,15 +12052,15 @@
         <v>268.24</v>
       </c>
       <c r="F263" s="8">
-        <f xml:space="preserve"> (F262 *(13 - 1) + E255) / 13</f>
+        <f t="shared" si="11"/>
         <v>255.92228089222232</v>
       </c>
       <c r="G263" s="11">
-        <f xml:space="preserve"> (G262 *(8-1) + E258) / 8</f>
+        <f t="shared" si="10"/>
         <v>259.58596500740202</v>
       </c>
       <c r="H263" s="11">
-        <f xml:space="preserve"> (H262 *(5-1) + E260) / 5</f>
+        <f t="shared" si="9"/>
         <v>262.31339934955741</v>
       </c>
       <c r="J263" s="2">
@@ -12092,15 +12094,15 @@
         <v>268.97500000000002</v>
       </c>
       <c r="F264" s="8">
-        <f xml:space="preserve"> (F263 *(13 - 1) + E256) / 13</f>
+        <f t="shared" si="11"/>
         <v>256.44325928512831</v>
       </c>
       <c r="G264" s="11">
-        <f xml:space="preserve"> (G263 *(8-1) + E259) / 8</f>
+        <f t="shared" si="10"/>
         <v>260.08521938147675</v>
       </c>
       <c r="H264" s="11">
-        <f xml:space="preserve"> (H263 *(5-1) + E261) / 5</f>
+        <f t="shared" si="9"/>
         <v>263.22671947964591</v>
       </c>
       <c r="J264" s="2">
@@ -12134,15 +12136,15 @@
         <v>269.46000000000004</v>
       </c>
       <c r="F265" s="8">
-        <f xml:space="preserve"> (F264 *(13 - 1) + E257) / 13</f>
+        <f t="shared" si="11"/>
         <v>256.98223934011844</v>
       </c>
       <c r="G265" s="11">
-        <f xml:space="preserve"> (G264 *(8-1) + E260) / 8</f>
+        <f t="shared" si="10"/>
         <v>260.72331695879217</v>
       </c>
       <c r="H265" s="11">
-        <f xml:space="preserve"> (H264 *(5-1) + E262) / 5</f>
+        <f t="shared" si="9"/>
         <v>264.15737558371677</v>
       </c>
       <c r="J265" s="2">
@@ -12176,15 +12178,15 @@
         <v>271.02499999999998</v>
       </c>
       <c r="F266" s="8">
-        <f xml:space="preserve"> (F265 *(13 - 1) + E258) / 13</f>
+        <f t="shared" si="11"/>
         <v>257.5632209293401</v>
       </c>
       <c r="G266" s="11">
-        <f xml:space="preserve"> (G265 *(8-1) + E261) / 8</f>
+        <f t="shared" si="10"/>
         <v>261.49290233894317</v>
       </c>
       <c r="H266" s="11">
-        <f xml:space="preserve"> (H265 *(5-1) + E263) / 5</f>
+        <f t="shared" ref="H266:H329" si="12" xml:space="preserve"> (H265 *(5-1) + E263) / 5</f>
         <v>264.97390046697342</v>
       </c>
       <c r="J266" s="2">
@@ -12218,15 +12220,15 @@
         <v>272.56</v>
       </c>
       <c r="F267" s="8">
-        <f xml:space="preserve"> (F266 *(13 - 1) + E259) / 13</f>
+        <f t="shared" si="11"/>
         <v>258.02605008862162</v>
       </c>
       <c r="G267" s="11">
-        <f xml:space="preserve"> (G266 *(8-1) + E262) / 8</f>
+        <f t="shared" si="10"/>
         <v>262.29128954657529</v>
       </c>
       <c r="H267" s="11">
-        <f xml:space="preserve"> (H266 *(5-1) + E264) / 5</f>
+        <f t="shared" si="12"/>
         <v>265.77412037357874</v>
       </c>
       <c r="J267" s="2">
@@ -12260,15 +12262,15 @@
         <v>272.82499999999999</v>
       </c>
       <c r="F268" s="8">
-        <f xml:space="preserve"> (F267 *(13 - 1) + E260) / 13</f>
+        <f t="shared" si="11"/>
         <v>258.57712315872766</v>
       </c>
       <c r="G268" s="11">
-        <f xml:space="preserve"> (G267 *(8-1) + E263) / 8</f>
+        <f t="shared" si="10"/>
         <v>263.03487835325336</v>
       </c>
       <c r="H268" s="11">
-        <f xml:space="preserve"> (H267 *(5-1) + E265) / 5</f>
+        <f t="shared" si="12"/>
         <v>266.51129629886299</v>
       </c>
       <c r="J268" s="2">
@@ -12302,15 +12304,15 @@
         <v>272.89</v>
       </c>
       <c r="F269" s="8">
-        <f xml:space="preserve"> (F268 *(13 - 1) + E261) / 13</f>
+        <f t="shared" si="11"/>
         <v>259.21580599267168</v>
       </c>
       <c r="G269" s="11">
-        <f xml:space="preserve"> (G268 *(8-1) + E264) / 8</f>
+        <f t="shared" si="10"/>
         <v>263.77739355909671</v>
       </c>
       <c r="H269" s="11">
-        <f xml:space="preserve"> (H268 *(5-1) + E266) / 5</f>
+        <f t="shared" si="12"/>
         <v>267.41403703909037</v>
       </c>
       <c r="J269" s="2">
@@ -12344,15 +12346,15 @@
         <v>274.77499999999998</v>
       </c>
       <c r="F270" s="8">
-        <f xml:space="preserve"> (F269 *(13 - 1) + E262) / 13</f>
+        <f t="shared" si="11"/>
         <v>259.88228245477387</v>
       </c>
       <c r="G270" s="11">
-        <f xml:space="preserve"> (G269 *(8-1) + E265) / 8</f>
+        <f t="shared" si="10"/>
         <v>264.48771936420962</v>
       </c>
       <c r="H270" s="11">
-        <f xml:space="preserve"> (H269 *(5-1) + E267) / 5</f>
+        <f t="shared" si="12"/>
         <v>268.44322963127229</v>
       </c>
       <c r="J270" s="2">
@@ -12386,15 +12388,15 @@
         <v>274.94</v>
       </c>
       <c r="F271" s="8">
-        <f xml:space="preserve"> (F270 *(13 - 1) + E263) / 13</f>
+        <f t="shared" si="11"/>
         <v>260.52518380440665</v>
       </c>
       <c r="G271" s="11">
-        <f xml:space="preserve"> (G270 *(8-1) + E266) / 8</f>
+        <f t="shared" ref="G271:G334" si="13" xml:space="preserve"> (G270 *(8-1) + E266) / 8</f>
         <v>265.30487944368343</v>
       </c>
       <c r="H271" s="11">
-        <f xml:space="preserve"> (H270 *(5-1) + E268) / 5</f>
+        <f t="shared" si="12"/>
         <v>269.31958370501786</v>
       </c>
       <c r="J271" s="2">
@@ -12428,15 +12430,15 @@
         <v>272.54500000000002</v>
       </c>
       <c r="F272" s="8">
-        <f xml:space="preserve"> (F271 *(13 - 1) + E264) / 13</f>
+        <f t="shared" si="11"/>
         <v>261.17516966560612</v>
       </c>
       <c r="G272" s="11">
-        <f xml:space="preserve"> (G271 *(8-1) + E267) / 8</f>
+        <f t="shared" si="13"/>
         <v>266.21176951322303</v>
       </c>
       <c r="H272" s="11">
-        <f xml:space="preserve"> (H271 *(5-1) + E269) / 5</f>
+        <f t="shared" si="12"/>
         <v>270.03366696401429</v>
       </c>
       <c r="J272" s="2">
@@ -12470,15 +12472,15 @@
         <v>271.59000000000003</v>
       </c>
       <c r="F273" s="8">
-        <f xml:space="preserve"> (F272 *(13 - 1) + E265) / 13</f>
+        <f t="shared" si="11"/>
         <v>261.81246430671337</v>
       </c>
       <c r="G273" s="11">
-        <f xml:space="preserve"> (G272 *(8-1) + E268) / 8</f>
+        <f t="shared" si="13"/>
         <v>267.03842332407015</v>
       </c>
       <c r="H273" s="11">
-        <f xml:space="preserve"> (H272 *(5-1) + E270) / 5</f>
+        <f t="shared" si="12"/>
         <v>270.98193357121147</v>
       </c>
       <c r="J273" s="2">
@@ -12512,15 +12514,15 @@
         <v>271.47500000000002</v>
       </c>
       <c r="F274" s="8">
-        <f xml:space="preserve"> (F273 *(13 - 1) + E266) / 13</f>
+        <f t="shared" si="11"/>
         <v>262.52112089850465</v>
       </c>
       <c r="G274" s="11">
-        <f xml:space="preserve"> (G273 *(8-1) + E269) / 8</f>
+        <f t="shared" si="13"/>
         <v>267.76987040856136</v>
       </c>
       <c r="H274" s="11">
-        <f xml:space="preserve"> (H273 *(5-1) + E271) / 5</f>
+        <f t="shared" si="12"/>
         <v>271.77354685696918</v>
       </c>
       <c r="J274" s="2">
@@ -12554,15 +12556,15 @@
         <v>267.57499999999999</v>
       </c>
       <c r="F275" s="8">
-        <f xml:space="preserve"> (F274 *(13 - 1) + E267) / 13</f>
+        <f t="shared" si="11"/>
         <v>263.29334236785041</v>
       </c>
       <c r="G275" s="11">
-        <f xml:space="preserve"> (G274 *(8-1) + E270) / 8</f>
+        <f t="shared" si="13"/>
         <v>268.64551160749119</v>
       </c>
       <c r="H275" s="11">
-        <f xml:space="preserve"> (H274 *(5-1) + E272) / 5</f>
+        <f t="shared" si="12"/>
         <v>271.92783748557537</v>
       </c>
       <c r="J275" s="2">
@@ -12596,15 +12598,15 @@
         <v>259.64</v>
       </c>
       <c r="F276" s="8">
-        <f xml:space="preserve"> (F275 *(13 - 1) + E268) / 13</f>
+        <f t="shared" si="11"/>
         <v>264.02654680109265</v>
       </c>
       <c r="G276" s="11">
-        <f xml:space="preserve"> (G275 *(8-1) + E271) / 8</f>
+        <f t="shared" si="13"/>
         <v>269.43232265655479</v>
       </c>
       <c r="H276" s="11">
-        <f xml:space="preserve"> (H275 *(5-1) + E273) / 5</f>
+        <f t="shared" si="12"/>
         <v>271.86026998846029</v>
       </c>
       <c r="J276" s="2">
@@ -12638,15 +12640,15 @@
         <v>254.45999999999998</v>
       </c>
       <c r="F277" s="8">
-        <f xml:space="preserve"> (F276 *(13 - 1) + E269) / 13</f>
+        <f t="shared" si="11"/>
         <v>264.70835089331626</v>
       </c>
       <c r="G277" s="11">
-        <f xml:space="preserve"> (G276 *(8-1) + E272) / 8</f>
+        <f t="shared" si="13"/>
         <v>269.82140732448545</v>
       </c>
       <c r="H277" s="11">
-        <f xml:space="preserve"> (H276 *(5-1) + E274) / 5</f>
+        <f t="shared" si="12"/>
         <v>271.78321599076827</v>
       </c>
       <c r="J277" s="2">
@@ -12680,15 +12682,15 @@
         <v>260.01499999999999</v>
       </c>
       <c r="F278" s="8">
-        <f xml:space="preserve"> (F277 *(13 - 1) + E270) / 13</f>
+        <f t="shared" si="11"/>
         <v>265.48270851690734</v>
       </c>
       <c r="G278" s="11">
-        <f xml:space="preserve"> (G277 *(8-1) + E273) / 8</f>
+        <f t="shared" si="13"/>
         <v>270.0424814089248</v>
       </c>
       <c r="H278" s="11">
-        <f xml:space="preserve"> (H277 *(5-1) + E275) / 5</f>
+        <f t="shared" si="12"/>
         <v>270.94157279261464</v>
       </c>
       <c r="J278" s="2">
@@ -12722,15 +12724,15 @@
         <v>253.185</v>
       </c>
       <c r="F279" s="8">
-        <f xml:space="preserve"> (F278 *(13 - 1) + E271) / 13</f>
+        <f t="shared" ref="F279:F342" si="14" xml:space="preserve"> (F278 *(13 - 1) + E271) / 13</f>
         <v>266.21019247714526</v>
       </c>
       <c r="G279" s="11">
-        <f xml:space="preserve"> (G278 *(8-1) + E274) / 8</f>
+        <f t="shared" si="13"/>
         <v>270.2215462328092</v>
       </c>
       <c r="H279" s="11">
-        <f xml:space="preserve"> (H278 *(5-1) + E276) / 5</f>
+        <f t="shared" si="12"/>
         <v>268.68125823409173</v>
       </c>
       <c r="J279" s="2">
@@ -12764,15 +12766,15 @@
         <v>248.74</v>
       </c>
       <c r="F280" s="8">
-        <f xml:space="preserve"> (F279 *(13 - 1) + E272) / 13</f>
+        <f t="shared" si="14"/>
         <v>266.69748536351869</v>
       </c>
       <c r="G280" s="11">
-        <f xml:space="preserve"> (G279 *(8-1) + E275) / 8</f>
+        <f t="shared" si="13"/>
         <v>269.89072795370805</v>
       </c>
       <c r="H280" s="11">
-        <f xml:space="preserve"> (H279 *(5-1) + E277) / 5</f>
+        <f t="shared" si="12"/>
         <v>265.83700658727338</v>
       </c>
       <c r="J280" s="2">
@@ -12806,15 +12808,15 @@
         <v>254.59000000000003</v>
       </c>
       <c r="F281" s="8">
-        <f xml:space="preserve"> (F280 *(13 - 1) + E273) / 13</f>
+        <f t="shared" si="14"/>
         <v>267.07383264324801</v>
       </c>
       <c r="G281" s="11">
-        <f xml:space="preserve"> (G280 *(8-1) + E276) / 8</f>
+        <f t="shared" si="13"/>
         <v>268.60938695949454</v>
       </c>
       <c r="H281" s="11">
-        <f xml:space="preserve"> (H280 *(5-1) + E278) / 5</f>
+        <f t="shared" si="12"/>
         <v>264.67260526981875</v>
       </c>
       <c r="J281" s="2">
@@ -12848,15 +12850,15 @@
         <v>255.19499999999999</v>
       </c>
       <c r="F282" s="8">
-        <f xml:space="preserve"> (F281 *(13 - 1) + E274) / 13</f>
+        <f t="shared" si="14"/>
         <v>267.41238397838276</v>
       </c>
       <c r="G282" s="11">
-        <f xml:space="preserve"> (G281 *(8-1) + E277) / 8</f>
+        <f t="shared" si="13"/>
         <v>266.84071358955771</v>
       </c>
       <c r="H282" s="11">
-        <f xml:space="preserve"> (H281 *(5-1) + E279) / 5</f>
+        <f t="shared" si="12"/>
         <v>262.375084215855</v>
       </c>
       <c r="J282" s="2">
@@ -12890,15 +12892,15 @@
         <v>257.29500000000002</v>
       </c>
       <c r="F283" s="8">
-        <f xml:space="preserve"> (F282 *(13 - 1) + E275) / 13</f>
+        <f t="shared" si="14"/>
         <v>267.42489290312255</v>
       </c>
       <c r="G283" s="11">
-        <f xml:space="preserve"> (G282 *(8-1) + E278) / 8</f>
+        <f t="shared" si="13"/>
         <v>265.98749939086298</v>
       </c>
       <c r="H283" s="11">
-        <f xml:space="preserve"> (H282 *(5-1) + E280) / 5</f>
+        <f t="shared" si="12"/>
         <v>259.64806737268401</v>
       </c>
       <c r="J283" s="2">
@@ -12932,15 +12934,15 @@
         <v>260.91500000000002</v>
       </c>
       <c r="F284" s="8">
-        <f xml:space="preserve"> (F283 *(13 - 1) + E276) / 13</f>
+        <f t="shared" si="14"/>
         <v>266.82605498749774</v>
       </c>
       <c r="G284" s="11">
-        <f xml:space="preserve"> (G283 *(8-1) + E279) / 8</f>
+        <f t="shared" si="13"/>
         <v>264.38718696700511</v>
       </c>
       <c r="H284" s="11">
-        <f xml:space="preserve"> (H283 *(5-1) + E281) / 5</f>
+        <f t="shared" si="12"/>
         <v>258.63645389814718</v>
       </c>
       <c r="J284" s="2">
@@ -12974,15 +12976,15 @@
         <v>263.70000000000005</v>
       </c>
       <c r="F285" s="8">
-        <f xml:space="preserve"> (F284 *(13 - 1) + E277) / 13</f>
+        <f t="shared" si="14"/>
         <v>265.87481998845948</v>
       </c>
       <c r="G285" s="11">
-        <f xml:space="preserve"> (G284 *(8-1) + E280) / 8</f>
+        <f t="shared" si="13"/>
         <v>262.43128859612943</v>
       </c>
       <c r="H285" s="11">
-        <f xml:space="preserve"> (H284 *(5-1) + E282) / 5</f>
+        <f t="shared" si="12"/>
         <v>257.94816311851775</v>
       </c>
       <c r="J285" s="2">
@@ -13016,15 +13018,15 @@
         <v>262.05499999999995</v>
       </c>
       <c r="F286" s="8">
-        <f xml:space="preserve"> (F285 *(13 - 1) + E278) / 13</f>
+        <f t="shared" si="14"/>
         <v>265.42406460473183</v>
       </c>
       <c r="G286" s="11">
-        <f xml:space="preserve"> (G285 *(8-1) + E281) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.45112752161327</v>
       </c>
       <c r="H286" s="11">
-        <f xml:space="preserve"> (H285 *(5-1) + E283) / 5</f>
+        <f t="shared" si="12"/>
         <v>257.81753049481421</v>
       </c>
       <c r="J286" s="2">
@@ -13058,15 +13060,15 @@
         <v>262.28999999999996</v>
       </c>
       <c r="F287" s="8">
-        <f xml:space="preserve"> (F286 *(13 - 1) + E279) / 13</f>
+        <f t="shared" si="14"/>
         <v>264.48259809667553</v>
       </c>
       <c r="G287" s="11">
-        <f xml:space="preserve"> (G286 *(8-1) + E282) / 8</f>
+        <f t="shared" si="13"/>
         <v>260.66911158141164</v>
       </c>
       <c r="H287" s="11">
-        <f xml:space="preserve"> (H286 *(5-1) + E284) / 5</f>
+        <f t="shared" si="12"/>
         <v>258.43702439585138</v>
       </c>
       <c r="J287" s="2">
@@ -13100,15 +13102,15 @@
         <v>261.34000000000003</v>
       </c>
       <c r="F288" s="8">
-        <f xml:space="preserve"> (F287 *(13 - 1) + E280) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.27162901231588</v>
       </c>
       <c r="G288" s="11">
-        <f xml:space="preserve"> (G287 *(8-1) + E283) / 8</f>
+        <f t="shared" si="13"/>
         <v>260.24734763373516</v>
       </c>
       <c r="H288" s="11">
-        <f xml:space="preserve"> (H287 *(5-1) + E285) / 5</f>
+        <f t="shared" si="12"/>
         <v>259.4896195166811</v>
       </c>
       <c r="J288" s="2">
@@ -13142,15 +13144,15 @@
         <v>262.91499999999996</v>
       </c>
       <c r="F289" s="8">
-        <f xml:space="preserve"> (F288 *(13 - 1) + E281) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.60381139598388</v>
       </c>
       <c r="G289" s="11">
-        <f xml:space="preserve"> (G288 *(8-1) + E284) / 8</f>
+        <f t="shared" si="13"/>
         <v>260.33080417951828</v>
       </c>
       <c r="H289" s="11">
-        <f xml:space="preserve"> (H288 *(5-1) + E286) / 5</f>
+        <f t="shared" si="12"/>
         <v>260.00269561334488</v>
       </c>
       <c r="J289" s="2">
@@ -13184,15 +13186,15 @@
         <v>266.435</v>
       </c>
       <c r="F290" s="8">
-        <f xml:space="preserve"> (F289 *(13 - 1) + E282) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.03390282706204</v>
       </c>
       <c r="G290" s="11">
-        <f xml:space="preserve"> (G289 *(8-1) + E285) / 8</f>
+        <f t="shared" si="13"/>
         <v>260.7519536570785</v>
       </c>
       <c r="H290" s="11">
-        <f xml:space="preserve"> (H289 *(5-1) + E287) / 5</f>
+        <f t="shared" si="12"/>
         <v>260.4601564906759</v>
       </c>
       <c r="J290" s="2">
@@ -13226,15 +13228,15 @@
         <v>266.435</v>
       </c>
       <c r="F291" s="8">
-        <f xml:space="preserve"> (F290 *(13 - 1) + E283) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.66937184036493</v>
       </c>
       <c r="G291" s="11">
-        <f xml:space="preserve"> (G290 *(8-1) + E286) / 8</f>
+        <f t="shared" si="13"/>
         <v>260.91483444994367</v>
       </c>
       <c r="H291" s="11">
-        <f xml:space="preserve"> (H290 *(5-1) + E288) / 5</f>
+        <f t="shared" si="12"/>
         <v>260.63612519254076</v>
       </c>
       <c r="J291" s="2">
@@ -13268,15 +13270,15 @@
         <v>263.64999999999998</v>
       </c>
       <c r="F292" s="8">
-        <f xml:space="preserve"> (F291 *(13 - 1) + E284) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.61134323725997</v>
       </c>
       <c r="G292" s="11">
-        <f xml:space="preserve"> (G291 *(8-1) + E287) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.08673014370072</v>
       </c>
       <c r="H292" s="11">
-        <f xml:space="preserve"> (H291 *(5-1) + E289) / 5</f>
+        <f t="shared" si="12"/>
         <v>261.0919001540326</v>
       </c>
       <c r="J292" s="2">
@@ -13310,15 +13312,15 @@
         <v>259.64499999999998</v>
       </c>
       <c r="F293" s="8">
-        <f xml:space="preserve"> (F292 *(13 - 1) + E285) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.77200914208612</v>
       </c>
       <c r="G293" s="11">
-        <f xml:space="preserve"> (G292 *(8-1) + E288) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.11838887573816</v>
       </c>
       <c r="H293" s="11">
-        <f xml:space="preserve"> (H292 *(5-1) + E290) / 5</f>
+        <f t="shared" si="12"/>
         <v>262.16052012322609</v>
       </c>
       <c r="J293" s="2">
@@ -13352,15 +13354,15 @@
         <v>257.40999999999997</v>
       </c>
       <c r="F294" s="8">
-        <f xml:space="preserve"> (F293 *(13 - 1) + E286) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.79377766961795</v>
       </c>
       <c r="G294" s="11">
-        <f xml:space="preserve"> (G293 *(8-1) + E289) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.34296526627088</v>
       </c>
       <c r="H294" s="11">
-        <f xml:space="preserve"> (H293 *(5-1) + E291) / 5</f>
+        <f t="shared" si="12"/>
         <v>263.01541609858089</v>
       </c>
       <c r="J294" s="2">
@@ -13394,15 +13396,15 @@
         <v>260.28499999999997</v>
       </c>
       <c r="F295" s="8">
-        <f xml:space="preserve"> (F294 *(13 - 1) + E287) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.83194861810887</v>
       </c>
       <c r="G295" s="11">
-        <f xml:space="preserve"> (G294 *(8-1) + E290) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.97946960798703</v>
       </c>
       <c r="H295" s="11">
-        <f xml:space="preserve"> (H294 *(5-1) + E292) / 5</f>
+        <f t="shared" si="12"/>
         <v>263.14233287886475</v>
       </c>
       <c r="J295" s="2">
@@ -13436,15 +13438,15 @@
         <v>262.245</v>
       </c>
       <c r="F296" s="8">
-        <f xml:space="preserve"> (F295 *(13 - 1) + E288) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.79410641671586</v>
       </c>
       <c r="G296" s="11">
-        <f xml:space="preserve"> (G295 *(8-1) + E291) / 8</f>
+        <f t="shared" si="13"/>
         <v>262.53641090698864</v>
       </c>
       <c r="H296" s="11">
-        <f xml:space="preserve"> (H295 *(5-1) + E293) / 5</f>
+        <f t="shared" si="12"/>
         <v>262.44286630309182</v>
       </c>
       <c r="J296" s="2">
@@ -13478,15 +13480,15 @@
         <v>261.67500000000001</v>
       </c>
       <c r="F297" s="8">
-        <f xml:space="preserve"> (F296 *(13 - 1) + E289) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.88032900004544</v>
       </c>
       <c r="G297" s="11">
-        <f xml:space="preserve"> (G296 *(8-1) + E292) / 8</f>
+        <f t="shared" si="13"/>
         <v>262.67560954361505</v>
       </c>
       <c r="H297" s="11">
-        <f xml:space="preserve"> (H296 *(5-1) + E294) / 5</f>
+        <f t="shared" si="12"/>
         <v>261.43629304247344</v>
       </c>
       <c r="J297" s="2">
@@ -13520,15 +13522,15 @@
         <v>263.25</v>
       </c>
       <c r="F298" s="8">
-        <f xml:space="preserve"> (F297 *(13 - 1) + E290) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.23068830773423</v>
       </c>
       <c r="G298" s="11">
-        <f xml:space="preserve"> (G297 *(8-1) + E293) / 8</f>
+        <f t="shared" si="13"/>
         <v>262.29678335066319</v>
       </c>
       <c r="H298" s="11">
-        <f xml:space="preserve"> (H297 *(5-1) + E295) / 5</f>
+        <f t="shared" si="12"/>
         <v>261.20603443397874</v>
       </c>
       <c r="J298" s="2">
@@ -13562,15 +13564,15 @@
         <v>266.89</v>
       </c>
       <c r="F299" s="8">
-        <f xml:space="preserve"> (F298 *(13 - 1) + E291) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.55409689944696</v>
       </c>
       <c r="G299" s="11">
-        <f xml:space="preserve"> (G298 *(8-1) + E294) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.68593543183027</v>
       </c>
       <c r="H299" s="11">
-        <f xml:space="preserve"> (H298 *(5-1) + E296) / 5</f>
+        <f t="shared" si="12"/>
         <v>261.41382754718296</v>
       </c>
       <c r="J299" s="2">
@@ -13604,15 +13606,15 @@
         <v>268.70999999999998</v>
       </c>
       <c r="F300" s="8">
-        <f xml:space="preserve"> (F299 *(13 - 1) + E292) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.63839713795107</v>
       </c>
       <c r="G300" s="11">
-        <f xml:space="preserve"> (G299 *(8-1) + E295) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.51081850285146</v>
       </c>
       <c r="H300" s="11">
-        <f xml:space="preserve"> (H299 *(5-1) + E297) / 5</f>
+        <f t="shared" si="12"/>
         <v>261.46606203774638</v>
       </c>
       <c r="J300" s="2">
@@ -13646,15 +13648,15 @@
         <v>267.96000000000004</v>
       </c>
       <c r="F301" s="8">
-        <f xml:space="preserve"> (F300 *(13 - 1) + E293) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.40813581964716</v>
       </c>
       <c r="G301" s="11">
-        <f xml:space="preserve"> (G300 *(8-1) + E296) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.60259118999505</v>
       </c>
       <c r="H301" s="11">
-        <f xml:space="preserve"> (H300 *(5-1) + E298) / 5</f>
+        <f t="shared" si="12"/>
         <v>261.82284963019708</v>
       </c>
       <c r="J301" s="2">
@@ -13688,15 +13690,15 @@
         <v>266.15499999999997</v>
       </c>
       <c r="F302" s="8">
-        <f xml:space="preserve"> (F301 *(13 - 1) + E294) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.0236638335204</v>
       </c>
       <c r="G302" s="11">
-        <f xml:space="preserve"> (G301 *(8-1) + E297) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.61164229124569</v>
       </c>
       <c r="H302" s="11">
-        <f xml:space="preserve"> (H301 *(5-1) + E299) / 5</f>
+        <f t="shared" si="12"/>
         <v>262.83627970415762</v>
       </c>
       <c r="J302" s="2">
@@ -13730,15 +13732,15 @@
         <v>265.36</v>
       </c>
       <c r="F303" s="8">
-        <f xml:space="preserve"> (F302 *(13 - 1) + E295) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.88992046171109</v>
       </c>
       <c r="G303" s="11">
-        <f xml:space="preserve"> (G302 *(8-1) + E298) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.81643700483994</v>
       </c>
       <c r="H303" s="11">
-        <f xml:space="preserve"> (H302 *(5-1) + E300) / 5</f>
+        <f t="shared" si="12"/>
         <v>264.01102376332608</v>
       </c>
       <c r="J303" s="2">
@@ -13772,15 +13774,15 @@
         <v>265.69499999999999</v>
       </c>
       <c r="F304" s="8">
-        <f xml:space="preserve"> (F303 *(13 - 1) + E296) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.91723427234871</v>
       </c>
       <c r="G304" s="11">
-        <f xml:space="preserve"> (G303 *(8-1) + E299) / 8</f>
+        <f t="shared" si="13"/>
         <v>262.45063237923495</v>
       </c>
       <c r="H304" s="11">
-        <f xml:space="preserve"> (H303 *(5-1) + E301) / 5</f>
+        <f t="shared" si="12"/>
         <v>264.80081901066086</v>
       </c>
       <c r="J304" s="2">
@@ -13814,15 +13816,15 @@
         <v>262.54499999999996</v>
       </c>
       <c r="F305" s="8">
-        <f xml:space="preserve"> (F304 *(13 - 1) + E297) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.89860086678345</v>
       </c>
       <c r="G305" s="11">
-        <f xml:space="preserve"> (G304 *(8-1) + E300) / 8</f>
+        <f t="shared" si="13"/>
         <v>263.23305333183055</v>
       </c>
       <c r="H305" s="11">
-        <f xml:space="preserve"> (H304 *(5-1) + E302) / 5</f>
+        <f t="shared" si="12"/>
         <v>265.07165520852868</v>
       </c>
       <c r="J305" s="2">
@@ -13856,15 +13858,15 @@
         <v>261.98</v>
       </c>
       <c r="F306" s="8">
-        <f xml:space="preserve"> (F305 *(13 - 1) + E298) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.00255464626167</v>
       </c>
       <c r="G306" s="11">
-        <f xml:space="preserve"> (G305 *(8-1) + E301) / 8</f>
+        <f t="shared" si="13"/>
         <v>263.82392166535175</v>
       </c>
       <c r="H306" s="11">
-        <f xml:space="preserve"> (H305 *(5-1) + E303) / 5</f>
+        <f t="shared" si="12"/>
         <v>265.12932416682298</v>
       </c>
       <c r="J306" s="2">
@@ -13898,15 +13900,15 @@
         <v>262.76</v>
       </c>
       <c r="F307" s="8">
-        <f xml:space="preserve"> (F306 *(13 - 1) + E299) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.37851198116465</v>
       </c>
       <c r="G307" s="11">
-        <f xml:space="preserve"> (G306 *(8-1) + E302) / 8</f>
+        <f t="shared" si="13"/>
         <v>264.11530645718278</v>
       </c>
       <c r="H307" s="11">
-        <f xml:space="preserve"> (H306 *(5-1) + E304) / 5</f>
+        <f t="shared" si="12"/>
         <v>265.24245933345838</v>
       </c>
       <c r="J307" s="2">
@@ -13940,15 +13942,15 @@
         <v>257.32499999999999</v>
       </c>
       <c r="F308" s="8">
-        <f xml:space="preserve"> (F307 *(13 - 1) + E300) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.86554952107508</v>
       </c>
       <c r="G308" s="11">
-        <f xml:space="preserve"> (G307 *(8-1) + E303) / 8</f>
+        <f t="shared" si="13"/>
         <v>264.27089315003496</v>
       </c>
       <c r="H308" s="11">
-        <f xml:space="preserve"> (H307 *(5-1) + E305) / 5</f>
+        <f t="shared" si="12"/>
         <v>264.70296746676667</v>
       </c>
       <c r="J308" s="2">
@@ -13982,15 +13984,15 @@
         <v>252.79499999999999</v>
       </c>
       <c r="F309" s="8">
-        <f xml:space="preserve"> (F308 *(13 - 1) + E301) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.25743032714621</v>
       </c>
       <c r="G309" s="11">
-        <f xml:space="preserve"> (G308 *(8-1) + E304) / 8</f>
+        <f t="shared" si="13"/>
         <v>264.44890650628059</v>
       </c>
       <c r="H309" s="11">
-        <f xml:space="preserve"> (H308 *(5-1) + E306) / 5</f>
+        <f t="shared" si="12"/>
         <v>264.15837397341335</v>
       </c>
       <c r="J309" s="2">
@@ -14024,15 +14026,15 @@
         <v>253.755</v>
       </c>
       <c r="F310" s="8">
-        <f xml:space="preserve"> (F309 *(13 - 1) + E302) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.48032030198107</v>
       </c>
       <c r="G310" s="11">
-        <f xml:space="preserve"> (G309 *(8-1) + E305) / 8</f>
+        <f t="shared" si="13"/>
         <v>264.21091819299551</v>
       </c>
       <c r="H310" s="11">
-        <f xml:space="preserve"> (H309 *(5-1) + E307) / 5</f>
+        <f t="shared" si="12"/>
         <v>263.8786991787307</v>
       </c>
       <c r="J310" s="2">
@@ -14066,15 +14068,15 @@
         <v>254.125</v>
       </c>
       <c r="F311" s="8">
-        <f xml:space="preserve"> (F310 *(13 - 1) + E303) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.62491104798255</v>
       </c>
       <c r="G311" s="11">
-        <f xml:space="preserve"> (G310 *(8-1) + E306) / 8</f>
+        <f t="shared" si="13"/>
         <v>263.93205341887108</v>
       </c>
       <c r="H311" s="11">
-        <f xml:space="preserve"> (H310 *(5-1) + E308) / 5</f>
+        <f t="shared" si="12"/>
         <v>262.56795934298458</v>
       </c>
       <c r="J311" s="2">
@@ -14108,15 +14110,15 @@
         <v>252.005</v>
       </c>
       <c r="F312" s="8">
-        <f xml:space="preserve"> (F311 *(13 - 1) + E304) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.78414865967619</v>
       </c>
       <c r="G312" s="11">
-        <f xml:space="preserve"> (G311 *(8-1) + E307) / 8</f>
+        <f t="shared" si="13"/>
         <v>263.78554674151223</v>
       </c>
       <c r="H312" s="11">
-        <f xml:space="preserve"> (H311 *(5-1) + E309) / 5</f>
+        <f t="shared" si="12"/>
         <v>260.6133674743877</v>
       </c>
       <c r="J312" s="2">
@@ -14150,15 +14152,15 @@
         <v>253.88</v>
       </c>
       <c r="F313" s="8">
-        <f xml:space="preserve"> (F312 *(13 - 1) + E305) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.68882953200875</v>
       </c>
       <c r="G313" s="11">
-        <f xml:space="preserve"> (G312 *(8-1) + E308) / 8</f>
+        <f t="shared" si="13"/>
         <v>262.97797839882321</v>
       </c>
       <c r="H313" s="11">
-        <f xml:space="preserve"> (H312 *(5-1) + E310) / 5</f>
+        <f t="shared" si="12"/>
         <v>259.24169397951016</v>
       </c>
       <c r="J313" s="2">
@@ -14192,15 +14194,15 @@
         <v>250.35</v>
       </c>
       <c r="F314" s="8">
-        <f xml:space="preserve"> (F313 *(13 - 1) + E306) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.55738110646962</v>
       </c>
       <c r="G314" s="11">
-        <f xml:space="preserve"> (G313 *(8-1) + E309) / 8</f>
+        <f t="shared" si="13"/>
         <v>261.7051060989703</v>
       </c>
       <c r="H314" s="11">
-        <f xml:space="preserve"> (H313 *(5-1) + E311) / 5</f>
+        <f t="shared" si="12"/>
         <v>258.21835518360814</v>
       </c>
       <c r="J314" s="2">
@@ -14234,15 +14236,15 @@
         <v>250.52</v>
       </c>
       <c r="F315" s="8">
-        <f xml:space="preserve"> (F314 *(13 - 1) + E307) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.49604409827964</v>
       </c>
       <c r="G315" s="11">
-        <f xml:space="preserve"> (G314 *(8-1) + E310) / 8</f>
+        <f t="shared" si="13"/>
         <v>260.71134283659904</v>
       </c>
       <c r="H315" s="11">
-        <f xml:space="preserve"> (H314 *(5-1) + E312) / 5</f>
+        <f t="shared" si="12"/>
         <v>256.97568414688646</v>
       </c>
       <c r="J315" s="2">
@@ -14276,15 +14278,15 @@
         <v>251.88</v>
       </c>
       <c r="F316" s="8">
-        <f xml:space="preserve"> (F315 *(13 - 1) + E308) / 13</f>
+        <f t="shared" si="14"/>
         <v>263.02134839841199</v>
       </c>
       <c r="G316" s="11">
-        <f xml:space="preserve"> (G315 *(8-1) + E311) / 8</f>
+        <f t="shared" si="13"/>
         <v>259.8880499820242</v>
       </c>
       <c r="H316" s="11">
-        <f xml:space="preserve"> (H315 *(5-1) + E313) / 5</f>
+        <f t="shared" si="12"/>
         <v>256.35654731750918</v>
       </c>
       <c r="J316" s="2">
@@ -14318,15 +14320,15 @@
         <v>256.71499999999997</v>
       </c>
       <c r="F317" s="8">
-        <f xml:space="preserve"> (F316 *(13 - 1) + E309) / 13</f>
+        <f t="shared" si="14"/>
         <v>262.23470621391874</v>
       </c>
       <c r="G317" s="11">
-        <f xml:space="preserve"> (G316 *(8-1) + E312) / 8</f>
+        <f t="shared" si="13"/>
         <v>258.90266873427117</v>
       </c>
       <c r="H317" s="11">
-        <f xml:space="preserve"> (H316 *(5-1) + E314) / 5</f>
+        <f t="shared" si="12"/>
         <v>255.15523785400734</v>
       </c>
       <c r="J317" s="2">
@@ -14360,15 +14362,15 @@
         <v>252.92000000000002</v>
       </c>
       <c r="F318" s="8">
-        <f xml:space="preserve"> (F317 *(13 - 1) + E310) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.58242112054035</v>
       </c>
       <c r="G318" s="11">
-        <f xml:space="preserve"> (G317 *(8-1) + E313) / 8</f>
+        <f t="shared" si="13"/>
         <v>258.27483514248729</v>
       </c>
       <c r="H318" s="11">
-        <f xml:space="preserve"> (H317 *(5-1) + E315) / 5</f>
+        <f t="shared" si="12"/>
         <v>254.22819028320586</v>
       </c>
       <c r="J318" s="2">
@@ -14402,15 +14404,15 @@
         <v>253.72500000000002</v>
       </c>
       <c r="F319" s="8">
-        <f xml:space="preserve"> (F318 *(13 - 1) + E311) / 13</f>
+        <f t="shared" si="14"/>
         <v>261.00877334203722</v>
       </c>
       <c r="G319" s="11">
-        <f xml:space="preserve"> (G318 *(8-1) + E314) / 8</f>
+        <f t="shared" si="13"/>
         <v>257.2842307496764</v>
       </c>
       <c r="H319" s="11">
-        <f xml:space="preserve"> (H318 *(5-1) + E316) / 5</f>
+        <f t="shared" si="12"/>
         <v>253.75855222656469</v>
       </c>
       <c r="J319" s="2">
@@ -14444,15 +14446,15 @@
         <v>255.78</v>
       </c>
       <c r="F320" s="8">
-        <f xml:space="preserve"> (F319 *(13 - 1) + E312) / 13</f>
+        <f t="shared" si="14"/>
         <v>260.31617539264977</v>
       </c>
       <c r="G320" s="11">
-        <f xml:space="preserve"> (G319 *(8-1) + E315) / 8</f>
+        <f t="shared" si="13"/>
         <v>256.43870190596687</v>
       </c>
       <c r="H320" s="11">
-        <f xml:space="preserve"> (H319 *(5-1) + E317) / 5</f>
+        <f t="shared" si="12"/>
         <v>254.34984178125174</v>
       </c>
       <c r="J320" s="2">
@@ -14486,15 +14488,15 @@
         <v>255.78</v>
       </c>
       <c r="F321" s="8">
-        <f xml:space="preserve"> (F320 *(13 - 1) + E313) / 13</f>
+        <f t="shared" si="14"/>
         <v>259.82108497783059</v>
       </c>
       <c r="G321" s="11">
-        <f xml:space="preserve"> (G320 *(8-1) + E316) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.86886416772103</v>
       </c>
       <c r="H321" s="11">
-        <f xml:space="preserve"> (H320 *(5-1) + E318) / 5</f>
+        <f t="shared" si="12"/>
         <v>254.06387342500139</v>
       </c>
       <c r="J321" s="2">
@@ -14528,15 +14530,15 @@
         <v>257.245</v>
       </c>
       <c r="F322" s="8">
-        <f xml:space="preserve"> (F321 *(13 - 1) + E314) / 13</f>
+        <f t="shared" si="14"/>
         <v>259.0925399795359</v>
       </c>
       <c r="G322" s="11">
-        <f xml:space="preserve"> (G321 *(8-1) + E317) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.97463114675588</v>
       </c>
       <c r="H322" s="11">
-        <f xml:space="preserve"> (H321 *(5-1) + E319) / 5</f>
+        <f t="shared" si="12"/>
         <v>253.99609874000112</v>
       </c>
       <c r="J322" s="2">
@@ -14570,15 +14572,15 @@
         <v>257</v>
       </c>
       <c r="F323" s="8">
-        <f xml:space="preserve"> (F322 *(13 - 1) + E315) / 13</f>
+        <f t="shared" si="14"/>
         <v>258.43311382726392</v>
       </c>
       <c r="G323" s="11">
-        <f xml:space="preserve"> (G322 *(8-1) + E318) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.59280225341141</v>
       </c>
       <c r="H323" s="11">
-        <f xml:space="preserve"> (H322 *(5-1) + E320) / 5</f>
+        <f t="shared" si="12"/>
         <v>254.35287899200088</v>
       </c>
       <c r="J323" s="2">
@@ -14612,15 +14614,15 @@
         <v>258.315</v>
       </c>
       <c r="F324" s="8">
-        <f xml:space="preserve"> (F323 *(13 - 1) + E316) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.92902814824362</v>
       </c>
       <c r="G324" s="11">
-        <f xml:space="preserve"> (G323 *(8-1) + E319) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.35932697173496</v>
       </c>
       <c r="H324" s="11">
-        <f xml:space="preserve"> (H323 *(5-1) + E321) / 5</f>
+        <f t="shared" si="12"/>
         <v>254.63830319360073</v>
       </c>
       <c r="J324" s="2">
@@ -14654,15 +14656,15 @@
         <v>260.90499999999997</v>
       </c>
       <c r="F325" s="8">
-        <f xml:space="preserve"> (F324 *(13 - 1) + E317) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.83564136760953</v>
       </c>
       <c r="G325" s="11">
-        <f xml:space="preserve"> (G324 *(8-1) + E320) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.4119111002681</v>
       </c>
       <c r="H325" s="11">
-        <f xml:space="preserve"> (H324 *(5-1) + E322) / 5</f>
+        <f t="shared" si="12"/>
         <v>255.15964255488061</v>
       </c>
       <c r="J325" s="2">
@@ -14696,15 +14698,15 @@
         <v>261.64999999999998</v>
       </c>
       <c r="F326" s="8">
-        <f xml:space="preserve"> (F325 *(13 - 1) + E318) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.45751510856269</v>
       </c>
       <c r="G326" s="11">
-        <f xml:space="preserve"> (G325 *(8-1) + E321) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.45792221273459</v>
       </c>
       <c r="H326" s="11">
-        <f xml:space="preserve"> (H325 *(5-1) + E323) / 5</f>
+        <f t="shared" si="12"/>
         <v>255.5277140439045</v>
       </c>
       <c r="J326" s="2">
@@ -14738,15 +14740,15 @@
         <v>259.92500000000001</v>
       </c>
       <c r="F327" s="8">
-        <f xml:space="preserve"> (F326 *(13 - 1) + E319) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.17039856175018</v>
       </c>
       <c r="G327" s="11">
-        <f xml:space="preserve"> (G326 *(8-1) + E322) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.68130693614279</v>
       </c>
       <c r="H327" s="11">
-        <f xml:space="preserve"> (H326 *(5-1) + E324) / 5</f>
+        <f t="shared" si="12"/>
         <v>256.0851712351236</v>
       </c>
       <c r="J327" s="2">
@@ -14780,15 +14782,15 @@
         <v>258.51</v>
       </c>
       <c r="F328" s="8">
-        <f xml:space="preserve"> (F327 *(13 - 1) + E320) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.06344482623092</v>
       </c>
       <c r="G328" s="11">
-        <f xml:space="preserve"> (G327 *(8-1) + E323) / 8</f>
+        <f t="shared" si="13"/>
         <v>255.84614356912493</v>
       </c>
       <c r="H328" s="11">
-        <f xml:space="preserve"> (H327 *(5-1) + E325) / 5</f>
+        <f t="shared" si="12"/>
         <v>257.04913698809889</v>
       </c>
       <c r="J328" s="2">
@@ -14822,15 +14824,15 @@
         <v>257.815</v>
       </c>
       <c r="F329" s="8">
-        <f xml:space="preserve"> (F328 *(13 - 1) + E321) / 13</f>
+        <f t="shared" si="14"/>
         <v>256.96471830113626</v>
       </c>
       <c r="G329" s="11">
-        <f xml:space="preserve"> (G328 *(8-1) + E324) / 8</f>
+        <f t="shared" si="13"/>
         <v>256.1547506229843</v>
       </c>
       <c r="H329" s="11">
-        <f xml:space="preserve"> (H328 *(5-1) + E326) / 5</f>
+        <f t="shared" si="12"/>
         <v>257.96930959047916</v>
       </c>
       <c r="J329" s="2">
@@ -14864,15 +14866,15 @@
         <v>255.89</v>
       </c>
       <c r="F330" s="8">
-        <f xml:space="preserve"> (F329 *(13 - 1) + E322) / 13</f>
+        <f t="shared" si="14"/>
         <v>256.98627843181805</v>
       </c>
       <c r="G330" s="11">
-        <f xml:space="preserve"> (G329 *(8-1) + E325) / 8</f>
+        <f t="shared" si="13"/>
         <v>256.74853179511126</v>
       </c>
       <c r="H330" s="11">
-        <f xml:space="preserve"> (H329 *(5-1) + E327) / 5</f>
+        <f t="shared" ref="H330:H393" si="15" xml:space="preserve"> (H329 *(5-1) + E327) / 5</f>
         <v>258.36044767238332</v>
       </c>
       <c r="J330" s="2">
@@ -14906,15 +14908,15 @@
         <v>253.82499999999999</v>
       </c>
       <c r="F331" s="8">
-        <f xml:space="preserve"> (F330 *(13 - 1) + E323) / 13</f>
+        <f t="shared" si="14"/>
         <v>256.98733393706283</v>
       </c>
       <c r="G331" s="11">
-        <f xml:space="preserve"> (G330 *(8-1) + E326) / 8</f>
+        <f t="shared" si="13"/>
         <v>257.36121532072235</v>
       </c>
       <c r="H331" s="11">
-        <f xml:space="preserve"> (H330 *(5-1) + E328) / 5</f>
+        <f t="shared" si="15"/>
         <v>258.39035813790667</v>
       </c>
       <c r="J331" s="2">
@@ -14948,15 +14950,15 @@
         <v>256.99</v>
       </c>
       <c r="F332" s="8">
-        <f xml:space="preserve"> (F331 *(13 - 1) + E324) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.08946209575026</v>
       </c>
       <c r="G332" s="11">
-        <f xml:space="preserve"> (G331 *(8-1) + E327) / 8</f>
+        <f t="shared" si="13"/>
         <v>257.68168840563209</v>
       </c>
       <c r="H332" s="11">
-        <f xml:space="preserve"> (H331 *(5-1) + E329) / 5</f>
+        <f t="shared" si="15"/>
         <v>258.27528651032537</v>
       </c>
       <c r="J332" s="2">
@@ -14990,15 +14992,15 @@
         <v>257.62</v>
       </c>
       <c r="F333" s="8">
-        <f xml:space="preserve"> (F332 *(13 - 1) + E325) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.38296501146181</v>
       </c>
       <c r="G333" s="11">
-        <f xml:space="preserve"> (G332 *(8-1) + E328) / 8</f>
+        <f t="shared" si="13"/>
         <v>257.78522735492811</v>
       </c>
       <c r="H333" s="11">
-        <f xml:space="preserve"> (H332 *(5-1) + E330) / 5</f>
+        <f t="shared" si="15"/>
         <v>257.7982292082603</v>
       </c>
       <c r="J333" s="2">
@@ -15032,15 +15034,15 @@
         <v>257.37</v>
       </c>
       <c r="F334" s="8">
-        <f xml:space="preserve"> (F333 *(13 - 1) + E326) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.71119847211861</v>
       </c>
       <c r="G334" s="11">
-        <f xml:space="preserve"> (G333 *(8-1) + E329) / 8</f>
+        <f t="shared" si="13"/>
         <v>257.78894893556208</v>
       </c>
       <c r="H334" s="11">
-        <f xml:space="preserve"> (H333 *(5-1) + E331) / 5</f>
+        <f t="shared" si="15"/>
         <v>257.00358336660827</v>
       </c>
       <c r="J334" s="2">
@@ -15074,15 +15076,15 @@
         <v>254.90500000000003</v>
       </c>
       <c r="F335" s="8">
-        <f xml:space="preserve"> (F334 *(13 - 1) + E327) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.88149089734026</v>
       </c>
       <c r="G335" s="11">
-        <f xml:space="preserve"> (G334 *(8-1) + E330) / 8</f>
+        <f t="shared" ref="G335:G398" si="16" xml:space="preserve"> (G334 *(8-1) + E330) / 8</f>
         <v>257.5515803186168</v>
       </c>
       <c r="H335" s="11">
-        <f xml:space="preserve"> (H334 *(5-1) + E332) / 5</f>
+        <f t="shared" si="15"/>
         <v>257.00086669328664</v>
       </c>
       <c r="J335" s="2">
@@ -15116,15 +15118,15 @@
         <v>255.495</v>
       </c>
       <c r="F336" s="8">
-        <f xml:space="preserve"> (F335 *(13 - 1) + E328) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.92983775139106</v>
       </c>
       <c r="G336" s="11">
-        <f xml:space="preserve"> (G335 *(8-1) + E331) / 8</f>
+        <f t="shared" si="16"/>
         <v>257.08575777878968</v>
       </c>
       <c r="H336" s="11">
-        <f xml:space="preserve"> (H335 *(5-1) + E333) / 5</f>
+        <f t="shared" si="15"/>
         <v>257.1246933546293</v>
       </c>
       <c r="J336" s="2">
@@ -15158,15 +15160,15 @@
         <v>252.57999999999998</v>
       </c>
       <c r="F337" s="8">
-        <f xml:space="preserve"> (F336 *(13 - 1) + E329) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.92100407820715</v>
       </c>
       <c r="G337" s="11">
-        <f xml:space="preserve"> (G336 *(8-1) + E332) / 8</f>
+        <f t="shared" si="16"/>
         <v>257.073788056441</v>
       </c>
       <c r="H337" s="11">
-        <f xml:space="preserve"> (H336 *(5-1) + E334) / 5</f>
+        <f t="shared" si="15"/>
         <v>257.17375468370346</v>
       </c>
       <c r="J337" s="2">
@@ -15200,15 +15202,15 @@
         <v>255.255</v>
       </c>
       <c r="F338" s="8">
-        <f xml:space="preserve"> (F337 *(13 - 1) + E330) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.76477299526812</v>
       </c>
       <c r="G338" s="11">
-        <f xml:space="preserve"> (G337 *(8-1) + E333) / 8</f>
+        <f t="shared" si="16"/>
         <v>257.14206454938585</v>
       </c>
       <c r="H338" s="11">
-        <f xml:space="preserve"> (H337 *(5-1) + E335) / 5</f>
+        <f t="shared" si="15"/>
         <v>256.72000374696279</v>
       </c>
       <c r="J338" s="2">
@@ -15242,15 +15244,15 @@
         <v>258.245</v>
       </c>
       <c r="F339" s="8">
-        <f xml:space="preserve"> (F338 *(13 - 1) + E331) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.46171353409363</v>
       </c>
       <c r="G339" s="11">
-        <f xml:space="preserve"> (G338 *(8-1) + E334) / 8</f>
+        <f t="shared" si="16"/>
         <v>257.17055648071261</v>
       </c>
       <c r="H339" s="11">
-        <f xml:space="preserve"> (H338 *(5-1) + E336) / 5</f>
+        <f t="shared" si="15"/>
         <v>256.47500299757019</v>
       </c>
       <c r="J339" s="2">
@@ -15284,15 +15286,15 @@
         <v>257.45</v>
       </c>
       <c r="F340" s="8">
-        <f xml:space="preserve"> (F339 *(13 - 1) + E332) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.42542787762488</v>
       </c>
       <c r="G340" s="11">
-        <f xml:space="preserve"> (G339 *(8-1) + E335) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.88736192062356</v>
       </c>
       <c r="H340" s="11">
-        <f xml:space="preserve"> (H339 *(5-1) + E337) / 5</f>
+        <f t="shared" si="15"/>
         <v>255.69600239805612</v>
       </c>
       <c r="J340" s="2">
@@ -15326,15 +15328,15 @@
         <v>259.61</v>
       </c>
       <c r="F341" s="8">
-        <f xml:space="preserve"> (F340 *(13 - 1) + E333) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.44039496396141</v>
       </c>
       <c r="G341" s="11">
-        <f xml:space="preserve"> (G340 *(8-1) + E336) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.71331668054563</v>
       </c>
       <c r="H341" s="11">
-        <f xml:space="preserve"> (H340 *(5-1) + E338) / 5</f>
+        <f t="shared" si="15"/>
         <v>255.60780191844486</v>
       </c>
       <c r="J341" s="2">
@@ -15368,15 +15370,15 @@
         <v>262.35000000000002</v>
       </c>
       <c r="F342" s="8">
-        <f xml:space="preserve"> (F341 *(13 - 1) + E334) / 13</f>
+        <f t="shared" si="14"/>
         <v>257.43497996673364</v>
       </c>
       <c r="G342" s="11">
-        <f xml:space="preserve"> (G341 *(8-1) + E337) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.19665209547742</v>
       </c>
       <c r="H342" s="11">
-        <f xml:space="preserve"> (H341 *(5-1) + E339) / 5</f>
+        <f t="shared" si="15"/>
         <v>256.13524153475589</v>
       </c>
       <c r="J342" s="2">
@@ -15410,15 +15412,15 @@
         <v>263.37</v>
       </c>
       <c r="F343" s="8">
-        <f xml:space="preserve"> (F342 *(13 - 1) + E335) / 13</f>
+        <f t="shared" ref="F343:F406" si="17" xml:space="preserve"> (F342 *(13 - 1) + E335) / 13</f>
         <v>257.24036612313876</v>
       </c>
       <c r="G343" s="11">
-        <f xml:space="preserve"> (G342 *(8-1) + E338) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.07894558354275</v>
       </c>
       <c r="H343" s="11">
-        <f xml:space="preserve"> (H342 *(5-1) + E340) / 5</f>
+        <f t="shared" si="15"/>
         <v>256.39819322780471</v>
       </c>
       <c r="J343" s="2">
@@ -15452,15 +15454,15 @@
         <v>264.2</v>
       </c>
       <c r="F344" s="8">
-        <f xml:space="preserve"> (F343 *(13 - 1) + E336) / 13</f>
+        <f t="shared" si="17"/>
         <v>257.10610719058963</v>
       </c>
       <c r="G344" s="11">
-        <f xml:space="preserve"> (G343 *(8-1) + E339) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.34970238559993</v>
       </c>
       <c r="H344" s="11">
-        <f xml:space="preserve"> (H343 *(5-1) + E341) / 5</f>
+        <f t="shared" si="15"/>
         <v>257.04055458224377</v>
       </c>
       <c r="J344" s="2">
@@ -15494,15 +15496,15 @@
         <v>261.875</v>
       </c>
       <c r="F345" s="8">
-        <f xml:space="preserve"> (F344 *(13 - 1) + E337) / 13</f>
+        <f t="shared" si="17"/>
         <v>256.75794509900578</v>
       </c>
       <c r="G345" s="11">
-        <f xml:space="preserve"> (G344 *(8-1) + E340) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.48723958739993</v>
       </c>
       <c r="H345" s="11">
-        <f xml:space="preserve"> (H344 *(5-1) + E342) / 5</f>
+        <f t="shared" si="15"/>
         <v>258.10244366579502</v>
       </c>
       <c r="J345" s="2">
@@ -15536,15 +15538,15 @@
         <v>262.95500000000004</v>
       </c>
       <c r="F346" s="8">
-        <f xml:space="preserve"> (F345 *(13 - 1) + E338) / 13</f>
+        <f t="shared" si="17"/>
         <v>256.64233393754381</v>
       </c>
       <c r="G346" s="11">
-        <f xml:space="preserve"> (G345 *(8-1) + E341) / 8</f>
+        <f t="shared" si="16"/>
         <v>256.87758463897495</v>
       </c>
       <c r="H346" s="11">
-        <f xml:space="preserve"> (H345 *(5-1) + E343) / 5</f>
+        <f t="shared" si="15"/>
         <v>259.15595493263601</v>
       </c>
       <c r="J346" s="2">
@@ -15578,15 +15580,15 @@
         <v>263.19499999999999</v>
       </c>
       <c r="F347" s="8">
-        <f xml:space="preserve"> (F346 *(13 - 1) + E339) / 13</f>
+        <f t="shared" si="17"/>
         <v>256.76561594234812</v>
       </c>
       <c r="G347" s="11">
-        <f xml:space="preserve"> (G346 *(8-1) + E342) / 8</f>
+        <f t="shared" si="16"/>
         <v>257.56163655910308</v>
       </c>
       <c r="H347" s="11">
-        <f xml:space="preserve"> (H346 *(5-1) + E344) / 5</f>
+        <f t="shared" si="15"/>
         <v>260.16476394610879</v>
       </c>
       <c r="J347" s="2">
@@ -15620,15 +15622,15 @@
         <v>262.51499999999999</v>
       </c>
       <c r="F348" s="8">
-        <f xml:space="preserve"> (F347 *(13 - 1) + E340) / 13</f>
+        <f t="shared" si="17"/>
         <v>256.81826086985978</v>
       </c>
       <c r="G348" s="11">
-        <f xml:space="preserve"> (G347 *(8-1) + E343) / 8</f>
+        <f t="shared" si="16"/>
         <v>258.28768198921517</v>
       </c>
       <c r="H348" s="11">
-        <f xml:space="preserve"> (H347 *(5-1) + E345) / 5</f>
+        <f t="shared" si="15"/>
         <v>260.50681115688701</v>
       </c>
       <c r="J348" s="2">
@@ -15662,15 +15664,15 @@
         <v>263.65999999999997</v>
       </c>
       <c r="F349" s="8">
-        <f xml:space="preserve"> (F348 *(13 - 1) + E341) / 13</f>
+        <f t="shared" si="17"/>
         <v>257.03301003371672</v>
       </c>
       <c r="G349" s="11">
-        <f xml:space="preserve"> (G348 *(8-1) + E344) / 8</f>
+        <f t="shared" si="16"/>
         <v>259.02672174056329</v>
       </c>
       <c r="H349" s="11">
-        <f xml:space="preserve"> (H348 *(5-1) + E346) / 5</f>
+        <f t="shared" si="15"/>
         <v>260.99644892550958</v>
       </c>
       <c r="J349" s="2">
@@ -15704,15 +15706,15 @@
         <v>264.22500000000002</v>
       </c>
       <c r="F350" s="8">
-        <f xml:space="preserve"> (F349 *(13 - 1) + E342) / 13</f>
+        <f t="shared" si="17"/>
         <v>257.44200926189239</v>
       </c>
       <c r="G350" s="11">
-        <f xml:space="preserve"> (G349 *(8-1) + E345) / 8</f>
+        <f t="shared" si="16"/>
         <v>259.38275652299285</v>
       </c>
       <c r="H350" s="11">
-        <f xml:space="preserve"> (H349 *(5-1) + E347) / 5</f>
+        <f t="shared" si="15"/>
         <v>261.43615914040765</v>
       </c>
       <c r="J350" s="2">
@@ -15746,15 +15748,15 @@
         <v>263.20000000000005</v>
       </c>
       <c r="F351" s="8">
-        <f xml:space="preserve"> (F350 *(13 - 1) + E343) / 13</f>
+        <f t="shared" si="17"/>
         <v>257.89800854943911</v>
       </c>
       <c r="G351" s="11">
-        <f xml:space="preserve"> (G350 *(8-1) + E346) / 8</f>
+        <f t="shared" si="16"/>
         <v>259.82928695761876</v>
       </c>
       <c r="H351" s="11">
-        <f xml:space="preserve"> (H350 *(5-1) + E348) / 5</f>
+        <f t="shared" si="15"/>
         <v>261.65192731232611</v>
       </c>
       <c r="J351" s="2">
@@ -15788,15 +15790,15 @@
         <v>263.02</v>
       </c>
       <c r="F352" s="8">
-        <f xml:space="preserve"> (F351 *(13 - 1) + E344) / 13</f>
+        <f t="shared" si="17"/>
         <v>258.38277712255916</v>
       </c>
       <c r="G352" s="11">
-        <f xml:space="preserve"> (G351 *(8-1) + E347) / 8</f>
+        <f t="shared" si="16"/>
         <v>260.25000108791642</v>
       </c>
       <c r="H352" s="11">
-        <f xml:space="preserve"> (H351 *(5-1) + E349) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.05354184986089</v>
       </c>
       <c r="J352" s="2">
@@ -15830,15 +15832,15 @@
         <v>263.23</v>
       </c>
       <c r="F353" s="8">
-        <f xml:space="preserve"> (F352 *(13 - 1) + E345) / 13</f>
+        <f t="shared" si="17"/>
         <v>258.65140965159304</v>
       </c>
       <c r="G353" s="11">
-        <f xml:space="preserve"> (G352 *(8-1) + E348) / 8</f>
+        <f t="shared" si="16"/>
         <v>260.53312595192688</v>
       </c>
       <c r="H353" s="11">
-        <f xml:space="preserve"> (H352 *(5-1) + E350) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.48783347988876</v>
       </c>
       <c r="J353" s="2">
@@ -15872,15 +15874,15 @@
         <v>260.57000000000005</v>
       </c>
       <c r="F354" s="8">
-        <f xml:space="preserve"> (F353 *(13 - 1) + E346) / 13</f>
+        <f t="shared" si="17"/>
         <v>258.98245506300896</v>
       </c>
       <c r="G354" s="11">
-        <f xml:space="preserve"> (G353 *(8-1) + E349) / 8</f>
+        <f t="shared" si="16"/>
         <v>260.92398520793603</v>
       </c>
       <c r="H354" s="11">
-        <f xml:space="preserve"> (H353 *(5-1) + E351) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.630266783911</v>
       </c>
       <c r="J354" s="2">
@@ -15914,15 +15916,15 @@
         <v>262.78999999999996</v>
       </c>
       <c r="F355" s="8">
-        <f xml:space="preserve"> (F354 *(13 - 1) + E347) / 13</f>
+        <f t="shared" si="17"/>
         <v>259.30649698123904</v>
       </c>
       <c r="G355" s="11">
-        <f xml:space="preserve"> (G354 *(8-1) + E350) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.33661205694403</v>
       </c>
       <c r="H355" s="11">
-        <f xml:space="preserve"> (H354 *(5-1) + E352) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.70821342712878</v>
       </c>
       <c r="J355" s="2">
@@ -15956,15 +15958,15 @@
         <v>262.40999999999997</v>
       </c>
       <c r="F356" s="8">
-        <f xml:space="preserve"> (F355 *(13 - 1) + E348) / 13</f>
+        <f t="shared" si="17"/>
         <v>259.55330490575909</v>
       </c>
       <c r="G356" s="11">
-        <f xml:space="preserve"> (G355 *(8-1) + E351) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.56953554982601</v>
       </c>
       <c r="H356" s="11">
-        <f xml:space="preserve"> (H355 *(5-1) + E353) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.81257074170304</v>
       </c>
       <c r="J356" s="2">
@@ -15998,15 +16000,15 @@
         <v>264.12</v>
       </c>
       <c r="F357" s="8">
-        <f xml:space="preserve"> (F356 *(13 - 1) + E349) / 13</f>
+        <f t="shared" si="17"/>
         <v>259.86920452839297</v>
       </c>
       <c r="G357" s="11">
-        <f xml:space="preserve"> (G356 *(8-1) + E352) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.75084360609776</v>
       </c>
       <c r="H357" s="11">
-        <f xml:space="preserve"> (H356 *(5-1) + E354) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.36405659336242</v>
       </c>
       <c r="J357" s="2">
@@ -16040,15 +16042,15 @@
         <v>265.64999999999998</v>
       </c>
       <c r="F358" s="8">
-        <f xml:space="preserve"> (F357 *(13 - 1) + E350) / 13</f>
+        <f t="shared" si="17"/>
         <v>260.20426571851658</v>
       </c>
       <c r="G358" s="11">
-        <f xml:space="preserve"> (G357 *(8-1) + E353) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.93573815533557</v>
       </c>
       <c r="H358" s="11">
-        <f xml:space="preserve"> (H357 *(5-1) + E355) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.44924527468993</v>
       </c>
       <c r="J358" s="2">
@@ -16082,15 +16084,15 @@
         <v>265.77999999999997</v>
       </c>
       <c r="F359" s="8">
-        <f xml:space="preserve"> (F358 *(13 - 1) + E351) / 13</f>
+        <f t="shared" si="17"/>
         <v>260.43470681709221</v>
       </c>
       <c r="G359" s="11">
-        <f xml:space="preserve"> (G358 *(8-1) + E354) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.76502088591866</v>
       </c>
       <c r="H359" s="11">
-        <f xml:space="preserve"> (H358 *(5-1) + E356) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.44139621975194</v>
       </c>
       <c r="J359" s="2">
@@ -16124,15 +16126,15 @@
         <v>267.185</v>
       </c>
       <c r="F360" s="8">
-        <f xml:space="preserve"> (F359 *(13 - 1) + E352) / 13</f>
+        <f t="shared" si="17"/>
         <v>260.63357552346974</v>
       </c>
       <c r="G360" s="11">
-        <f xml:space="preserve"> (G359 *(8-1) + E355) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.89314327517883</v>
       </c>
       <c r="H360" s="11">
-        <f xml:space="preserve"> (H359 *(5-1) + E357) / 5</f>
+        <f t="shared" si="15"/>
         <v>262.7771169758015</v>
       </c>
       <c r="J360" s="2">
@@ -16166,15 +16168,15 @@
         <v>268.15499999999997</v>
       </c>
       <c r="F361" s="8">
-        <f xml:space="preserve"> (F360 *(13 - 1) + E353) / 13</f>
+        <f t="shared" si="17"/>
         <v>260.83330048320283</v>
       </c>
       <c r="G361" s="11">
-        <f xml:space="preserve"> (G360 *(8-1) + E356) / 8</f>
+        <f t="shared" si="16"/>
         <v>261.95775036578146</v>
       </c>
       <c r="H361" s="11">
-        <f xml:space="preserve"> (H360 *(5-1) + E358) / 5</f>
+        <f t="shared" si="15"/>
         <v>263.35169358064121</v>
       </c>
       <c r="J361" s="2">
@@ -16208,15 +16210,15 @@
         <v>268.29499999999996</v>
       </c>
       <c r="F362" s="8">
-        <f xml:space="preserve"> (F361 *(13 - 1) + E354) / 13</f>
+        <f t="shared" si="17"/>
         <v>260.81304659987956</v>
       </c>
       <c r="G362" s="11">
-        <f xml:space="preserve"> (G361 *(8-1) + E357) / 8</f>
+        <f t="shared" si="16"/>
         <v>262.22803157005876</v>
       </c>
       <c r="H362" s="11">
-        <f xml:space="preserve"> (H361 *(5-1) + E359) / 5</f>
+        <f t="shared" si="15"/>
         <v>263.83735486451297</v>
       </c>
       <c r="J362" s="2">
@@ -16250,15 +16252,15 @@
         <v>269.63499999999999</v>
       </c>
       <c r="F363" s="8">
-        <f xml:space="preserve"> (F362 *(13 - 1) + E355) / 13</f>
+        <f t="shared" si="17"/>
         <v>260.96511993835037</v>
       </c>
       <c r="G363" s="11">
-        <f xml:space="preserve"> (G362 *(8-1) + E358) / 8</f>
+        <f t="shared" si="16"/>
         <v>262.65577762380144</v>
       </c>
       <c r="H363" s="11">
-        <f xml:space="preserve"> (H362 *(5-1) + E360) / 5</f>
+        <f t="shared" si="15"/>
         <v>264.50688389161036</v>
       </c>
       <c r="J363" s="2">
@@ -16292,15 +16294,15 @@
         <v>269.55500000000001</v>
       </c>
       <c r="F364" s="8">
-        <f xml:space="preserve"> (F363 *(13 - 1) + E356) / 13</f>
+        <f t="shared" si="17"/>
         <v>261.07626455847725</v>
       </c>
       <c r="G364" s="11">
-        <f xml:space="preserve"> (G363 *(8-1) + E359) / 8</f>
+        <f t="shared" si="16"/>
         <v>263.04630542082623</v>
       </c>
       <c r="H364" s="11">
-        <f xml:space="preserve"> (H363 *(5-1) + E361) / 5</f>
+        <f t="shared" si="15"/>
         <v>265.23650711328827</v>
       </c>
       <c r="J364" s="2">
@@ -16334,15 +16336,15 @@
         <v>269.44</v>
       </c>
       <c r="F365" s="8">
-        <f xml:space="preserve"> (F364 *(13 - 1) + E357) / 13</f>
+        <f t="shared" si="17"/>
         <v>261.31039805397899</v>
       </c>
       <c r="G365" s="11">
-        <f xml:space="preserve"> (G364 *(8-1) + E360) / 8</f>
+        <f t="shared" si="16"/>
         <v>263.56364224322294</v>
       </c>
       <c r="H365" s="11">
-        <f xml:space="preserve"> (H364 *(5-1) + E362) / 5</f>
+        <f t="shared" si="15"/>
         <v>265.84820569063061</v>
       </c>
       <c r="J365" s="2">
@@ -16376,15 +16378,15 @@
         <v>269.495</v>
       </c>
       <c r="F366" s="8">
-        <f xml:space="preserve"> (F365 *(13 - 1) + E358) / 13</f>
+        <f t="shared" si="17"/>
         <v>261.64421358828827</v>
       </c>
       <c r="G366" s="11">
-        <f xml:space="preserve"> (G365 *(8-1) + E361) / 8</f>
+        <f t="shared" si="16"/>
         <v>264.13756196282009</v>
       </c>
       <c r="H366" s="11">
-        <f xml:space="preserve"> (H365 *(5-1) + E363) / 5</f>
+        <f t="shared" si="15"/>
         <v>266.60556455250446</v>
       </c>
       <c r="J366" s="2">
@@ -16418,15 +16420,15 @@
         <v>268.5</v>
       </c>
       <c r="F367" s="8">
-        <f xml:space="preserve"> (F366 *(13 - 1) + E359) / 13</f>
+        <f t="shared" si="17"/>
         <v>261.96235100457375</v>
       </c>
       <c r="G367" s="11">
-        <f xml:space="preserve"> (G366 *(8-1) + E362) / 8</f>
+        <f t="shared" si="16"/>
         <v>264.65724171746757</v>
       </c>
       <c r="H367" s="11">
-        <f xml:space="preserve"> (H366 *(5-1) + E364) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.1954516420036</v>
       </c>
       <c r="J367" s="2">
@@ -16460,15 +16462,15 @@
         <v>267.91999999999996</v>
       </c>
       <c r="F368" s="8">
-        <f xml:space="preserve"> (F367 *(13 - 1) + E360) / 13</f>
+        <f t="shared" si="17"/>
         <v>262.36409323499117</v>
       </c>
       <c r="G368" s="11">
-        <f xml:space="preserve"> (G367 *(8-1) + E363) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.2794615027841</v>
       </c>
       <c r="H368" s="11">
-        <f xml:space="preserve"> (H367 *(5-1) + E365) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.64436131360287</v>
       </c>
       <c r="J368" s="2">
@@ -16502,15 +16504,15 @@
         <v>266.76499999999999</v>
       </c>
       <c r="F369" s="8">
-        <f xml:space="preserve"> (F368 *(13 - 1) + E361) / 13</f>
+        <f t="shared" si="17"/>
         <v>262.80954760153031</v>
       </c>
       <c r="G369" s="11">
-        <f xml:space="preserve"> (G368 *(8-1) + E364) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.81390381493605</v>
       </c>
       <c r="H369" s="11">
-        <f xml:space="preserve"> (H368 *(5-1) + E366) / 5</f>
+        <f t="shared" si="15"/>
         <v>268.01448905088228</v>
       </c>
       <c r="J369" s="2">
@@ -16544,15 +16546,15 @@
         <v>268.23500000000001</v>
       </c>
       <c r="F370" s="8">
-        <f xml:space="preserve"> (F369 *(13 - 1) + E362) / 13</f>
+        <f t="shared" si="17"/>
         <v>263.23150547833569</v>
       </c>
       <c r="G370" s="11">
-        <f xml:space="preserve"> (G369 *(8-1) + E365) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.26716583806905</v>
       </c>
       <c r="H370" s="11">
-        <f xml:space="preserve"> (H369 *(5-1) + E367) / 5</f>
+        <f t="shared" si="15"/>
         <v>268.11159124070582</v>
       </c>
       <c r="J370" s="2">
@@ -16586,15 +16588,15 @@
         <v>266.95</v>
       </c>
       <c r="F371" s="8">
-        <f xml:space="preserve"> (F370 *(13 - 1) + E363) / 13</f>
+        <f t="shared" si="17"/>
         <v>263.72408198000215</v>
       </c>
       <c r="G371" s="11">
-        <f xml:space="preserve"> (G370 *(8-1) + E366) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.6706451083104</v>
       </c>
       <c r="H371" s="11">
-        <f xml:space="preserve"> (H370 *(5-1) + E368) / 5</f>
+        <f t="shared" si="15"/>
         <v>268.07327299256468</v>
       </c>
       <c r="J371" s="2">
@@ -16628,15 +16630,15 @@
         <v>267.25</v>
       </c>
       <c r="F372" s="8">
-        <f xml:space="preserve"> (F371 *(13 - 1) + E364) / 13</f>
+        <f t="shared" si="17"/>
         <v>264.1726141353866</v>
       </c>
       <c r="G372" s="11">
-        <f xml:space="preserve"> (G371 *(8-1) + E367) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.89931446977158</v>
       </c>
       <c r="H372" s="11">
-        <f xml:space="preserve"> (H371 *(5-1) + E369) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.81161839405178</v>
       </c>
       <c r="J372" s="2">
@@ -16670,15 +16672,15 @@
         <v>263.57499999999999</v>
       </c>
       <c r="F373" s="8">
-        <f xml:space="preserve"> (F372 *(13 - 1) + E365) / 13</f>
+        <f t="shared" si="17"/>
         <v>264.57779766343378</v>
       </c>
       <c r="G373" s="11">
-        <f xml:space="preserve"> (G372 *(8-1) + E368) / 8</f>
+        <f t="shared" si="16"/>
         <v>267.02690016105015</v>
       </c>
       <c r="H373" s="11">
-        <f xml:space="preserve"> (H372 *(5-1) + E370) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.89629471524142</v>
       </c>
       <c r="J373" s="2">
@@ -16712,15 +16714,15 @@
         <v>263.88</v>
       </c>
       <c r="F374" s="8">
-        <f xml:space="preserve"> (F373 *(13 - 1) + E366) / 13</f>
+        <f t="shared" si="17"/>
         <v>264.9560439970158</v>
       </c>
       <c r="G374" s="11">
-        <f xml:space="preserve"> (G373 *(8-1) + E369) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.99416264091889</v>
       </c>
       <c r="H374" s="11">
-        <f xml:space="preserve"> (H373 *(5-1) + E371) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.70703577219314</v>
       </c>
       <c r="J374" s="2">
@@ -16754,15 +16756,15 @@
         <v>263.73500000000001</v>
       </c>
       <c r="F375" s="8">
-        <f xml:space="preserve"> (F374 *(13 - 1) + E367) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.22865599724537</v>
       </c>
       <c r="G375" s="11">
-        <f xml:space="preserve"> (G374 *(8-1) + E370) / 8</f>
+        <f t="shared" si="16"/>
         <v>267.14926731080402</v>
       </c>
       <c r="H375" s="11">
-        <f xml:space="preserve"> (H374 *(5-1) + E372) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.61562861775451</v>
       </c>
       <c r="J375" s="2">
@@ -16796,15 +16798,15 @@
         <v>262.375</v>
       </c>
       <c r="F376" s="8">
-        <f xml:space="preserve"> (F375 *(13 - 1) + E368) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.43568245899576</v>
       </c>
       <c r="G376" s="11">
-        <f xml:space="preserve"> (G375 *(8-1) + E371) / 8</f>
+        <f t="shared" si="16"/>
         <v>267.12435889695348</v>
       </c>
       <c r="H376" s="11">
-        <f xml:space="preserve"> (H375 *(5-1) + E373) / 5</f>
+        <f t="shared" si="15"/>
         <v>266.80750289420359</v>
       </c>
       <c r="J376" s="2">
@@ -16838,15 +16840,15 @@
         <v>264.59000000000003</v>
       </c>
       <c r="F377" s="8">
-        <f xml:space="preserve"> (F376 *(13 - 1) + E369) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.53793765445761</v>
       </c>
       <c r="G377" s="11">
-        <f xml:space="preserve"> (G376 *(8-1) + E372) / 8</f>
+        <f t="shared" si="16"/>
         <v>267.14006403483427</v>
       </c>
       <c r="H377" s="11">
-        <f xml:space="preserve"> (H376 *(5-1) + E374) / 5</f>
+        <f t="shared" si="15"/>
         <v>266.22200231536289</v>
       </c>
       <c r="J377" s="2">
@@ -16880,15 +16882,15 @@
         <v>262.88</v>
       </c>
       <c r="F378" s="8">
-        <f xml:space="preserve"> (F377 *(13 - 1) + E370) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.74540398873012</v>
       </c>
       <c r="G378" s="11">
-        <f xml:space="preserve"> (G377 *(8-1) + E373) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.69443103047996</v>
       </c>
       <c r="H378" s="11">
-        <f xml:space="preserve"> (H377 *(5-1) + E375) / 5</f>
+        <f t="shared" si="15"/>
         <v>265.72460185229028</v>
       </c>
       <c r="J378" s="2">
@@ -16922,15 +16924,15 @@
         <v>263.90999999999997</v>
       </c>
       <c r="F379" s="8">
-        <f xml:space="preserve"> (F378 *(13 - 1) + E371) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.83806522036627</v>
       </c>
       <c r="G379" s="11">
-        <f xml:space="preserve"> (G378 *(8-1) + E374) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.34262715166994</v>
       </c>
       <c r="H379" s="11">
-        <f xml:space="preserve"> (H378 *(5-1) + E376) / 5</f>
+        <f t="shared" si="15"/>
         <v>265.05468148183223</v>
       </c>
       <c r="J379" s="2">
@@ -16964,15 +16966,15 @@
         <v>264.27</v>
       </c>
       <c r="F380" s="8">
-        <f xml:space="preserve"> (F379 *(13 - 1) + E372) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.94667558803042</v>
       </c>
       <c r="G380" s="11">
-        <f xml:space="preserve"> (G379 *(8-1) + E375) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.0166737577112</v>
       </c>
       <c r="H380" s="11">
-        <f xml:space="preserve"> (H379 *(5-1) + E377) / 5</f>
+        <f t="shared" si="15"/>
         <v>264.96174518546576</v>
       </c>
       <c r="J380" s="2">
@@ -17006,15 +17008,15 @@
         <v>266.40999999999997</v>
       </c>
       <c r="F381" s="8">
-        <f xml:space="preserve"> (F380 *(13 - 1) + E373) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.76423900433576</v>
       </c>
       <c r="G381" s="11">
-        <f xml:space="preserve"> (G380 *(8-1) + E376) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.56146453799727</v>
       </c>
       <c r="H381" s="11">
-        <f xml:space="preserve"> (H380 *(5-1) + E378) / 5</f>
+        <f t="shared" si="15"/>
         <v>264.54539614837256</v>
       </c>
       <c r="J381" s="2">
@@ -17048,15 +17050,15 @@
         <v>269.27999999999997</v>
       </c>
       <c r="F382" s="8">
-        <f xml:space="preserve"> (F381 *(13 - 1) + E374) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.61929754246381</v>
       </c>
       <c r="G382" s="11">
-        <f xml:space="preserve"> (G381 *(8-1) + E377) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.44003147074761</v>
       </c>
       <c r="H382" s="11">
-        <f xml:space="preserve"> (H381 *(5-1) + E379) / 5</f>
+        <f t="shared" si="15"/>
         <v>264.418316918698</v>
       </c>
       <c r="J382" s="2">
@@ -17090,15 +17092,15 @@
         <v>270.56</v>
       </c>
       <c r="F383" s="8">
-        <f xml:space="preserve"> (F382 *(13 - 1) + E375) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.47435157765892</v>
       </c>
       <c r="G383" s="11">
-        <f xml:space="preserve"> (G382 *(8-1) + E378) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.12002753690416</v>
       </c>
       <c r="H383" s="11">
-        <f xml:space="preserve"> (H382 *(5-1) + E380) / 5</f>
+        <f t="shared" si="15"/>
         <v>264.38865353495839</v>
       </c>
       <c r="J383" s="2">
@@ -17132,15 +17134,15 @@
         <v>269.33</v>
       </c>
       <c r="F384" s="8">
-        <f xml:space="preserve"> (F383 *(13 - 1) + E376) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.235939917839</v>
       </c>
       <c r="G384" s="11">
-        <f xml:space="preserve"> (G383 *(8-1) + E379) / 8</f>
+        <f t="shared" si="16"/>
         <v>264.96877409479112</v>
       </c>
       <c r="H384" s="11">
-        <f xml:space="preserve"> (H383 *(5-1) + E381) / 5</f>
+        <f t="shared" si="15"/>
         <v>264.79292282796666</v>
       </c>
       <c r="J384" s="2">
@@ -17174,15 +17176,15 @@
         <v>270.52999999999997</v>
       </c>
       <c r="F385" s="8">
-        <f xml:space="preserve"> (F384 *(13 - 1) + E377) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.18625223185143</v>
       </c>
       <c r="G385" s="11">
-        <f xml:space="preserve"> (G384 *(8-1) + E380) / 8</f>
+        <f t="shared" si="16"/>
         <v>264.88142733294222</v>
       </c>
       <c r="H385" s="11">
-        <f xml:space="preserve"> (H384 *(5-1) + E382) / 5</f>
+        <f t="shared" si="15"/>
         <v>265.6903382623733</v>
       </c>
       <c r="J385" s="2">
@@ -17216,15 +17218,15 @@
         <v>271.28499999999997</v>
       </c>
       <c r="F386" s="8">
-        <f xml:space="preserve"> (F385 *(13 - 1) + E378) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.00884821401672</v>
       </c>
       <c r="G386" s="11">
-        <f xml:space="preserve"> (G385 *(8-1) + E381) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.07249891632443</v>
       </c>
       <c r="H386" s="11">
-        <f xml:space="preserve"> (H385 *(5-1) + E383) / 5</f>
+        <f t="shared" si="15"/>
         <v>266.66427060989861</v>
       </c>
       <c r="J386" s="2">
@@ -17258,15 +17260,15 @@
         <v>271.30999999999995</v>
       </c>
       <c r="F387" s="8">
-        <f xml:space="preserve"> (F386 *(13 - 1) + E379) / 13</f>
+        <f t="shared" si="17"/>
         <v>264.92432142832308</v>
       </c>
       <c r="G387" s="11">
-        <f xml:space="preserve"> (G386 *(8-1) + E382) / 8</f>
+        <f t="shared" si="16"/>
         <v>265.59843655178383</v>
       </c>
       <c r="H387" s="11">
-        <f xml:space="preserve"> (H386 *(5-1) + E384) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.19741648791887</v>
       </c>
       <c r="J387" s="2">
@@ -17300,15 +17302,15 @@
         <v>271.64</v>
       </c>
       <c r="F388" s="8">
-        <f xml:space="preserve"> (F387 *(13 - 1) + E380) / 13</f>
+        <f t="shared" si="17"/>
         <v>264.87398901075977</v>
       </c>
       <c r="G388" s="11">
-        <f xml:space="preserve"> (G387 *(8-1) + E383) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.21863198281085</v>
       </c>
       <c r="H388" s="11">
-        <f xml:space="preserve"> (H387 *(5-1) + E385) / 5</f>
+        <f t="shared" si="15"/>
         <v>267.8639331903351</v>
       </c>
       <c r="J388" s="2">
@@ -17342,15 +17344,15 @@
         <v>272.57499999999999</v>
       </c>
       <c r="F389" s="8">
-        <f xml:space="preserve"> (F388 *(13 - 1) + E381) / 13</f>
+        <f t="shared" si="17"/>
         <v>264.99214370223979</v>
       </c>
       <c r="G389" s="11">
-        <f xml:space="preserve"> (G388 *(8-1) + E384) / 8</f>
+        <f t="shared" si="16"/>
         <v>266.60755298495951</v>
       </c>
       <c r="H389" s="11">
-        <f xml:space="preserve"> (H388 *(5-1) + E386) / 5</f>
+        <f t="shared" si="15"/>
         <v>268.54814655226812</v>
       </c>
       <c r="J389" s="2">
@@ -17384,15 +17386,15 @@
         <v>272.07</v>
       </c>
       <c r="F390" s="8">
-        <f xml:space="preserve"> (F389 *(13 - 1) + E382) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.32197880206752</v>
       </c>
       <c r="G390" s="11">
-        <f xml:space="preserve"> (G389 *(8-1) + E385) / 8</f>
+        <f t="shared" si="16"/>
         <v>267.09785886183954</v>
       </c>
       <c r="H390" s="11">
-        <f xml:space="preserve"> (H389 *(5-1) + E387) / 5</f>
+        <f t="shared" si="15"/>
         <v>269.10051724181449</v>
       </c>
       <c r="J390" s="2">
@@ -17426,15 +17428,15 @@
         <v>271.96000000000004</v>
       </c>
       <c r="F391" s="8">
-        <f xml:space="preserve"> (F390 *(13 - 1) + E383) / 13</f>
+        <f t="shared" si="17"/>
         <v>265.72490350960078</v>
       </c>
       <c r="G391" s="11">
-        <f xml:space="preserve"> (G390 *(8-1) + E386) / 8</f>
+        <f t="shared" si="16"/>
         <v>267.62125150410958</v>
       </c>
       <c r="H391" s="11">
-        <f xml:space="preserve"> (H390 *(5-1) + E388) / 5</f>
+        <f t="shared" si="15"/>
         <v>269.60841379345158</v>
       </c>
       <c r="J391" s="2">
@@ -17468,15 +17470,15 @@
         <v>271.72500000000002</v>
       </c>
       <c r="F392" s="8">
-        <f xml:space="preserve"> (F391 *(13 - 1) + E384) / 13</f>
+        <f t="shared" si="17"/>
         <v>266.00221862424684</v>
       </c>
       <c r="G392" s="11">
-        <f xml:space="preserve"> (G391 *(8-1) + E387) / 8</f>
+        <f t="shared" si="16"/>
         <v>268.08234506609585</v>
       </c>
       <c r="H392" s="11">
-        <f xml:space="preserve"> (H391 *(5-1) + E389) / 5</f>
+        <f t="shared" si="15"/>
         <v>270.20173103476128</v>
       </c>
       <c r="J392" s="2">
@@ -17510,15 +17512,15 @@
         <v>273.52</v>
       </c>
       <c r="F393" s="8">
-        <f xml:space="preserve"> (F392 *(13 - 1) + E385) / 13</f>
+        <f t="shared" si="17"/>
         <v>266.35050949930479</v>
       </c>
       <c r="G393" s="11">
-        <f xml:space="preserve"> (G392 *(8-1) + E388) / 8</f>
+        <f t="shared" si="16"/>
         <v>268.52705193283384</v>
       </c>
       <c r="H393" s="11">
-        <f xml:space="preserve"> (H392 *(5-1) + E390) / 5</f>
+        <f t="shared" si="15"/>
         <v>270.57538482780899</v>
       </c>
       <c r="J393" s="2">
@@ -17552,15 +17554,15 @@
         <v>274.71500000000003</v>
       </c>
       <c r="F394" s="8">
-        <f xml:space="preserve"> (F393 *(13 - 1) + E386) / 13</f>
+        <f t="shared" si="17"/>
         <v>266.73008569166598</v>
       </c>
       <c r="G394" s="11">
-        <f xml:space="preserve"> (G393 *(8-1) + E389) / 8</f>
+        <f t="shared" si="16"/>
         <v>269.0330454412296</v>
       </c>
       <c r="H394" s="11">
-        <f xml:space="preserve"> (H393 *(5-1) + E391) / 5</f>
+        <f t="shared" ref="H394:H457" si="18" xml:space="preserve"> (H393 *(5-1) + E391) / 5</f>
         <v>270.85230786224719</v>
       </c>
       <c r="J394" s="2">
@@ -17594,15 +17596,15 @@
         <v>275.46500000000003</v>
       </c>
       <c r="F395" s="8">
-        <f xml:space="preserve"> (F394 *(13 - 1) + E387) / 13</f>
+        <f t="shared" si="17"/>
         <v>267.08238679230703</v>
       </c>
       <c r="G395" s="11">
-        <f xml:space="preserve"> (G394 *(8-1) + E390) / 8</f>
+        <f t="shared" si="16"/>
         <v>269.41266476107592</v>
       </c>
       <c r="H395" s="11">
-        <f xml:space="preserve"> (H394 *(5-1) + E392) / 5</f>
+        <f t="shared" si="18"/>
         <v>271.02684628979779</v>
       </c>
       <c r="J395" s="2">
@@ -17636,15 +17638,15 @@
         <v>274.01</v>
       </c>
       <c r="F396" s="8">
-        <f xml:space="preserve"> (F395 *(13 - 1) + E388) / 13</f>
+        <f t="shared" si="17"/>
         <v>267.43297242366805</v>
       </c>
       <c r="G396" s="11">
-        <f xml:space="preserve"> (G395 *(8-1) + E391) / 8</f>
+        <f t="shared" si="16"/>
         <v>269.73108166594142</v>
       </c>
       <c r="H396" s="11">
-        <f xml:space="preserve"> (H395 *(5-1) + E393) / 5</f>
+        <f t="shared" si="18"/>
         <v>271.52547703183825</v>
       </c>
       <c r="J396" s="2">
@@ -17678,15 +17680,15 @@
         <v>272.48</v>
       </c>
       <c r="F397" s="8">
-        <f xml:space="preserve"> (F396 *(13 - 1) + E389) / 13</f>
+        <f t="shared" si="17"/>
         <v>267.8285130064628</v>
       </c>
       <c r="G397" s="11">
-        <f xml:space="preserve"> (G396 *(8-1) + E392) / 8</f>
+        <f t="shared" si="16"/>
         <v>269.98032145769872</v>
       </c>
       <c r="H397" s="11">
-        <f xml:space="preserve"> (H396 *(5-1) + E394) / 5</f>
+        <f t="shared" si="18"/>
         <v>272.16338162547061</v>
       </c>
       <c r="J397" s="2">
@@ -17720,15 +17722,15 @@
         <v>273.13499999999999</v>
       </c>
       <c r="F398" s="8">
-        <f xml:space="preserve"> (F397 *(13 - 1) + E390) / 13</f>
+        <f t="shared" si="17"/>
         <v>268.15478123673489</v>
       </c>
       <c r="G398" s="11">
-        <f xml:space="preserve"> (G397 *(8-1) + E393) / 8</f>
+        <f t="shared" si="16"/>
         <v>270.42278127548639</v>
       </c>
       <c r="H398" s="11">
-        <f xml:space="preserve"> (H397 *(5-1) + E395) / 5</f>
+        <f t="shared" si="18"/>
         <v>272.8237053003765</v>
       </c>
       <c r="J398" s="2">
@@ -17762,15 +17764,15 @@
         <v>273.07000000000005</v>
       </c>
       <c r="F399" s="8">
-        <f xml:space="preserve"> (F398 *(13 - 1) + E391) / 13</f>
+        <f t="shared" si="17"/>
         <v>268.44749037237068</v>
       </c>
       <c r="G399" s="11">
-        <f xml:space="preserve"> (G398 *(8-1) + E394) / 8</f>
+        <f t="shared" ref="G399:G462" si="19" xml:space="preserve"> (G398 *(8-1) + E394) / 8</f>
         <v>270.95930861605058</v>
       </c>
       <c r="H399" s="11">
-        <f xml:space="preserve"> (H398 *(5-1) + E396) / 5</f>
+        <f t="shared" si="18"/>
         <v>273.06096424030119</v>
       </c>
       <c r="J399" s="2">
@@ -17804,15 +17806,15 @@
         <v>272.815</v>
       </c>
       <c r="F400" s="8">
-        <f xml:space="preserve"> (F399 *(13 - 1) + E392) / 13</f>
+        <f t="shared" si="17"/>
         <v>268.69960649757292</v>
       </c>
       <c r="G400" s="11">
-        <f xml:space="preserve"> (G399 *(8-1) + E395) / 8</f>
+        <f t="shared" si="19"/>
         <v>271.52252003904425</v>
       </c>
       <c r="H400" s="11">
-        <f xml:space="preserve"> (H399 *(5-1) + E397) / 5</f>
+        <f t="shared" si="18"/>
         <v>272.94477139224097</v>
       </c>
       <c r="J400" s="2">
@@ -17846,15 +17848,15 @@
         <v>274.875</v>
       </c>
       <c r="F401" s="8">
-        <f xml:space="preserve"> (F400 *(13 - 1) + E393) / 13</f>
+        <f t="shared" si="17"/>
         <v>269.07040599775962</v>
       </c>
       <c r="G401" s="11">
-        <f xml:space="preserve"> (G400 *(8-1) + E396) / 8</f>
+        <f t="shared" si="19"/>
         <v>271.83345503416376</v>
       </c>
       <c r="H401" s="11">
-        <f xml:space="preserve"> (H400 *(5-1) + E398) / 5</f>
+        <f t="shared" si="18"/>
         <v>272.98281711379275</v>
       </c>
       <c r="J401" s="2">
@@ -17888,15 +17890,15 @@
         <v>275.95</v>
       </c>
       <c r="F402" s="8">
-        <f xml:space="preserve"> (F401 *(13 - 1) + E394) / 13</f>
+        <f t="shared" si="17"/>
         <v>269.50460553639351</v>
       </c>
       <c r="G402" s="11">
-        <f xml:space="preserve"> (G401 *(8-1) + E397) / 8</f>
+        <f t="shared" si="19"/>
         <v>271.91427315489329</v>
       </c>
       <c r="H402" s="11">
-        <f xml:space="preserve"> (H401 *(5-1) + E399) / 5</f>
+        <f t="shared" si="18"/>
         <v>273.00025369103423</v>
       </c>
       <c r="J402" s="2">
@@ -17930,15 +17932,15 @@
         <v>277.435</v>
       </c>
       <c r="F403" s="8">
-        <f xml:space="preserve"> (F402 *(13 - 1) + E395) / 13</f>
+        <f t="shared" si="17"/>
         <v>269.96309741820943</v>
       </c>
       <c r="G403" s="11">
-        <f xml:space="preserve"> (G402 *(8-1) + E398) / 8</f>
+        <f t="shared" si="19"/>
         <v>272.06686401053162</v>
       </c>
       <c r="H403" s="11">
-        <f xml:space="preserve"> (H402 *(5-1) + E400) / 5</f>
+        <f t="shared" si="18"/>
         <v>272.96320295282737</v>
       </c>
       <c r="J403" s="2">
@@ -17972,15 +17974,15 @@
         <v>277.24</v>
       </c>
       <c r="F404" s="8">
-        <f xml:space="preserve"> (F403 *(13 - 1) + E396) / 13</f>
+        <f t="shared" si="17"/>
         <v>270.27439761680876</v>
       </c>
       <c r="G404" s="11">
-        <f xml:space="preserve"> (G403 *(8-1) + E399) / 8</f>
+        <f t="shared" si="19"/>
         <v>272.19225600921516</v>
       </c>
       <c r="H404" s="11">
-        <f xml:space="preserve"> (H403 *(5-1) + E401) / 5</f>
+        <f t="shared" si="18"/>
         <v>273.34556236226189</v>
       </c>
       <c r="J404" s="2">
@@ -18014,15 +18016,15 @@
         <v>277.255</v>
       </c>
       <c r="F405" s="8">
-        <f xml:space="preserve"> (F404 *(13 - 1) + E397) / 13</f>
+        <f t="shared" si="17"/>
         <v>270.44405933859269</v>
       </c>
       <c r="G405" s="11">
-        <f xml:space="preserve"> (G404 *(8-1) + E400) / 8</f>
+        <f t="shared" si="19"/>
         <v>272.27009900806326</v>
       </c>
       <c r="H405" s="11">
-        <f xml:space="preserve"> (H404 *(5-1) + E402) / 5</f>
+        <f t="shared" si="18"/>
         <v>273.86644988980953</v>
       </c>
       <c r="J405" s="2">
@@ -18056,15 +18058,15 @@
         <v>275.08500000000004</v>
       </c>
       <c r="F406" s="8">
-        <f xml:space="preserve"> (F405 *(13 - 1) + E398) / 13</f>
+        <f t="shared" si="17"/>
         <v>270.65105477408554</v>
       </c>
       <c r="G406" s="11">
-        <f xml:space="preserve"> (G405 *(8-1) + E401) / 8</f>
+        <f t="shared" si="19"/>
         <v>272.59571163205533</v>
       </c>
       <c r="H406" s="11">
-        <f xml:space="preserve"> (H405 *(5-1) + E403) / 5</f>
+        <f t="shared" si="18"/>
         <v>274.5801599118476</v>
       </c>
       <c r="J406" s="2">
@@ -18098,15 +18100,15 @@
         <v>274.85000000000002</v>
       </c>
       <c r="F407" s="8">
-        <f xml:space="preserve"> (F406 *(13 - 1) + E399) / 13</f>
+        <f t="shared" ref="F407:F470" si="20" xml:space="preserve"> (F406 *(13 - 1) + E399) / 13</f>
         <v>270.83712748377127</v>
       </c>
       <c r="G407" s="11">
-        <f xml:space="preserve"> (G406 *(8-1) + E402) / 8</f>
+        <f t="shared" si="19"/>
         <v>273.01499767804842</v>
       </c>
       <c r="H407" s="11">
-        <f xml:space="preserve"> (H406 *(5-1) + E404) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.11212792947811</v>
       </c>
       <c r="J407" s="2">
@@ -18140,15 +18142,15 @@
         <v>275.2</v>
       </c>
       <c r="F408" s="8">
-        <f xml:space="preserve"> (F407 *(13 - 1) + E400) / 13</f>
+        <f t="shared" si="20"/>
         <v>270.98927152348119</v>
       </c>
       <c r="G408" s="11">
-        <f xml:space="preserve"> (G407 *(8-1) + E403) / 8</f>
+        <f t="shared" si="19"/>
         <v>273.56749796829234</v>
       </c>
       <c r="H408" s="11">
-        <f xml:space="preserve"> (H407 *(5-1) + E405) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.5407023435825</v>
       </c>
       <c r="J408" s="2">
@@ -18182,15 +18184,15 @@
         <v>273.28499999999997</v>
       </c>
       <c r="F409" s="8">
-        <f xml:space="preserve"> (F408 *(13 - 1) + E401) / 13</f>
+        <f t="shared" si="20"/>
         <v>271.28817371398264</v>
       </c>
       <c r="G409" s="11">
-        <f xml:space="preserve"> (G408 *(8-1) + E404) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.02656072225579</v>
       </c>
       <c r="H409" s="11">
-        <f xml:space="preserve"> (H408 *(5-1) + E406) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.44956187486599</v>
       </c>
       <c r="J409" s="2">
@@ -18224,15 +18226,15 @@
         <v>276.05</v>
       </c>
       <c r="F410" s="8">
-        <f xml:space="preserve"> (F409 *(13 - 1) + E402) / 13</f>
+        <f t="shared" si="20"/>
         <v>271.64677573598397</v>
       </c>
       <c r="G410" s="11">
-        <f xml:space="preserve"> (G409 *(8-1) + E405) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.43011563197382</v>
       </c>
       <c r="H410" s="11">
-        <f xml:space="preserve"> (H409 *(5-1) + E407) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.32964949989281</v>
       </c>
       <c r="J410" s="2">
@@ -18266,15 +18268,15 @@
         <v>276.30500000000001</v>
       </c>
       <c r="F411" s="8">
-        <f xml:space="preserve"> (F410 *(13 - 1) + E403) / 13</f>
+        <f t="shared" si="20"/>
         <v>272.09202375629286</v>
       </c>
       <c r="G411" s="11">
-        <f xml:space="preserve"> (G410 *(8-1) + E406) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.51197617797709</v>
       </c>
       <c r="H411" s="11">
-        <f xml:space="preserve"> (H410 *(5-1) + E408) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.30371959991425</v>
       </c>
       <c r="J411" s="2">
@@ -18308,15 +18310,15 @@
         <v>277.33</v>
       </c>
       <c r="F412" s="8">
-        <f xml:space="preserve"> (F411 *(13 - 1) + E404) / 13</f>
+        <f t="shared" si="20"/>
         <v>272.48802192888576</v>
       </c>
       <c r="G412" s="11">
-        <f xml:space="preserve"> (G411 *(8-1) + E407) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.55422915572996</v>
       </c>
       <c r="H412" s="11">
-        <f xml:space="preserve"> (H411 *(5-1) + E409) / 5</f>
+        <f t="shared" si="18"/>
         <v>274.8999756799314</v>
       </c>
       <c r="J412" s="2">
@@ -18350,15 +18352,15 @@
         <v>278.29499999999996</v>
       </c>
       <c r="F413" s="8">
-        <f xml:space="preserve"> (F412 *(13 - 1) + E405) / 13</f>
+        <f t="shared" si="20"/>
         <v>272.85471254974073</v>
       </c>
       <c r="G413" s="11">
-        <f xml:space="preserve"> (G412 *(8-1) + E408) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.6349505112637</v>
       </c>
       <c r="H413" s="11">
-        <f xml:space="preserve"> (H412 *(5-1) + E410) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.12998054394512</v>
       </c>
       <c r="J413" s="2">
@@ -18392,15 +18394,15 @@
         <v>277.96500000000003</v>
       </c>
       <c r="F414" s="8">
-        <f xml:space="preserve"> (F413 *(13 - 1) + E406) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.02627312283761</v>
       </c>
       <c r="G414" s="11">
-        <f xml:space="preserve"> (G413 *(8-1) + E409) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.46620669735574</v>
       </c>
       <c r="H414" s="11">
-        <f xml:space="preserve"> (H413 *(5-1) + E411) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.36498443515609</v>
       </c>
       <c r="J414" s="2">
@@ -18434,15 +18436,15 @@
         <v>277.97500000000002</v>
       </c>
       <c r="F415" s="8">
-        <f xml:space="preserve"> (F414 *(13 - 1) + E407) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.16655980569624</v>
       </c>
       <c r="G415" s="11">
-        <f xml:space="preserve"> (G414 *(8-1) + E410) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.66418086018626</v>
       </c>
       <c r="H415" s="11">
-        <f xml:space="preserve"> (H414 *(5-1) + E412) / 5</f>
+        <f t="shared" si="18"/>
         <v>275.75798754812485</v>
       </c>
       <c r="J415" s="2">
@@ -18476,15 +18478,15 @@
         <v>278.79500000000002</v>
       </c>
       <c r="F416" s="8">
-        <f xml:space="preserve"> (F415 *(13 - 1) + E408) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.32297828218111</v>
       </c>
       <c r="G416" s="11">
-        <f xml:space="preserve"> (G415 *(8-1) + E411) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.86928325266297</v>
       </c>
       <c r="H416" s="11">
-        <f xml:space="preserve"> (H415 *(5-1) + E413) / 5</f>
+        <f t="shared" si="18"/>
         <v>276.26539003849985</v>
       </c>
       <c r="J416" s="2">
@@ -18518,15 +18520,15 @@
         <v>280.995</v>
       </c>
       <c r="F417" s="8">
-        <f xml:space="preserve"> (F416 *(13 - 1) + E409) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.32005687585945</v>
       </c>
       <c r="G417" s="11">
-        <f xml:space="preserve"> (G416 *(8-1) + E412) / 8</f>
+        <f t="shared" si="19"/>
         <v>275.17687284608007</v>
       </c>
       <c r="H417" s="11">
-        <f xml:space="preserve"> (H416 *(5-1) + E414) / 5</f>
+        <f t="shared" si="18"/>
         <v>276.60531203079989</v>
       </c>
       <c r="J417" s="2">
@@ -18560,15 +18562,15 @@
         <v>281.59500000000003</v>
       </c>
       <c r="F418" s="8">
-        <f xml:space="preserve"> (F417 *(13 - 1) + E410) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.53005250079337</v>
       </c>
       <c r="G418" s="11">
-        <f xml:space="preserve"> (G417 *(8-1) + E413) / 8</f>
+        <f t="shared" si="19"/>
         <v>275.56663874032006</v>
       </c>
       <c r="H418" s="11">
-        <f xml:space="preserve"> (H417 *(5-1) + E415) / 5</f>
+        <f t="shared" si="18"/>
         <v>276.87924962463995</v>
       </c>
       <c r="J418" s="2">
@@ -18602,15 +18604,15 @@
         <v>282.47000000000003</v>
       </c>
       <c r="F419" s="8">
-        <f xml:space="preserve"> (F418 *(13 - 1) + E411) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.74351000073233</v>
       </c>
       <c r="G419" s="11">
-        <f xml:space="preserve"> (G418 *(8-1) + E414) / 8</f>
+        <f t="shared" si="19"/>
         <v>275.86643389778004</v>
       </c>
       <c r="H419" s="11">
-        <f xml:space="preserve"> (H418 *(5-1) + E416) / 5</f>
+        <f t="shared" si="18"/>
         <v>277.26239969971198</v>
       </c>
       <c r="J419" s="2">
@@ -18644,15 +18646,15 @@
         <v>282.15999999999997</v>
       </c>
       <c r="F420" s="8">
-        <f xml:space="preserve"> (F419 *(13 - 1) + E412) / 13</f>
+        <f t="shared" si="20"/>
         <v>274.01939384682981</v>
       </c>
       <c r="G420" s="11">
-        <f xml:space="preserve"> (G419 *(8-1) + E415) / 8</f>
+        <f t="shared" si="19"/>
         <v>276.13000466055752</v>
       </c>
       <c r="H420" s="11">
-        <f xml:space="preserve"> (H419 *(5-1) + E417) / 5</f>
+        <f t="shared" si="18"/>
         <v>278.00891975976958</v>
       </c>
       <c r="J420" s="2">
@@ -18686,15 +18688,15 @@
         <v>281.73</v>
       </c>
       <c r="F421" s="8">
-        <f xml:space="preserve"> (F420 *(13 - 1) + E413) / 13</f>
+        <f t="shared" si="20"/>
         <v>274.34828662784287</v>
       </c>
       <c r="G421" s="11">
-        <f xml:space="preserve"> (G420 *(8-1) + E416) / 8</f>
+        <f t="shared" si="19"/>
         <v>276.46312907798784</v>
       </c>
       <c r="H421" s="11">
-        <f xml:space="preserve"> (H420 *(5-1) + E418) / 5</f>
+        <f t="shared" si="18"/>
         <v>278.72613580781569</v>
       </c>
       <c r="J421" s="2">
@@ -18728,15 +18730,15 @@
         <v>281.14499999999998</v>
       </c>
       <c r="F422" s="8">
-        <f xml:space="preserve"> (F421 *(13 - 1) + E414) / 13</f>
+        <f t="shared" si="20"/>
         <v>274.62649534877806</v>
       </c>
       <c r="G422" s="11">
-        <f xml:space="preserve"> (G421 *(8-1) + E417) / 8</f>
+        <f t="shared" si="19"/>
         <v>277.02961294323939</v>
       </c>
       <c r="H422" s="11">
-        <f xml:space="preserve"> (H421 *(5-1) + E419) / 5</f>
+        <f t="shared" si="18"/>
         <v>279.47490864625257</v>
       </c>
       <c r="J422" s="2">
@@ -18770,15 +18772,15 @@
         <v>280.48</v>
       </c>
       <c r="F423" s="8">
-        <f xml:space="preserve"> (F422 *(13 - 1) + E415) / 13</f>
+        <f t="shared" si="20"/>
         <v>274.88407262964131</v>
       </c>
       <c r="G423" s="11">
-        <f xml:space="preserve"> (G422 *(8-1) + E418) / 8</f>
+        <f t="shared" si="19"/>
         <v>277.60028632533442</v>
       </c>
       <c r="H423" s="11">
-        <f xml:space="preserve"> (H422 *(5-1) + E420) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.01192691700209</v>
       </c>
       <c r="J423" s="2">
@@ -18812,15 +18814,15 @@
         <v>279.98</v>
       </c>
       <c r="F424" s="8">
-        <f xml:space="preserve"> (F423 *(13 - 1) + E416) / 13</f>
+        <f t="shared" si="20"/>
         <v>275.18491319659199</v>
       </c>
       <c r="G424" s="11">
-        <f xml:space="preserve"> (G423 *(8-1) + E419) / 8</f>
+        <f t="shared" si="19"/>
         <v>278.20900053466767</v>
       </c>
       <c r="H424" s="11">
-        <f xml:space="preserve"> (H423 *(5-1) + E421) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.35554153360169</v>
       </c>
       <c r="J424" s="2">
@@ -18854,15 +18856,15 @@
         <v>279.45500000000004</v>
       </c>
       <c r="F425" s="8">
-        <f xml:space="preserve"> (F424 *(13 - 1) + E417) / 13</f>
+        <f t="shared" si="20"/>
         <v>275.63184295070027</v>
       </c>
       <c r="G425" s="11">
-        <f xml:space="preserve"> (G424 *(8-1) + E420) / 8</f>
+        <f t="shared" si="19"/>
         <v>278.70287546783419</v>
       </c>
       <c r="H425" s="11">
-        <f xml:space="preserve"> (H424 *(5-1) + E422) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.51343322688138</v>
       </c>
       <c r="J425" s="2">
@@ -18896,15 +18898,15 @@
         <v>280.185</v>
       </c>
       <c r="F426" s="8">
-        <f xml:space="preserve"> (F425 *(13 - 1) + E418) / 13</f>
+        <f t="shared" si="20"/>
         <v>276.09054733910796</v>
       </c>
       <c r="G426" s="11">
-        <f xml:space="preserve"> (G425 *(8-1) + E421) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.08126603435494</v>
       </c>
       <c r="H426" s="11">
-        <f xml:space="preserve"> (H425 *(5-1) + E423) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.50674658150513</v>
       </c>
       <c r="J426" s="2">
@@ -18938,15 +18940,15 @@
         <v>280</v>
       </c>
       <c r="F427" s="8">
-        <f xml:space="preserve"> (F426 *(13 - 1) + E419) / 13</f>
+        <f t="shared" si="20"/>
         <v>276.58127446686888</v>
       </c>
       <c r="G427" s="11">
-        <f xml:space="preserve"> (G426 *(8-1) + E422) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.33923278006057</v>
       </c>
       <c r="H427" s="11">
-        <f xml:space="preserve"> (H426 *(5-1) + E424) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.40139726520408</v>
       </c>
       <c r="J427" s="2">
@@ -18980,15 +18982,15 @@
         <v>280.72500000000002</v>
       </c>
       <c r="F428" s="8">
-        <f xml:space="preserve"> (F427 *(13 - 1) + E420) / 13</f>
+        <f t="shared" si="20"/>
         <v>277.01040720018665</v>
       </c>
       <c r="G428" s="11">
-        <f xml:space="preserve"> (G427 *(8-1) + E423) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.48182868255299</v>
       </c>
       <c r="H428" s="11">
-        <f xml:space="preserve"> (H427 *(5-1) + E425) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.21211781216323</v>
       </c>
       <c r="J428" s="2">
@@ -19022,15 +19024,15 @@
         <v>282.185</v>
       </c>
       <c r="F429" s="8">
-        <f xml:space="preserve"> (F428 *(13 - 1) + E421) / 13</f>
+        <f t="shared" si="20"/>
         <v>277.37345280017229</v>
       </c>
       <c r="G429" s="11">
-        <f xml:space="preserve"> (G428 *(8-1) + E424) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.54410009723387</v>
       </c>
       <c r="H429" s="11">
-        <f xml:space="preserve"> (H428 *(5-1) + E426) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.20669424973056</v>
       </c>
       <c r="J429" s="2">
@@ -19064,15 +19066,15 @@
         <v>282.3</v>
       </c>
       <c r="F430" s="8">
-        <f xml:space="preserve"> (F429 *(13 - 1) + E422) / 13</f>
+        <f t="shared" si="20"/>
         <v>277.66357181554361</v>
       </c>
       <c r="G430" s="11">
-        <f xml:space="preserve"> (G429 *(8-1) + E425) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.53296258507964</v>
       </c>
       <c r="H430" s="11">
-        <f xml:space="preserve"> (H429 *(5-1) + E427) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.16535539978446</v>
       </c>
       <c r="J430" s="2">
@@ -19106,15 +19108,15 @@
         <v>281.63</v>
       </c>
       <c r="F431" s="8">
-        <f xml:space="preserve"> (F430 *(13 - 1) + E423) / 13</f>
+        <f t="shared" si="20"/>
         <v>277.88022013742489</v>
       </c>
       <c r="G431" s="11">
-        <f xml:space="preserve"> (G430 *(8-1) + E426) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.6144672619447</v>
       </c>
       <c r="H431" s="11">
-        <f xml:space="preserve"> (H430 *(5-1) + E428) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.27728431982757</v>
       </c>
       <c r="J431" s="2">
@@ -19148,15 +19150,15 @@
         <v>282.23500000000001</v>
       </c>
       <c r="F432" s="8">
-        <f xml:space="preserve"> (F431 *(13 - 1) + E424) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.04174166531527</v>
       </c>
       <c r="G432" s="11">
-        <f xml:space="preserve"> (G431 *(8-1) + E427) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.6626588542016</v>
       </c>
       <c r="H432" s="11">
-        <f xml:space="preserve"> (H431 *(5-1) + E429) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.65882745586202</v>
       </c>
       <c r="J432" s="2">
@@ -19190,15 +19192,15 @@
         <v>282.90499999999997</v>
       </c>
       <c r="F433" s="8">
-        <f xml:space="preserve"> (F432 *(13 - 1) + E425) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.15045384490639</v>
       </c>
       <c r="G433" s="11">
-        <f xml:space="preserve"> (G432 *(8-1) + E428) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.79545149742637</v>
       </c>
       <c r="H433" s="11">
-        <f xml:space="preserve"> (H432 *(5-1) + E430) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.98706196468959</v>
       </c>
       <c r="J433" s="2">
@@ -19232,15 +19234,15 @@
         <v>284.19499999999999</v>
       </c>
       <c r="F434" s="8">
-        <f xml:space="preserve"> (F433 *(13 - 1) + E426) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.30695739529818</v>
       </c>
       <c r="G434" s="11">
-        <f xml:space="preserve"> (G433 *(8-1) + E429) / 8</f>
+        <f t="shared" si="19"/>
         <v>280.09414506024808</v>
       </c>
       <c r="H434" s="11">
-        <f xml:space="preserve"> (H433 *(5-1) + E431) / 5</f>
+        <f t="shared" si="18"/>
         <v>281.1156495717517</v>
       </c>
       <c r="J434" s="2">
@@ -19274,15 +19276,15 @@
         <v>285.41000000000003</v>
       </c>
       <c r="F435" s="8">
-        <f xml:space="preserve"> (F434 *(13 - 1) + E427) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.4371914418137</v>
       </c>
       <c r="G435" s="11">
-        <f xml:space="preserve"> (G434 *(8-1) + E430) / 8</f>
+        <f t="shared" si="19"/>
         <v>280.36987692771709</v>
       </c>
       <c r="H435" s="11">
-        <f xml:space="preserve"> (H434 *(5-1) + E432) / 5</f>
+        <f t="shared" si="18"/>
         <v>281.33951965740135</v>
       </c>
       <c r="J435" s="2">
@@ -19316,15 +19318,15 @@
         <v>283.87</v>
       </c>
       <c r="F436" s="8">
-        <f xml:space="preserve"> (F435 *(13 - 1) + E428) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.61317671552035</v>
       </c>
       <c r="G436" s="11">
-        <f xml:space="preserve"> (G435 *(8-1) + E431) / 8</f>
+        <f t="shared" si="19"/>
         <v>280.52739231175246</v>
       </c>
       <c r="H436" s="11">
-        <f xml:space="preserve"> (H435 *(5-1) + E433) / 5</f>
+        <f t="shared" si="18"/>
         <v>281.65261572592107</v>
       </c>
       <c r="J436" s="2">
@@ -19358,15 +19360,15 @@
         <v>284</v>
       </c>
       <c r="F437" s="8">
-        <f xml:space="preserve"> (F436 *(13 - 1) + E429) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.88793235278803</v>
       </c>
       <c r="G437" s="11">
-        <f xml:space="preserve"> (G436 *(8-1) + E432) / 8</f>
+        <f t="shared" si="19"/>
         <v>280.74084327278342</v>
       </c>
       <c r="H437" s="11">
-        <f xml:space="preserve"> (H436 *(5-1) + E434) / 5</f>
+        <f t="shared" si="18"/>
         <v>282.16109258073686</v>
       </c>
       <c r="J437" s="2">
@@ -19400,15 +19402,15 @@
         <v>283.76</v>
       </c>
       <c r="F438" s="8">
-        <f xml:space="preserve"> (F437 *(13 - 1) + E430) / 13</f>
+        <f t="shared" si="20"/>
         <v>279.15039909488127</v>
       </c>
       <c r="G438" s="11">
-        <f xml:space="preserve"> (G437 *(8-1) + E433) / 8</f>
+        <f t="shared" si="19"/>
         <v>281.01136286368546</v>
       </c>
       <c r="H438" s="11">
-        <f xml:space="preserve"> (H437 *(5-1) + E435) / 5</f>
+        <f t="shared" si="18"/>
         <v>282.81087406458948</v>
       </c>
       <c r="J438" s="2">
@@ -19442,15 +19444,15 @@
         <v>283.94</v>
       </c>
       <c r="F439" s="8">
-        <f xml:space="preserve"> (F438 *(13 - 1) + E431) / 13</f>
+        <f t="shared" si="20"/>
         <v>279.34113762604426</v>
       </c>
       <c r="G439" s="11">
-        <f xml:space="preserve"> (G438 *(8-1) + E434) / 8</f>
+        <f t="shared" si="19"/>
         <v>281.4093175057248</v>
       </c>
       <c r="H439" s="11">
-        <f xml:space="preserve"> (H438 *(5-1) + E436) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.02269925167155</v>
       </c>
       <c r="J439" s="2">
@@ -19484,15 +19486,15 @@
         <v>283.56</v>
       </c>
       <c r="F440" s="8">
-        <f xml:space="preserve"> (F439 *(13 - 1) + E432) / 13</f>
+        <f t="shared" si="20"/>
         <v>279.56374242404087</v>
       </c>
       <c r="G440" s="11">
-        <f xml:space="preserve"> (G439 *(8-1) + E435) / 8</f>
+        <f t="shared" si="19"/>
         <v>281.9094028175092</v>
       </c>
       <c r="H440" s="11">
-        <f xml:space="preserve"> (H439 *(5-1) + E437) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.21815940133723</v>
       </c>
       <c r="J440" s="2">
@@ -19526,15 +19528,15 @@
         <v>284.86500000000001</v>
       </c>
       <c r="F441" s="8">
-        <f xml:space="preserve"> (F440 *(13 - 1) + E433) / 13</f>
+        <f t="shared" si="20"/>
         <v>279.82076223757616</v>
       </c>
       <c r="G441" s="11">
-        <f xml:space="preserve"> (G440 *(8-1) + E436) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.15447746532055</v>
       </c>
       <c r="H441" s="11">
-        <f xml:space="preserve"> (H440 *(5-1) + E438) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.32652752106981</v>
       </c>
       <c r="J441" s="2">
@@ -19568,15 +19570,15 @@
         <v>284.66499999999996</v>
       </c>
       <c r="F442" s="8">
-        <f xml:space="preserve"> (F441 *(13 - 1) + E434) / 13</f>
+        <f t="shared" si="20"/>
         <v>280.15724206545491</v>
       </c>
       <c r="G442" s="11">
-        <f xml:space="preserve"> (G441 *(8-1) + E437) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.38516778215546</v>
       </c>
       <c r="H442" s="11">
-        <f xml:space="preserve"> (H441 *(5-1) + E439) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.44922201685586</v>
       </c>
       <c r="J442" s="2">
@@ -19610,15 +19612,15 @@
         <v>285.16999999999996</v>
       </c>
       <c r="F443" s="8">
-        <f xml:space="preserve"> (F442 *(13 - 1) + E435) / 13</f>
+        <f t="shared" si="20"/>
         <v>280.5613003681122</v>
       </c>
       <c r="G443" s="11">
-        <f xml:space="preserve"> (G442 *(8-1) + E438) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.55702180938601</v>
       </c>
       <c r="H443" s="11">
-        <f xml:space="preserve"> (H442 *(5-1) + E440) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.47137761348466</v>
       </c>
       <c r="J443" s="2">
@@ -19652,15 +19654,15 @@
         <v>282.42500000000001</v>
       </c>
       <c r="F444" s="8">
-        <f xml:space="preserve"> (F443 *(13 - 1) + E436) / 13</f>
+        <f t="shared" si="20"/>
         <v>280.81581572441127</v>
       </c>
       <c r="G444" s="11">
-        <f xml:space="preserve"> (G443 *(8-1) + E439) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.72989408321274</v>
       </c>
       <c r="H444" s="11">
-        <f xml:space="preserve"> (H443 *(5-1) + E441) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.75010209078772</v>
       </c>
       <c r="J444" s="2">
@@ -19694,15 +19696,15 @@
         <v>281.245</v>
       </c>
       <c r="F445" s="8">
-        <f xml:space="preserve"> (F444 *(13 - 1) + E437) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.0607529763796</v>
       </c>
       <c r="G445" s="11">
-        <f xml:space="preserve"> (G444 *(8-1) + E440) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.83365732281118</v>
       </c>
       <c r="H445" s="11">
-        <f xml:space="preserve"> (H444 *(5-1) + E442) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.93308167263018</v>
       </c>
       <c r="J445" s="2">
@@ -19736,15 +19738,15 @@
         <v>279.89499999999998</v>
       </c>
       <c r="F446" s="8">
-        <f xml:space="preserve"> (F445 *(13 - 1) + E438) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.26838736281195</v>
       </c>
       <c r="G446" s="11">
-        <f xml:space="preserve"> (G445 *(8-1) + E441) / 8</f>
+        <f t="shared" si="19"/>
         <v>283.08757515745981</v>
       </c>
       <c r="H446" s="11">
-        <f xml:space="preserve"> (H445 *(5-1) + E443) / 5</f>
+        <f t="shared" si="18"/>
         <v>284.18046533810411</v>
       </c>
       <c r="J446" s="2">
@@ -19778,15 +19780,15 @@
         <v>280.83000000000004</v>
       </c>
       <c r="F447" s="8">
-        <f xml:space="preserve"> (F446 *(13 - 1) + E439) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.47389602721103</v>
       </c>
       <c r="G447" s="11">
-        <f xml:space="preserve"> (G446 *(8-1) + E442) / 8</f>
+        <f t="shared" si="19"/>
         <v>283.28475326277731</v>
       </c>
       <c r="H447" s="11">
-        <f xml:space="preserve"> (H446 *(5-1) + E444) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.8293722704833</v>
       </c>
       <c r="J447" s="2">
@@ -19820,15 +19822,15 @@
         <v>275.53499999999997</v>
       </c>
       <c r="F448" s="8">
-        <f xml:space="preserve"> (F447 *(13 - 1) + E440) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.63436556357942</v>
       </c>
       <c r="G448" s="11">
-        <f xml:space="preserve"> (G447 *(8-1) + E443) / 8</f>
+        <f t="shared" si="19"/>
         <v>283.52040910493014</v>
       </c>
       <c r="H448" s="11">
-        <f xml:space="preserve"> (H447 *(5-1) + E445) / 5</f>
+        <f t="shared" si="18"/>
         <v>283.31249781638661</v>
       </c>
       <c r="J448" s="2">
@@ -19862,15 +19864,15 @@
         <v>267.96500000000003</v>
       </c>
       <c r="F449" s="8">
-        <f xml:space="preserve"> (F448 *(13 - 1) + E441) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.88287590484254</v>
       </c>
       <c r="G449" s="11">
-        <f xml:space="preserve"> (G448 *(8-1) + E444) / 8</f>
+        <f t="shared" si="19"/>
         <v>283.38348296681386</v>
       </c>
       <c r="H449" s="11">
-        <f xml:space="preserve"> (H448 *(5-1) + E446) / 5</f>
+        <f t="shared" si="18"/>
         <v>282.62899825310927</v>
       </c>
       <c r="J449" s="2">
@@ -19904,15 +19906,15 @@
         <v>268.06</v>
       </c>
       <c r="F450" s="8">
-        <f xml:space="preserve"> (F449 *(13 - 1) + E442) / 13</f>
+        <f t="shared" si="20"/>
         <v>282.09688545062386</v>
       </c>
       <c r="G450" s="11">
-        <f xml:space="preserve"> (G449 *(8-1) + E445) / 8</f>
+        <f t="shared" si="19"/>
         <v>283.1161725959621</v>
       </c>
       <c r="H450" s="11">
-        <f xml:space="preserve"> (H449 *(5-1) + E447) / 5</f>
+        <f t="shared" si="18"/>
         <v>282.26919860248745</v>
       </c>
       <c r="J450" s="2">
@@ -19946,15 +19948,15 @@
         <v>268.97500000000002</v>
       </c>
       <c r="F451" s="8">
-        <f xml:space="preserve"> (F450 *(13 - 1) + E443) / 13</f>
+        <f t="shared" si="20"/>
         <v>282.33327887749897</v>
       </c>
       <c r="G451" s="11">
-        <f xml:space="preserve"> (G450 *(8-1) + E446) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.71352602146681</v>
       </c>
       <c r="H451" s="11">
-        <f xml:space="preserve"> (H450 *(5-1) + E448) / 5</f>
+        <f t="shared" si="18"/>
         <v>280.92235888198991</v>
       </c>
       <c r="J451" s="2">
@@ -19988,15 +19990,15 @@
         <v>271.685</v>
       </c>
       <c r="F452" s="8">
-        <f xml:space="preserve"> (F451 *(13 - 1) + E444) / 13</f>
+        <f t="shared" si="20"/>
         <v>282.3403343484606</v>
       </c>
       <c r="G452" s="11">
-        <f xml:space="preserve"> (G451 *(8-1) + E447) / 8</f>
+        <f t="shared" si="19"/>
         <v>282.47808526878345</v>
       </c>
       <c r="H452" s="11">
-        <f xml:space="preserve"> (H451 *(5-1) + E449) / 5</f>
+        <f t="shared" si="18"/>
         <v>278.33088710559196</v>
       </c>
       <c r="J452" s="2">
@@ -20030,15 +20032,15 @@
         <v>272.57</v>
       </c>
       <c r="F453" s="8">
-        <f xml:space="preserve"> (F452 *(13 - 1) + E445) / 13</f>
+        <f t="shared" si="20"/>
         <v>282.25607786011744</v>
       </c>
       <c r="G453" s="11">
-        <f xml:space="preserve"> (G452 *(8-1) + E448) / 8</f>
+        <f t="shared" si="19"/>
         <v>281.61019961018553</v>
       </c>
       <c r="H453" s="11">
-        <f xml:space="preserve"> (H452 *(5-1) + E450) / 5</f>
+        <f t="shared" si="18"/>
         <v>276.27670968447353</v>
       </c>
       <c r="J453" s="2">
@@ -20072,15 +20074,15 @@
         <v>270.77999999999997</v>
       </c>
       <c r="F454" s="8">
-        <f xml:space="preserve"> (F453 *(13 - 1) + E446) / 13</f>
+        <f t="shared" si="20"/>
         <v>282.07445648626225</v>
       </c>
       <c r="G454" s="11">
-        <f xml:space="preserve"> (G453 *(8-1) + E449) / 8</f>
+        <f t="shared" si="19"/>
         <v>279.90454965891234</v>
       </c>
       <c r="H454" s="11">
-        <f xml:space="preserve"> (H453 *(5-1) + E451) / 5</f>
+        <f t="shared" si="18"/>
         <v>274.81636774757879</v>
       </c>
       <c r="J454" s="2">
@@ -20114,15 +20116,15 @@
         <v>270.64999999999998</v>
       </c>
       <c r="F455" s="8">
-        <f xml:space="preserve"> (F454 *(13 - 1) + E447) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.97872906424203</v>
       </c>
       <c r="G455" s="11">
-        <f xml:space="preserve"> (G454 *(8-1) + E450) / 8</f>
+        <f t="shared" si="19"/>
         <v>278.42398095154829</v>
       </c>
       <c r="H455" s="11">
-        <f xml:space="preserve"> (H454 *(5-1) + E452) / 5</f>
+        <f t="shared" si="18"/>
         <v>274.19009419806304</v>
       </c>
       <c r="J455" s="2">
@@ -20156,15 +20158,15 @@
         <v>269.19</v>
       </c>
       <c r="F456" s="8">
-        <f xml:space="preserve"> (F455 *(13 - 1) + E448) / 13</f>
+        <f t="shared" si="20"/>
         <v>281.48305759776184</v>
       </c>
       <c r="G456" s="11">
-        <f xml:space="preserve"> (G455 *(8-1) + E451) / 8</f>
+        <f t="shared" si="19"/>
         <v>277.24285833260473</v>
       </c>
       <c r="H456" s="11">
-        <f xml:space="preserve"> (H455 *(5-1) + E453) / 5</f>
+        <f t="shared" si="18"/>
         <v>273.86607535845042</v>
       </c>
       <c r="J456" s="2">
@@ -20198,15 +20200,15 @@
         <v>265.14499999999998</v>
       </c>
       <c r="F457" s="8">
-        <f xml:space="preserve"> (F456 *(13 - 1) + E449) / 13</f>
+        <f t="shared" si="20"/>
         <v>280.44320701331861</v>
       </c>
       <c r="G457" s="11">
-        <f xml:space="preserve"> (G456 *(8-1) + E452) / 8</f>
+        <f t="shared" si="19"/>
         <v>276.54812604102915</v>
       </c>
       <c r="H457" s="11">
-        <f xml:space="preserve"> (H456 *(5-1) + E454) / 5</f>
+        <f t="shared" si="18"/>
         <v>273.2488602867603</v>
       </c>
       <c r="J457" s="2">
@@ -20240,15 +20242,15 @@
         <v>262.69</v>
       </c>
       <c r="F458" s="8">
-        <f xml:space="preserve"> (F457 *(13 - 1) + E450) / 13</f>
+        <f t="shared" si="20"/>
         <v>279.49065262767868</v>
       </c>
       <c r="G458" s="11">
-        <f xml:space="preserve"> (G457 *(8-1) + E453) / 8</f>
+        <f t="shared" si="19"/>
         <v>276.05086028590051</v>
       </c>
       <c r="H458" s="11">
-        <f xml:space="preserve"> (H457 *(5-1) + E455) / 5</f>
+        <f t="shared" ref="H458:H521" si="21" xml:space="preserve"> (H457 *(5-1) + E455) / 5</f>
         <v>272.72908822940826</v>
       </c>
       <c r="J458" s="2">
@@ -20282,15 +20284,15 @@
         <v>262.49</v>
       </c>
       <c r="F459" s="8">
-        <f xml:space="preserve"> (F458 *(13 - 1) + E451) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.68175627170342</v>
       </c>
       <c r="G459" s="11">
-        <f xml:space="preserve"> (G458 *(8-1) + E454) / 8</f>
+        <f t="shared" si="19"/>
         <v>275.39200275016299</v>
       </c>
       <c r="H459" s="11">
-        <f xml:space="preserve"> (H458 *(5-1) + E456) / 5</f>
+        <f t="shared" si="21"/>
         <v>272.02127058352664</v>
       </c>
       <c r="J459" s="2">
@@ -20324,15 +20326,15 @@
         <v>260.17</v>
       </c>
       <c r="F460" s="8">
-        <f xml:space="preserve"> (F459 *(13 - 1) + E452) / 13</f>
+        <f t="shared" si="20"/>
         <v>278.14354425080313</v>
       </c>
       <c r="G460" s="11">
-        <f xml:space="preserve"> (G459 *(8-1) + E455) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.79925240639261</v>
       </c>
       <c r="H460" s="11">
-        <f xml:space="preserve"> (H459 *(5-1) + E457) / 5</f>
+        <f t="shared" si="21"/>
         <v>270.64601646682132</v>
       </c>
       <c r="J460" s="2">
@@ -20366,15 +20368,15 @@
         <v>258.61500000000001</v>
       </c>
       <c r="F461" s="8">
-        <f xml:space="preserve"> (F460 *(13 - 1) + E453) / 13</f>
+        <f t="shared" si="20"/>
         <v>277.71481007766442</v>
       </c>
       <c r="G461" s="11">
-        <f xml:space="preserve"> (G460 *(8-1) + E456) / 8</f>
+        <f t="shared" si="19"/>
         <v>274.09809585559356</v>
       </c>
       <c r="H461" s="11">
-        <f xml:space="preserve"> (H460 *(5-1) + E458) / 5</f>
+        <f t="shared" si="21"/>
         <v>269.05481317345709</v>
       </c>
       <c r="J461" s="2">
@@ -20408,15 +20410,15 @@
         <v>259.17</v>
       </c>
       <c r="F462" s="8">
-        <f xml:space="preserve"> (F461 *(13 - 1) + E454) / 13</f>
+        <f t="shared" si="20"/>
         <v>277.18136314861329</v>
       </c>
       <c r="G462" s="11">
-        <f xml:space="preserve"> (G461 *(8-1) + E457) / 8</f>
+        <f t="shared" si="19"/>
         <v>272.97895887364439</v>
       </c>
       <c r="H462" s="11">
-        <f xml:space="preserve"> (H461 *(5-1) + E459) / 5</f>
+        <f t="shared" si="21"/>
         <v>267.74185053876568</v>
       </c>
       <c r="J462" s="2">
@@ -20450,15 +20452,15 @@
         <v>265.08000000000004</v>
       </c>
       <c r="F463" s="8">
-        <f xml:space="preserve"> (F462 *(13 - 1) + E455) / 13</f>
+        <f t="shared" si="20"/>
         <v>276.67895059871995</v>
       </c>
       <c r="G463" s="11">
-        <f xml:space="preserve"> (G462 *(8-1) + E458) / 8</f>
+        <f t="shared" ref="G463:G526" si="22" xml:space="preserve"> (G462 *(8-1) + E458) / 8</f>
         <v>271.69283901443885</v>
       </c>
       <c r="H463" s="11">
-        <f xml:space="preserve"> (H462 *(5-1) + E460) / 5</f>
+        <f t="shared" si="21"/>
         <v>266.22748043101257</v>
       </c>
       <c r="J463" s="2">
@@ -20492,15 +20494,15 @@
         <v>265.44499999999999</v>
       </c>
       <c r="F464" s="8">
-        <f xml:space="preserve"> (F463 *(13 - 1) + E456) / 13</f>
+        <f t="shared" si="20"/>
         <v>276.10287747574154</v>
       </c>
       <c r="G464" s="11">
-        <f xml:space="preserve"> (G463 *(8-1) + E459) / 8</f>
+        <f t="shared" si="22"/>
         <v>270.54248413763401</v>
       </c>
       <c r="H464" s="11">
-        <f xml:space="preserve"> (H463 *(5-1) + E461) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.70498434481004</v>
       </c>
       <c r="J464" s="2">
@@ -20534,15 +20536,15 @@
         <v>265.79500000000002</v>
       </c>
       <c r="F465" s="8">
-        <f xml:space="preserve"> (F464 *(13 - 1) + E457) / 13</f>
+        <f t="shared" si="20"/>
         <v>275.25996382376144</v>
       </c>
       <c r="G465" s="11">
-        <f xml:space="preserve"> (G464 *(8-1) + E460) / 8</f>
+        <f t="shared" si="22"/>
         <v>269.24592362042978</v>
       </c>
       <c r="H465" s="11">
-        <f xml:space="preserve"> (H464 *(5-1) + E462) / 5</f>
+        <f t="shared" si="21"/>
         <v>263.59798747584807</v>
       </c>
       <c r="J465" s="2">
@@ -20576,15 +20578,15 @@
         <v>266.06</v>
       </c>
       <c r="F466" s="8">
-        <f xml:space="preserve"> (F465 *(13 - 1) + E458) / 13</f>
+        <f t="shared" si="20"/>
         <v>274.29304352962595</v>
       </c>
       <c r="G466" s="11">
-        <f xml:space="preserve"> (G465 *(8-1) + E461) / 8</f>
+        <f t="shared" si="22"/>
         <v>267.91705816787606</v>
       </c>
       <c r="H466" s="11">
-        <f xml:space="preserve"> (H465 *(5-1) + E463) / 5</f>
+        <f t="shared" si="21"/>
         <v>263.89438998067845</v>
       </c>
       <c r="J466" s="2">
@@ -20618,15 +20620,15 @@
         <v>267.62</v>
       </c>
       <c r="F467" s="8">
-        <f xml:space="preserve"> (F466 *(13 - 1) + E459) / 13</f>
+        <f t="shared" si="20"/>
         <v>273.38511710427008</v>
       </c>
       <c r="G467" s="11">
-        <f xml:space="preserve"> (G466 *(8-1) + E462) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.82367589689153</v>
       </c>
       <c r="H467" s="11">
-        <f xml:space="preserve"> (H466 *(5-1) + E464) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.20451198454276</v>
       </c>
       <c r="J467" s="2">
@@ -20660,15 +20662,15 @@
         <v>272.31</v>
       </c>
       <c r="F468" s="8">
-        <f xml:space="preserve"> (F467 *(13 - 1) + E460) / 13</f>
+        <f t="shared" si="20"/>
         <v>272.36856963471087</v>
       </c>
       <c r="G468" s="11">
-        <f xml:space="preserve"> (G467 *(8-1) + E463) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.60571640978009</v>
       </c>
       <c r="H468" s="11">
-        <f xml:space="preserve"> (H467 *(5-1) + E465) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.52260958763424</v>
       </c>
       <c r="J468" s="2">
@@ -20702,15 +20704,15 @@
         <v>273.41499999999996</v>
       </c>
       <c r="F469" s="8">
-        <f xml:space="preserve"> (F468 *(13 - 1) + E461) / 13</f>
+        <f t="shared" si="20"/>
         <v>271.3106027397331</v>
       </c>
       <c r="G469" s="11">
-        <f xml:space="preserve"> (G468 *(8-1) + E464) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.46062685855759</v>
       </c>
       <c r="H469" s="11">
-        <f xml:space="preserve"> (H468 *(5-1) + E466) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.83008767010739</v>
       </c>
       <c r="J469" s="2">
@@ -20744,15 +20746,15 @@
         <v>270.96500000000003</v>
       </c>
       <c r="F470" s="8">
-        <f xml:space="preserve"> (F469 *(13 - 1) + E462) / 13</f>
+        <f t="shared" si="20"/>
         <v>270.37671022129211</v>
       </c>
       <c r="G470" s="11">
-        <f xml:space="preserve"> (G469 *(8-1) + E465) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.3774235012379</v>
       </c>
       <c r="H470" s="11">
-        <f xml:space="preserve"> (H469 *(5-1) + E467) / 5</f>
+        <f t="shared" si="21"/>
         <v>265.38807013608596</v>
       </c>
       <c r="J470" s="2">
@@ -20786,15 +20788,15 @@
         <v>268.05500000000001</v>
       </c>
       <c r="F471" s="8">
-        <f xml:space="preserve"> (F470 *(13 - 1) + E463) / 13</f>
+        <f t="shared" ref="F471:F534" si="23" xml:space="preserve"> (F470 *(13 - 1) + E463) / 13</f>
         <v>269.96927097350039</v>
       </c>
       <c r="G471" s="11">
-        <f xml:space="preserve"> (G470 *(8-1) + E466) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.33774556358316</v>
       </c>
       <c r="H471" s="11">
-        <f xml:space="preserve"> (H470 *(5-1) + E468) / 5</f>
+        <f t="shared" si="21"/>
         <v>266.77245610886877</v>
       </c>
       <c r="J471" s="2">
@@ -20828,15 +20830,15 @@
         <v>266.64999999999998</v>
       </c>
       <c r="F472" s="8">
-        <f xml:space="preserve"> (F471 *(13 - 1) + E464) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.62125012938498</v>
       </c>
       <c r="G472" s="11">
-        <f xml:space="preserve"> (G471 *(8-1) + E467) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.49802736813524</v>
       </c>
       <c r="H472" s="11">
-        <f xml:space="preserve"> (H471 *(5-1) + E469) / 5</f>
+        <f t="shared" si="21"/>
         <v>268.10096488709502</v>
       </c>
       <c r="J472" s="2">
@@ -20870,15 +20872,15 @@
         <v>264.935</v>
       </c>
       <c r="F473" s="8">
-        <f xml:space="preserve"> (F472 *(13 - 1) + E465) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.32692319635538</v>
       </c>
       <c r="G473" s="11">
-        <f xml:space="preserve"> (G472 *(8-1) + E468) / 8</f>
+        <f t="shared" si="22"/>
         <v>267.22452394711831</v>
       </c>
       <c r="H473" s="11">
-        <f xml:space="preserve"> (H472 *(5-1) + E470) / 5</f>
+        <f t="shared" si="21"/>
         <v>268.67377190967602</v>
       </c>
       <c r="J473" s="2">
@@ -20912,15 +20914,15 @@
         <v>263.71499999999997</v>
       </c>
       <c r="F474" s="8">
-        <f xml:space="preserve"> (F473 *(13 - 1) + E466) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.07562141202033</v>
       </c>
       <c r="G474" s="11">
-        <f xml:space="preserve"> (G473 *(8-1) + E469) / 8</f>
+        <f t="shared" si="22"/>
         <v>267.99833345372849</v>
       </c>
       <c r="H474" s="11">
-        <f xml:space="preserve"> (H473 *(5-1) + E471) / 5</f>
+        <f t="shared" si="21"/>
         <v>268.55001752774081</v>
       </c>
       <c r="J474" s="2">
@@ -20954,15 +20956,15 @@
         <v>266.35000000000002</v>
       </c>
       <c r="F475" s="8">
-        <f xml:space="preserve"> (F474 *(13 - 1) + E467) / 13</f>
+        <f t="shared" si="23"/>
         <v>268.96365053417259</v>
       </c>
       <c r="G475" s="11">
-        <f xml:space="preserve"> (G474 *(8-1) + E470) / 8</f>
+        <f t="shared" si="22"/>
         <v>268.36916677201242</v>
       </c>
       <c r="H475" s="11">
-        <f xml:space="preserve"> (H474 *(5-1) + E472) / 5</f>
+        <f t="shared" si="21"/>
         <v>268.17001402219267</v>
       </c>
       <c r="J475" s="2">
@@ -20996,15 +20998,15 @@
         <v>264.14999999999998</v>
       </c>
       <c r="F476" s="8">
-        <f xml:space="preserve"> (F475 *(13 - 1) + E468) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.22106203154397</v>
       </c>
       <c r="G476" s="11">
-        <f xml:space="preserve"> (G475 *(8-1) + E471) / 8</f>
+        <f t="shared" si="22"/>
         <v>268.32989592551087</v>
       </c>
       <c r="H476" s="11">
-        <f xml:space="preserve"> (H475 *(5-1) + E473) / 5</f>
+        <f t="shared" si="21"/>
         <v>267.52301121775412</v>
       </c>
       <c r="J476" s="2">
@@ -21038,15 +21040,15 @@
         <v>258.64</v>
       </c>
       <c r="F477" s="8">
-        <f xml:space="preserve"> (F476 *(13 - 1) + E469) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.54367264450212</v>
       </c>
       <c r="G477" s="11">
-        <f xml:space="preserve"> (G476 *(8-1) + E472) / 8</f>
+        <f t="shared" si="22"/>
         <v>268.11990893482204</v>
       </c>
       <c r="H477" s="11">
-        <f xml:space="preserve"> (H476 *(5-1) + E474) / 5</f>
+        <f t="shared" si="21"/>
         <v>266.76140897420328</v>
       </c>
       <c r="J477" s="2">
@@ -21080,15 +21082,15 @@
         <v>259.62</v>
       </c>
       <c r="F478" s="8">
-        <f xml:space="preserve"> (F477 *(13 - 1) + E470) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.65300551800198</v>
       </c>
       <c r="G478" s="11">
-        <f xml:space="preserve"> (G477 *(8-1) + E473) / 8</f>
+        <f t="shared" si="22"/>
         <v>267.72179531796928</v>
       </c>
       <c r="H478" s="11">
-        <f xml:space="preserve"> (H477 *(5-1) + E475) / 5</f>
+        <f t="shared" si="21"/>
         <v>266.67912717936258</v>
       </c>
       <c r="J478" s="2">
@@ -21122,15 +21124,15 @@
         <v>257.53499999999997</v>
       </c>
       <c r="F479" s="8">
-        <f xml:space="preserve"> (F478 *(13 - 1) + E471) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.5300820166172</v>
       </c>
       <c r="G479" s="11">
-        <f xml:space="preserve"> (G478 *(8-1) + E474) / 8</f>
+        <f t="shared" si="22"/>
         <v>267.22094590322314</v>
       </c>
       <c r="H479" s="11">
-        <f xml:space="preserve"> (H478 *(5-1) + E476) / 5</f>
+        <f t="shared" si="21"/>
         <v>266.17330174349007</v>
       </c>
       <c r="J479" s="2">
@@ -21164,15 +21166,15 @@
         <v>260.07499999999999</v>
       </c>
       <c r="F480" s="8">
-        <f xml:space="preserve"> (F479 *(13 - 1) + E472) / 13</f>
+        <f t="shared" si="23"/>
         <v>269.30853724610819</v>
       </c>
       <c r="G480" s="11">
-        <f xml:space="preserve"> (G479 *(8-1) + E475) / 8</f>
+        <f t="shared" si="22"/>
         <v>267.11207766532027</v>
       </c>
       <c r="H480" s="11">
-        <f xml:space="preserve"> (H479 *(5-1) + E477) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.66664139479207</v>
       </c>
       <c r="J480" s="2">
@@ -21206,15 +21208,15 @@
         <v>260.54499999999996</v>
       </c>
       <c r="F481" s="8">
-        <f xml:space="preserve"> (F480 *(13 - 1) + E473) / 13</f>
+        <f t="shared" si="23"/>
         <v>268.97211130409983</v>
       </c>
       <c r="G481" s="11">
-        <f xml:space="preserve"> (G480 *(8-1) + E476) / 8</f>
+        <f t="shared" si="22"/>
         <v>266.74181795715526</v>
       </c>
       <c r="H481" s="11">
-        <f xml:space="preserve"> (H480 *(5-1) + E478) / 5</f>
+        <f t="shared" si="21"/>
         <v>263.65731311583369</v>
       </c>
       <c r="J481" s="2">
@@ -21248,15 +21250,15 @@
         <v>264.86</v>
       </c>
       <c r="F482" s="8">
-        <f xml:space="preserve"> (F481 *(13 - 1) + E474) / 13</f>
+        <f t="shared" si="23"/>
         <v>268.56771812686139</v>
       </c>
       <c r="G482" s="11">
-        <f xml:space="preserve"> (G481 *(8-1) + E477) / 8</f>
+        <f t="shared" si="22"/>
         <v>265.72909071251087</v>
       </c>
       <c r="H482" s="11">
-        <f xml:space="preserve"> (H481 *(5-1) + E479) / 5</f>
+        <f t="shared" si="21"/>
         <v>262.43285049266694</v>
       </c>
       <c r="J482" s="2">
@@ -21290,15 +21292,15 @@
         <v>267.34000000000003</v>
       </c>
       <c r="F483" s="8">
-        <f xml:space="preserve"> (F482 *(13 - 1) + E475) / 13</f>
+        <f t="shared" si="23"/>
         <v>268.39712442479515</v>
       </c>
       <c r="G483" s="11">
-        <f xml:space="preserve"> (G482 *(8-1) + E478) / 8</f>
+        <f t="shared" si="22"/>
         <v>264.96545437344702</v>
       </c>
       <c r="H483" s="11">
-        <f xml:space="preserve"> (H482 *(5-1) + E480) / 5</f>
+        <f t="shared" si="21"/>
         <v>261.96128039413355</v>
       </c>
       <c r="J483" s="2">
@@ -21332,15 +21334,15 @@
         <v>268.19</v>
       </c>
       <c r="F484" s="8">
-        <f xml:space="preserve"> (F483 *(13 - 1) + E476) / 13</f>
+        <f t="shared" si="23"/>
         <v>268.07042254596479</v>
       </c>
       <c r="G484" s="11">
-        <f xml:space="preserve"> (G483 *(8-1) + E479) / 8</f>
+        <f t="shared" si="22"/>
         <v>264.03664757676614</v>
       </c>
       <c r="H484" s="11">
-        <f xml:space="preserve"> (H483 *(5-1) + E481) / 5</f>
+        <f t="shared" si="21"/>
         <v>261.6780243153068</v>
       </c>
       <c r="J484" s="2">
@@ -21374,15 +21376,15 @@
         <v>272.17999999999995</v>
       </c>
       <c r="F485" s="8">
-        <f xml:space="preserve"> (F484 *(13 - 1) + E477) / 13</f>
+        <f t="shared" si="23"/>
         <v>267.34500542704438</v>
       </c>
       <c r="G485" s="11">
-        <f xml:space="preserve"> (G484 *(8-1) + E480) / 8</f>
+        <f t="shared" si="22"/>
         <v>263.54144162967037</v>
       </c>
       <c r="H485" s="11">
-        <f xml:space="preserve"> (H484 *(5-1) + E482) / 5</f>
+        <f t="shared" si="21"/>
         <v>262.31441945224543</v>
       </c>
       <c r="J485" s="2">
@@ -21416,15 +21418,15 @@
         <v>267.71500000000003</v>
       </c>
       <c r="F486" s="8">
-        <f xml:space="preserve"> (F485 *(13 - 1) + E478) / 13</f>
+        <f t="shared" si="23"/>
         <v>266.75077424034868</v>
       </c>
       <c r="G486" s="11">
-        <f xml:space="preserve"> (G485 *(8-1) + E481) / 8</f>
+        <f t="shared" si="22"/>
         <v>263.16688642596159</v>
       </c>
       <c r="H486" s="11">
-        <f xml:space="preserve"> (H485 *(5-1) + E483) / 5</f>
+        <f t="shared" si="21"/>
         <v>263.31953556179633</v>
       </c>
       <c r="J486" s="2">
@@ -21458,15 +21460,15 @@
         <v>259.74</v>
       </c>
       <c r="F487" s="8">
-        <f xml:space="preserve"> (F486 *(13 - 1) + E479) / 13</f>
+        <f t="shared" si="23"/>
         <v>266.04186852955263</v>
       </c>
       <c r="G487" s="11">
-        <f xml:space="preserve"> (G486 *(8-1) + E482) / 8</f>
+        <f t="shared" si="22"/>
         <v>263.37852562271638</v>
       </c>
       <c r="H487" s="11">
-        <f xml:space="preserve"> (H486 *(5-1) + E484) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.29362844943705</v>
       </c>
       <c r="J487" s="2">
@@ -21500,15 +21502,15 @@
         <v>260.44</v>
       </c>
       <c r="F488" s="8">
-        <f xml:space="preserve"> (F487 *(13 - 1) + E480) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.58287864266396</v>
       </c>
       <c r="G488" s="11">
-        <f xml:space="preserve"> (G487 *(8-1) + E483) / 8</f>
+        <f t="shared" si="22"/>
         <v>263.87370991987683</v>
       </c>
       <c r="H488" s="11">
-        <f xml:space="preserve"> (H487 *(5-1) + E485) / 5</f>
+        <f t="shared" si="21"/>
         <v>265.87090275954961</v>
       </c>
       <c r="J488" s="2">
@@ -21542,15 +21544,15 @@
         <v>255.53000000000003</v>
       </c>
       <c r="F489" s="8">
-        <f xml:space="preserve"> (F488 *(13 - 1) + E481) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.19534951630521</v>
       </c>
       <c r="G489" s="11">
-        <f xml:space="preserve"> (G488 *(8-1) + E484) / 8</f>
+        <f t="shared" si="22"/>
         <v>264.41324617989221</v>
       </c>
       <c r="H489" s="11">
-        <f xml:space="preserve"> (H488 *(5-1) + E486) / 5</f>
+        <f t="shared" si="21"/>
         <v>266.23972220763972</v>
       </c>
       <c r="J489" s="2">
@@ -21584,15 +21586,15 @@
         <v>258.74</v>
       </c>
       <c r="F490" s="8">
-        <f xml:space="preserve"> (F489 *(13 - 1) + E482) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.16955339966637</v>
       </c>
       <c r="G490" s="11">
-        <f xml:space="preserve"> (G489 *(8-1) + E485) / 8</f>
+        <f t="shared" si="22"/>
         <v>265.38409040740567</v>
       </c>
       <c r="H490" s="11">
-        <f xml:space="preserve"> (H489 *(5-1) + E487) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.93977776611177</v>
       </c>
       <c r="J490" s="2">
@@ -21626,15 +21628,15 @@
         <v>260.70000000000005</v>
       </c>
       <c r="F491" s="8">
-        <f xml:space="preserve"> (F490 *(13 - 1) + E483) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.33651083046129</v>
       </c>
       <c r="G491" s="11">
-        <f xml:space="preserve"> (G490 *(8-1) + E486) / 8</f>
+        <f t="shared" si="22"/>
         <v>265.67545410647995</v>
       </c>
       <c r="H491" s="11">
-        <f xml:space="preserve"> (H490 *(5-1) + E488) / 5</f>
+        <f t="shared" si="21"/>
         <v>264.03982221288942</v>
       </c>
       <c r="J491" s="2">
@@ -21668,15 +21670,15 @@
         <v>259.35000000000002</v>
       </c>
       <c r="F492" s="8">
-        <f xml:space="preserve"> (F491 *(13 - 1) + E484) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.55600999734889</v>
       </c>
       <c r="G492" s="11">
-        <f xml:space="preserve"> (G491 *(8-1) + E487) / 8</f>
+        <f t="shared" si="22"/>
         <v>264.93352234316995</v>
       </c>
       <c r="H492" s="11">
-        <f xml:space="preserve"> (H491 *(5-1) + E489) / 5</f>
+        <f t="shared" si="21"/>
         <v>262.33785777031153</v>
       </c>
       <c r="J492" s="2">
@@ -21710,15 +21712,15 @@
         <v>255.57999999999998</v>
       </c>
       <c r="F493" s="8">
-        <f xml:space="preserve"> (F492 *(13 - 1) + E485) / 13</f>
+        <f t="shared" si="23"/>
         <v>266.06554768986052</v>
       </c>
       <c r="G493" s="11">
-        <f xml:space="preserve"> (G492 *(8-1) + E488) / 8</f>
+        <f t="shared" si="22"/>
         <v>264.37183205027372</v>
       </c>
       <c r="H493" s="11">
-        <f xml:space="preserve"> (H492 *(5-1) + E490) / 5</f>
+        <f t="shared" si="21"/>
         <v>261.6182862162492</v>
       </c>
       <c r="J493" s="2">
@@ -21752,15 +21754,15 @@
         <v>250.845</v>
       </c>
       <c r="F494" s="8">
-        <f xml:space="preserve"> (F493 *(13 - 1) + E486) / 13</f>
+        <f t="shared" si="23"/>
         <v>266.19242863679432</v>
       </c>
       <c r="G494" s="11">
-        <f xml:space="preserve"> (G493 *(8-1) + E489) / 8</f>
+        <f t="shared" si="22"/>
         <v>263.26660304398951</v>
       </c>
       <c r="H494" s="11">
-        <f xml:space="preserve"> (H493 *(5-1) + E491) / 5</f>
+        <f t="shared" si="21"/>
         <v>261.43462897299935</v>
       </c>
       <c r="J494" s="2">
@@ -21794,15 +21796,15 @@
         <v>249.41</v>
       </c>
       <c r="F495" s="8">
-        <f xml:space="preserve"> (F494 *(13 - 1) + E487) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.69608797242552</v>
       </c>
       <c r="G495" s="11">
-        <f xml:space="preserve"> (G494 *(8-1) + E490) / 8</f>
+        <f t="shared" si="22"/>
         <v>262.70077766349084</v>
       </c>
       <c r="H495" s="11">
-        <f xml:space="preserve"> (H494 *(5-1) + E492) / 5</f>
+        <f t="shared" si="21"/>
         <v>261.01770317839947</v>
       </c>
       <c r="J495" s="2">
@@ -21836,15 +21838,15 @@
         <v>248.2</v>
       </c>
       <c r="F496" s="8">
-        <f xml:space="preserve"> (F495 *(13 - 1) + E488) / 13</f>
+        <f t="shared" si="23"/>
         <v>265.2917735130082</v>
       </c>
       <c r="G496" s="11">
-        <f xml:space="preserve"> (G495 *(8-1) + E491) / 8</f>
+        <f t="shared" si="22"/>
         <v>262.45068045555445</v>
       </c>
       <c r="H496" s="11">
-        <f xml:space="preserve"> (H495 *(5-1) + E493) / 5</f>
+        <f t="shared" si="21"/>
         <v>259.93016254271959</v>
       </c>
       <c r="J496" s="2">
@@ -21878,15 +21880,15 @@
         <v>242.11</v>
       </c>
       <c r="F497" s="8">
-        <f xml:space="preserve"> (F496 *(13 - 1) + E489) / 13</f>
+        <f t="shared" si="23"/>
         <v>264.54086785816145</v>
       </c>
       <c r="G497" s="11">
-        <f xml:space="preserve"> (G496 *(8-1) + E492) / 8</f>
+        <f t="shared" si="22"/>
         <v>262.06309539861013</v>
       </c>
       <c r="H497" s="11">
-        <f xml:space="preserve"> (H496 *(5-1) + E494) / 5</f>
+        <f t="shared" si="21"/>
         <v>258.1131300341757</v>
       </c>
       <c r="J497" s="2">
@@ -21920,15 +21922,15 @@
         <v>240.29500000000002</v>
       </c>
       <c r="F498" s="8">
-        <f xml:space="preserve"> (F497 *(13 - 1) + E490) / 13</f>
+        <f t="shared" si="23"/>
         <v>264.09464725368747</v>
       </c>
       <c r="G498" s="11">
-        <f xml:space="preserve"> (G497 *(8-1) + E493) / 8</f>
+        <f t="shared" si="22"/>
         <v>261.25270847378385</v>
       </c>
       <c r="H498" s="11">
-        <f xml:space="preserve"> (H497 *(5-1) + E495) / 5</f>
+        <f t="shared" si="21"/>
         <v>256.3725040273406</v>
       </c>
       <c r="J498" s="2">
@@ -21962,15 +21964,15 @@
         <v>233.14</v>
       </c>
       <c r="F499" s="8">
-        <f xml:space="preserve"> (F498 *(13 - 1) + E491) / 13</f>
+        <f t="shared" si="23"/>
         <v>263.83352054186531</v>
       </c>
       <c r="G499" s="11">
-        <f xml:space="preserve"> (G498 *(8-1) + E494) / 8</f>
+        <f t="shared" si="22"/>
         <v>259.95174491456083</v>
       </c>
       <c r="H499" s="11">
-        <f xml:space="preserve"> (H498 *(5-1) + E496) / 5</f>
+        <f t="shared" si="21"/>
         <v>254.73800322187248</v>
       </c>
       <c r="J499" s="2">
@@ -22004,15 +22006,15 @@
         <v>235.51499999999999</v>
       </c>
       <c r="F500" s="8">
-        <f xml:space="preserve"> (F499 *(13 - 1) + E492) / 13</f>
+        <f t="shared" si="23"/>
         <v>263.48863434633722</v>
       </c>
       <c r="G500" s="11">
-        <f xml:space="preserve"> (G499 *(8-1) + E495) / 8</f>
+        <f t="shared" si="22"/>
         <v>258.63402680024075</v>
       </c>
       <c r="H500" s="11">
-        <f xml:space="preserve"> (H499 *(5-1) + E497) / 5</f>
+        <f t="shared" si="21"/>
         <v>252.21240257749795</v>
       </c>
       <c r="J500" s="2">
@@ -22046,15 +22048,15 @@
         <v>239.10000000000002</v>
       </c>
       <c r="F501" s="8">
-        <f xml:space="preserve"> (F500 *(13 - 1) + E493) / 13</f>
+        <f t="shared" si="23"/>
         <v>262.88027785815746</v>
       </c>
       <c r="G501" s="11">
-        <f xml:space="preserve"> (G500 *(8-1) + E496) / 8</f>
+        <f t="shared" si="22"/>
         <v>257.32977345021067</v>
       </c>
       <c r="H501" s="11">
-        <f xml:space="preserve"> (H500 *(5-1) + E498) / 5</f>
+        <f t="shared" si="21"/>
         <v>249.82892206199836</v>
       </c>
       <c r="J501" s="2">
@@ -22088,15 +22090,15 @@
         <v>244.3</v>
       </c>
       <c r="F502" s="8">
-        <f xml:space="preserve"> (F501 *(13 - 1) + E494) / 13</f>
+        <f t="shared" si="23"/>
         <v>261.95448725368379</v>
       </c>
       <c r="G502" s="11">
-        <f xml:space="preserve"> (G501 *(8-1) + E497) / 8</f>
+        <f t="shared" si="22"/>
         <v>255.42730176893434</v>
       </c>
       <c r="H502" s="11">
-        <f xml:space="preserve"> (H501 *(5-1) + E499) / 5</f>
+        <f t="shared" si="21"/>
         <v>246.49113764959867</v>
       </c>
       <c r="J502" s="2">
@@ -22130,15 +22132,15 @@
         <v>244.20499999999998</v>
       </c>
       <c r="F503" s="12">
-        <f xml:space="preserve"> (F502 *(13 - 1) + E495) / 13</f>
+        <f t="shared" si="23"/>
         <v>260.98952669570815</v>
       </c>
       <c r="G503" s="12">
-        <f xml:space="preserve"> (G502 *(8-1) + E498) / 8</f>
+        <f t="shared" si="22"/>
         <v>253.53576404781757</v>
       </c>
       <c r="H503" s="12">
-        <f xml:space="preserve"> (H502 *(5-1) + E500) / 5</f>
+        <f t="shared" si="21"/>
         <v>244.29591011967895</v>
       </c>
       <c r="J503" s="2">
